--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -370,10 +370,10 @@
     <t>['34', '68']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['9', '59']</t>
   </si>
   <si>
-    <t>['9', '59']</t>
+    <t>['81']</t>
   </si>
   <si>
     <t>['15', '45+4', '70']</t>
@@ -10674,7 +10674,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7574614</v>
+        <v>7574609</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10689,190 +10689,190 @@
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O48" t="s">
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q48">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="R48">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="T48">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="U48">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="V48">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W48">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="X48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y48">
+        <v>1.05</v>
+      </c>
+      <c r="Z48">
+        <v>1.95</v>
+      </c>
+      <c r="AA48">
+        <v>3.2</v>
+      </c>
+      <c r="AB48">
+        <v>4</v>
+      </c>
+      <c r="AC48">
         <v>1.07</v>
-      </c>
-      <c r="Z48">
-        <v>1.8</v>
-      </c>
-      <c r="AA48">
-        <v>3.3</v>
-      </c>
-      <c r="AB48">
-        <v>4.6</v>
-      </c>
-      <c r="AC48">
-        <v>1.05</v>
       </c>
       <c r="AD48">
         <v>8</v>
       </c>
       <c r="AE48">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AF48">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AG48">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AH48">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AI48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ48">
         <v>1.75</v>
       </c>
       <c r="AK48">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AL48">
         <v>1.25</v>
       </c>
       <c r="AM48">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO48">
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ48">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AR48">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="AS48">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="AT48">
-        <v>1.77</v>
+        <v>2.03</v>
       </c>
       <c r="AU48">
+        <v>8</v>
+      </c>
+      <c r="AV48">
         <v>5</v>
       </c>
-      <c r="AV48">
+      <c r="AW48">
         <v>6</v>
       </c>
-      <c r="AW48">
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>20</v>
+      </c>
+      <c r="AZ48">
+        <v>9</v>
+      </c>
+      <c r="BA48">
+        <v>7</v>
+      </c>
+      <c r="BB48">
         <v>4</v>
-      </c>
-      <c r="AX48">
-        <v>5</v>
-      </c>
-      <c r="AY48">
-        <v>9</v>
-      </c>
-      <c r="AZ48">
-        <v>13</v>
-      </c>
-      <c r="BA48">
-        <v>3</v>
-      </c>
-      <c r="BB48">
-        <v>8</v>
       </c>
       <c r="BC48">
         <v>11</v>
       </c>
       <c r="BD48">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="BE48">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF48">
-        <v>2.65</v>
+        <v>2.1</v>
       </c>
       <c r="BG48">
         <v>1.22</v>
       </c>
       <c r="BH48">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BI48">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="BJ48">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="BK48">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="BL48">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="BM48">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="BN48">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="BO48">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BP48">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10880,7 +10880,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7574609</v>
+        <v>7574614</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10895,190 +10895,190 @@
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O49" t="s">
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="Q49">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S49">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="T49">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="U49">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="V49">
+        <v>3.25</v>
+      </c>
+      <c r="W49">
+        <v>1.33</v>
+      </c>
+      <c r="X49">
+        <v>9</v>
+      </c>
+      <c r="Y49">
+        <v>1.07</v>
+      </c>
+      <c r="Z49">
+        <v>1.8</v>
+      </c>
+      <c r="AA49">
         <v>3.3</v>
       </c>
-      <c r="W49">
-        <v>1.28</v>
-      </c>
-      <c r="X49">
-        <v>8</v>
-      </c>
-      <c r="Y49">
+      <c r="AB49">
+        <v>4.6</v>
+      </c>
+      <c r="AC49">
         <v>1.05</v>
-      </c>
-      <c r="Z49">
-        <v>1.95</v>
-      </c>
-      <c r="AA49">
-        <v>3.2</v>
-      </c>
-      <c r="AB49">
-        <v>4</v>
-      </c>
-      <c r="AC49">
-        <v>1.07</v>
       </c>
       <c r="AD49">
         <v>8</v>
       </c>
       <c r="AE49">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AF49">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AG49">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AH49">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AI49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ49">
         <v>1.75</v>
       </c>
       <c r="AK49">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AL49">
         <v>1.25</v>
       </c>
       <c r="AM49">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="AN49">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO49">
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AR49">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="AS49">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="AT49">
-        <v>2.03</v>
+        <v>1.77</v>
       </c>
       <c r="AU49">
+        <v>5</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
+        <v>4</v>
+      </c>
+      <c r="AX49">
+        <v>5</v>
+      </c>
+      <c r="AY49">
+        <v>9</v>
+      </c>
+      <c r="AZ49">
+        <v>13</v>
+      </c>
+      <c r="BA49">
+        <v>3</v>
+      </c>
+      <c r="BB49">
         <v>8</v>
-      </c>
-      <c r="AV49">
-        <v>5</v>
-      </c>
-      <c r="AW49">
-        <v>6</v>
-      </c>
-      <c r="AX49">
-        <v>3</v>
-      </c>
-      <c r="AY49">
-        <v>20</v>
-      </c>
-      <c r="AZ49">
-        <v>9</v>
-      </c>
-      <c r="BA49">
-        <v>7</v>
-      </c>
-      <c r="BB49">
-        <v>4</v>
       </c>
       <c r="BC49">
         <v>11</v>
       </c>
       <c r="BD49">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="BE49">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF49">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="BG49">
         <v>1.22</v>
       </c>
       <c r="BH49">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="BI49">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BJ49">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="BK49">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="BL49">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="BM49">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="BN49">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="BO49">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BP49">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="50" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,12 @@
     <t>['30', '56', '61', '82']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['26', '46', '90+4']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -620,6 +626,12 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['49', '65']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -981,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1446,7 +1458,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1652,7 +1664,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -1733,7 +1745,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2064,7 +2076,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2145,7 +2157,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2476,7 +2488,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -2554,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2763,7 +2775,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3094,7 +3106,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3300,7 +3312,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3584,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0.33</v>
@@ -3712,7 +3724,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3790,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
         <v>3</v>
@@ -4124,7 +4136,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4536,7 +4548,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4742,7 +4754,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4948,7 +4960,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5026,7 +5038,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>3</v>
@@ -5154,7 +5166,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5235,7 +5247,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.57</v>
@@ -5647,7 +5659,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR23">
         <v>1.27</v>
@@ -5853,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR24">
         <v>2.62</v>
@@ -6677,7 +6689,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR28">
         <v>1.72</v>
@@ -6802,7 +6814,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7008,7 +7020,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7214,7 +7226,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7704,7 +7716,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
         <v>1.8</v>
@@ -7910,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
         <v>0.33</v>
@@ -8116,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8244,7 +8256,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8656,7 +8668,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8862,7 +8874,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8943,7 +8955,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR39">
         <v>1.27</v>
@@ -9274,7 +9286,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9480,7 +9492,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9561,7 +9573,7 @@
         <v>3</v>
       </c>
       <c r="AQ42">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>2.4</v>
@@ -9686,7 +9698,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10098,7 +10110,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10304,7 +10316,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10385,7 +10397,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR46">
         <v>1.1</v>
@@ -10510,7 +10522,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10588,7 +10600,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
         <v>2</v>
@@ -10716,7 +10728,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -10794,7 +10806,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>0.4</v>
@@ -11003,7 +11015,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR49">
         <v>1.09</v>
@@ -11128,7 +11140,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11540,7 +11552,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11746,7 +11758,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11824,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>0.67</v>
@@ -12030,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ54">
         <v>0.4</v>
@@ -12158,7 +12170,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12364,7 +12376,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12570,7 +12582,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12651,7 +12663,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -12776,7 +12788,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12982,7 +12994,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13887,7 +13899,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR63">
         <v>1.11</v>
@@ -14218,7 +14230,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14296,7 +14308,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>1.6</v>
@@ -14505,7 +14517,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ66">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -14711,7 +14723,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ67">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -14836,7 +14848,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15120,7 +15132,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15326,7 +15338,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>0.4</v>
@@ -15454,7 +15466,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15535,7 +15547,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR71">
         <v>1.19</v>
@@ -15660,7 +15672,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16072,7 +16084,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16278,7 +16290,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16484,7 +16496,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16565,7 +16577,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
         <v>1.15</v>
@@ -16690,7 +16702,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17308,7 +17320,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17514,7 +17526,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17720,7 +17732,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17798,10 +17810,10 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ82">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR82">
         <v>2.06</v>
@@ -17926,7 +17938,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18004,7 +18016,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18132,7 +18144,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18210,7 +18222,7 @@
         <v>1.33</v>
       </c>
       <c r="AP84">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
         <v>1.75</v>
@@ -18338,7 +18350,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18419,7 +18431,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ85">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR85">
         <v>1.21</v>
@@ -18544,7 +18556,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18831,7 +18843,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -18956,7 +18968,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19446,10 +19458,10 @@
         <v>1.5</v>
       </c>
       <c r="AP90">
+        <v>1.4</v>
+      </c>
+      <c r="AQ90">
         <v>1.5</v>
-      </c>
-      <c r="AQ90">
-        <v>1.2</v>
       </c>
       <c r="AR90">
         <v>1.22</v>
@@ -19574,7 +19586,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19780,7 +19792,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20398,7 +20410,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21016,7 +21028,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21222,7 +21234,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21379,6 +21391,830 @@
       </c>
       <c r="BP99">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7574663</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45625.71875</v>
+      </c>
+      <c r="F100">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>76</v>
+      </c>
+      <c r="H100" t="s">
+        <v>87</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100" t="s">
+        <v>152</v>
+      </c>
+      <c r="P100" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q100">
+        <v>3.25</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>3.75</v>
+      </c>
+      <c r="T100">
+        <v>1.53</v>
+      </c>
+      <c r="U100">
+        <v>2.38</v>
+      </c>
+      <c r="V100">
+        <v>3.5</v>
+      </c>
+      <c r="W100">
+        <v>1.29</v>
+      </c>
+      <c r="X100">
+        <v>11</v>
+      </c>
+      <c r="Y100">
+        <v>1.05</v>
+      </c>
+      <c r="Z100">
+        <v>2.18</v>
+      </c>
+      <c r="AA100">
+        <v>3.37</v>
+      </c>
+      <c r="AB100">
+        <v>2.9</v>
+      </c>
+      <c r="AC100">
+        <v>1.08</v>
+      </c>
+      <c r="AD100">
+        <v>8.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.44</v>
+      </c>
+      <c r="AF100">
+        <v>2.75</v>
+      </c>
+      <c r="AG100">
+        <v>2.02</v>
+      </c>
+      <c r="AH100">
+        <v>1.65</v>
+      </c>
+      <c r="AI100">
+        <v>2</v>
+      </c>
+      <c r="AJ100">
+        <v>1.75</v>
+      </c>
+      <c r="AK100">
+        <v>1.42</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.53</v>
+      </c>
+      <c r="AN100">
+        <v>0.6</v>
+      </c>
+      <c r="AO100">
+        <v>0.2</v>
+      </c>
+      <c r="AP100">
+        <v>1</v>
+      </c>
+      <c r="AQ100">
+        <v>0.17</v>
+      </c>
+      <c r="AR100">
+        <v>1.15</v>
+      </c>
+      <c r="AS100">
+        <v>0.99</v>
+      </c>
+      <c r="AT100">
+        <v>2.14</v>
+      </c>
+      <c r="AU100">
+        <v>3</v>
+      </c>
+      <c r="AV100">
+        <v>4</v>
+      </c>
+      <c r="AW100">
+        <v>7</v>
+      </c>
+      <c r="AX100">
+        <v>7</v>
+      </c>
+      <c r="AY100">
+        <v>13</v>
+      </c>
+      <c r="AZ100">
+        <v>14</v>
+      </c>
+      <c r="BA100">
+        <v>3</v>
+      </c>
+      <c r="BB100">
+        <v>6</v>
+      </c>
+      <c r="BC100">
+        <v>9</v>
+      </c>
+      <c r="BD100">
+        <v>1.95</v>
+      </c>
+      <c r="BE100">
+        <v>6.5</v>
+      </c>
+      <c r="BF100">
+        <v>1.93</v>
+      </c>
+      <c r="BG100">
+        <v>1.21</v>
+      </c>
+      <c r="BH100">
+        <v>3.65</v>
+      </c>
+      <c r="BI100">
+        <v>1.38</v>
+      </c>
+      <c r="BJ100">
+        <v>2.7</v>
+      </c>
+      <c r="BK100">
+        <v>1.63</v>
+      </c>
+      <c r="BL100">
+        <v>2.08</v>
+      </c>
+      <c r="BM100">
+        <v>2</v>
+      </c>
+      <c r="BN100">
+        <v>1.68</v>
+      </c>
+      <c r="BO100">
+        <v>2.55</v>
+      </c>
+      <c r="BP100">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7574664</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45626.52083333334</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s">
+        <v>84</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101" t="s">
+        <v>153</v>
+      </c>
+      <c r="P101" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q101">
+        <v>3.6</v>
+      </c>
+      <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>3.4</v>
+      </c>
+      <c r="T101">
+        <v>1.53</v>
+      </c>
+      <c r="U101">
+        <v>2.38</v>
+      </c>
+      <c r="V101">
+        <v>3.5</v>
+      </c>
+      <c r="W101">
+        <v>1.29</v>
+      </c>
+      <c r="X101">
+        <v>11</v>
+      </c>
+      <c r="Y101">
+        <v>1.05</v>
+      </c>
+      <c r="Z101">
+        <v>2.65</v>
+      </c>
+      <c r="AA101">
+        <v>3.01</v>
+      </c>
+      <c r="AB101">
+        <v>2.37</v>
+      </c>
+      <c r="AC101">
+        <v>1.08</v>
+      </c>
+      <c r="AD101">
+        <v>8</v>
+      </c>
+      <c r="AE101">
+        <v>1.45</v>
+      </c>
+      <c r="AF101">
+        <v>2.7</v>
+      </c>
+      <c r="AG101">
+        <v>2.2</v>
+      </c>
+      <c r="AH101">
+        <v>1.6</v>
+      </c>
+      <c r="AI101">
+        <v>2</v>
+      </c>
+      <c r="AJ101">
+        <v>1.75</v>
+      </c>
+      <c r="AK101">
+        <v>1.53</v>
+      </c>
+      <c r="AL101">
+        <v>1.3</v>
+      </c>
+      <c r="AM101">
+        <v>1.42</v>
+      </c>
+      <c r="AN101">
+        <v>1.8</v>
+      </c>
+      <c r="AO101">
+        <v>1</v>
+      </c>
+      <c r="AP101">
+        <v>2</v>
+      </c>
+      <c r="AQ101">
+        <v>0.86</v>
+      </c>
+      <c r="AR101">
+        <v>1.42</v>
+      </c>
+      <c r="AS101">
+        <v>1.28</v>
+      </c>
+      <c r="AT101">
+        <v>2.7</v>
+      </c>
+      <c r="AU101">
+        <v>5</v>
+      </c>
+      <c r="AV101">
+        <v>3</v>
+      </c>
+      <c r="AW101">
+        <v>6</v>
+      </c>
+      <c r="AX101">
+        <v>7</v>
+      </c>
+      <c r="AY101">
+        <v>13</v>
+      </c>
+      <c r="AZ101">
+        <v>12</v>
+      </c>
+      <c r="BA101">
+        <v>2</v>
+      </c>
+      <c r="BB101">
+        <v>4</v>
+      </c>
+      <c r="BC101">
+        <v>6</v>
+      </c>
+      <c r="BD101">
+        <v>2</v>
+      </c>
+      <c r="BE101">
+        <v>6.25</v>
+      </c>
+      <c r="BF101">
+        <v>1.88</v>
+      </c>
+      <c r="BG101">
+        <v>1.28</v>
+      </c>
+      <c r="BH101">
+        <v>3.2</v>
+      </c>
+      <c r="BI101">
+        <v>1.49</v>
+      </c>
+      <c r="BJ101">
+        <v>2.38</v>
+      </c>
+      <c r="BK101">
+        <v>1.81</v>
+      </c>
+      <c r="BL101">
+        <v>1.86</v>
+      </c>
+      <c r="BM101">
+        <v>2.25</v>
+      </c>
+      <c r="BN101">
+        <v>1.54</v>
+      </c>
+      <c r="BO101">
+        <v>2.9</v>
+      </c>
+      <c r="BP101">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7574666</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45626.625</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>82</v>
+      </c>
+      <c r="H102" t="s">
+        <v>86</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>90</v>
+      </c>
+      <c r="P102" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q102">
+        <v>2.6</v>
+      </c>
+      <c r="R102">
+        <v>2.1</v>
+      </c>
+      <c r="S102">
+        <v>4.75</v>
+      </c>
+      <c r="T102">
+        <v>1.44</v>
+      </c>
+      <c r="U102">
+        <v>2.63</v>
+      </c>
+      <c r="V102">
+        <v>3.25</v>
+      </c>
+      <c r="W102">
+        <v>1.33</v>
+      </c>
+      <c r="X102">
+        <v>9</v>
+      </c>
+      <c r="Y102">
+        <v>1.07</v>
+      </c>
+      <c r="Z102">
+        <v>1.91</v>
+      </c>
+      <c r="AA102">
+        <v>3.07</v>
+      </c>
+      <c r="AB102">
+        <v>3.57</v>
+      </c>
+      <c r="AC102">
+        <v>1.06</v>
+      </c>
+      <c r="AD102">
+        <v>9.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.36</v>
+      </c>
+      <c r="AF102">
+        <v>3.1</v>
+      </c>
+      <c r="AG102">
+        <v>2</v>
+      </c>
+      <c r="AH102">
+        <v>1.7</v>
+      </c>
+      <c r="AI102">
+        <v>1.95</v>
+      </c>
+      <c r="AJ102">
+        <v>1.8</v>
+      </c>
+      <c r="AK102">
+        <v>1.22</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>1.95</v>
+      </c>
+      <c r="AN102">
+        <v>1.5</v>
+      </c>
+      <c r="AO102">
+        <v>1.33</v>
+      </c>
+      <c r="AP102">
+        <v>1.4</v>
+      </c>
+      <c r="AQ102">
+        <v>1.29</v>
+      </c>
+      <c r="AR102">
+        <v>1.15</v>
+      </c>
+      <c r="AS102">
+        <v>0.99</v>
+      </c>
+      <c r="AT102">
+        <v>2.14</v>
+      </c>
+      <c r="AU102">
+        <v>9</v>
+      </c>
+      <c r="AV102">
+        <v>3</v>
+      </c>
+      <c r="AW102">
+        <v>9</v>
+      </c>
+      <c r="AX102">
+        <v>4</v>
+      </c>
+      <c r="AY102">
+        <v>25</v>
+      </c>
+      <c r="AZ102">
+        <v>10</v>
+      </c>
+      <c r="BA102">
+        <v>4</v>
+      </c>
+      <c r="BB102">
+        <v>7</v>
+      </c>
+      <c r="BC102">
+        <v>11</v>
+      </c>
+      <c r="BD102">
+        <v>1.56</v>
+      </c>
+      <c r="BE102">
+        <v>6.4</v>
+      </c>
+      <c r="BF102">
+        <v>2.5</v>
+      </c>
+      <c r="BG102">
+        <v>1.29</v>
+      </c>
+      <c r="BH102">
+        <v>3.15</v>
+      </c>
+      <c r="BI102">
+        <v>1.5</v>
+      </c>
+      <c r="BJ102">
+        <v>2.33</v>
+      </c>
+      <c r="BK102">
+        <v>1.82</v>
+      </c>
+      <c r="BL102">
+        <v>1.84</v>
+      </c>
+      <c r="BM102">
+        <v>2.28</v>
+      </c>
+      <c r="BN102">
+        <v>1.52</v>
+      </c>
+      <c r="BO102">
+        <v>2.95</v>
+      </c>
+      <c r="BP102">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7574665</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45626.72916666666</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>70</v>
+      </c>
+      <c r="H103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>90</v>
+      </c>
+      <c r="P103" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q103">
+        <v>1.57</v>
+      </c>
+      <c r="R103">
+        <v>2.75</v>
+      </c>
+      <c r="S103">
+        <v>13</v>
+      </c>
+      <c r="T103">
+        <v>1.29</v>
+      </c>
+      <c r="U103">
+        <v>3.5</v>
+      </c>
+      <c r="V103">
+        <v>2.38</v>
+      </c>
+      <c r="W103">
+        <v>1.53</v>
+      </c>
+      <c r="X103">
+        <v>5.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.14</v>
+      </c>
+      <c r="Z103">
+        <v>1.17</v>
+      </c>
+      <c r="AA103">
+        <v>5.8</v>
+      </c>
+      <c r="AB103">
+        <v>11.08</v>
+      </c>
+      <c r="AC103">
+        <v>1.01</v>
+      </c>
+      <c r="AD103">
+        <v>19</v>
+      </c>
+      <c r="AE103">
+        <v>1.18</v>
+      </c>
+      <c r="AF103">
+        <v>4.75</v>
+      </c>
+      <c r="AG103">
+        <v>1.6</v>
+      </c>
+      <c r="AH103">
+        <v>2.2</v>
+      </c>
+      <c r="AI103">
+        <v>2.5</v>
+      </c>
+      <c r="AJ103">
+        <v>1.5</v>
+      </c>
+      <c r="AK103">
+        <v>1.02</v>
+      </c>
+      <c r="AL103">
+        <v>1.09</v>
+      </c>
+      <c r="AM103">
+        <v>4.75</v>
+      </c>
+      <c r="AN103">
+        <v>3</v>
+      </c>
+      <c r="AO103">
+        <v>1.2</v>
+      </c>
+      <c r="AP103">
+        <v>2.5</v>
+      </c>
+      <c r="AQ103">
+        <v>1.5</v>
+      </c>
+      <c r="AR103">
+        <v>2.02</v>
+      </c>
+      <c r="AS103">
+        <v>1.27</v>
+      </c>
+      <c r="AT103">
+        <v>3.29</v>
+      </c>
+      <c r="AU103">
+        <v>5</v>
+      </c>
+      <c r="AV103">
+        <v>4</v>
+      </c>
+      <c r="AW103">
+        <v>9</v>
+      </c>
+      <c r="AX103">
+        <v>1</v>
+      </c>
+      <c r="AY103">
+        <v>22</v>
+      </c>
+      <c r="AZ103">
+        <v>5</v>
+      </c>
+      <c r="BA103">
+        <v>8</v>
+      </c>
+      <c r="BB103">
+        <v>2</v>
+      </c>
+      <c r="BC103">
+        <v>10</v>
+      </c>
+      <c r="BD103">
+        <v>1.11</v>
+      </c>
+      <c r="BE103">
+        <v>9</v>
+      </c>
+      <c r="BF103">
+        <v>5.8</v>
+      </c>
+      <c r="BG103">
+        <v>1.37</v>
+      </c>
+      <c r="BH103">
+        <v>2.75</v>
+      </c>
+      <c r="BI103">
+        <v>1.61</v>
+      </c>
+      <c r="BJ103">
+        <v>2.12</v>
+      </c>
+      <c r="BK103">
+        <v>1.98</v>
+      </c>
+      <c r="BL103">
+        <v>1.7</v>
+      </c>
+      <c r="BM103">
+        <v>2.55</v>
+      </c>
+      <c r="BN103">
+        <v>1.43</v>
+      </c>
+      <c r="BO103">
+        <v>3.3</v>
+      </c>
+      <c r="BP103">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,9 @@
     <t>['26', '46', '90+4']</t>
   </si>
   <si>
+    <t>['5', '30']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -632,6 +635,12 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['12', '71']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1458,7 +1467,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1536,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ3">
         <v>0.33</v>
@@ -1664,7 +1673,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -2076,7 +2085,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2154,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -2363,7 +2372,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2488,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -2978,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3106,7 +3115,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3312,7 +3321,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3724,7 +3733,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4136,7 +4145,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4548,7 +4557,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4629,7 +4638,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4754,7 +4763,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4835,7 +4844,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4960,7 +4969,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5166,7 +5175,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -6068,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ25">
         <v>0.33</v>
@@ -6274,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ26">
         <v>0.33</v>
@@ -6480,7 +6489,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6814,7 +6823,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6895,7 +6904,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.3</v>
@@ -7020,7 +7029,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7226,7 +7235,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8256,7 +8265,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8337,7 +8346,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.59</v>
@@ -8543,7 +8552,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -8668,7 +8677,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8746,7 +8755,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ38">
         <v>3</v>
@@ -8874,7 +8883,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9158,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ40">
         <v>0.5</v>
@@ -9286,7 +9295,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9492,7 +9501,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9698,7 +9707,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -9982,7 +9991,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ44">
         <v>0.33</v>
@@ -10110,7 +10119,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10316,7 +10325,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10522,7 +10531,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10603,7 +10612,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR47">
         <v>1.27</v>
@@ -10728,7 +10737,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11140,7 +11149,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11427,7 +11436,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ51">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.08</v>
@@ -11552,7 +11561,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11758,7 +11767,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12170,7 +12179,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12251,7 +12260,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ55">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.28</v>
@@ -12376,7 +12385,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12454,7 +12463,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ56">
         <v>3</v>
@@ -12582,7 +12591,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12788,7 +12797,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12994,7 +13003,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -14102,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ64">
         <v>0.33</v>
@@ -14230,7 +14239,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14311,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14848,7 +14857,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -14926,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ68">
         <v>0.4</v>
@@ -15466,7 +15475,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15672,7 +15681,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15753,7 +15762,7 @@
         <v>3</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR72">
         <v>2.36</v>
@@ -16084,7 +16093,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16290,7 +16299,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16368,7 +16377,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ75">
         <v>0.67</v>
@@ -16496,7 +16505,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16702,7 +16711,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17320,7 +17329,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17526,7 +17535,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17604,7 +17613,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ81">
         <v>1.8</v>
@@ -17732,7 +17741,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17938,7 +17947,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18144,7 +18153,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18225,7 +18234,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.17</v>
@@ -18350,7 +18359,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18556,7 +18565,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18634,10 +18643,10 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
+        <v>1.14</v>
+      </c>
+      <c r="AQ86">
         <v>1.33</v>
-      </c>
-      <c r="AQ86">
-        <v>1.6</v>
       </c>
       <c r="AR86">
         <v>1.12</v>
@@ -18968,7 +18977,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19046,10 +19055,10 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR88">
         <v>0.89</v>
@@ -19586,7 +19595,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19792,7 +19801,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20076,7 +20085,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ93">
         <v>0.4</v>
@@ -20410,7 +20419,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21028,7 +21037,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21234,7 +21243,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21646,7 +21655,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22058,7 +22067,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22215,6 +22224,624 @@
       </c>
       <c r="BP103">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7574670</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45627.52083333334</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>74</v>
+      </c>
+      <c r="H104" t="s">
+        <v>75</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>154</v>
+      </c>
+      <c r="P104" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q104">
+        <v>4</v>
+      </c>
+      <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>3.1</v>
+      </c>
+      <c r="T104">
+        <v>1.53</v>
+      </c>
+      <c r="U104">
+        <v>2.38</v>
+      </c>
+      <c r="V104">
+        <v>3.5</v>
+      </c>
+      <c r="W104">
+        <v>1.29</v>
+      </c>
+      <c r="X104">
+        <v>11</v>
+      </c>
+      <c r="Y104">
+        <v>1.05</v>
+      </c>
+      <c r="Z104">
+        <v>3.25</v>
+      </c>
+      <c r="AA104">
+        <v>3.1</v>
+      </c>
+      <c r="AB104">
+        <v>2.25</v>
+      </c>
+      <c r="AC104">
+        <v>1.09</v>
+      </c>
+      <c r="AD104">
+        <v>7.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.47</v>
+      </c>
+      <c r="AF104">
+        <v>2.75</v>
+      </c>
+      <c r="AG104">
+        <v>2.3</v>
+      </c>
+      <c r="AH104">
+        <v>1.55</v>
+      </c>
+      <c r="AI104">
+        <v>2.05</v>
+      </c>
+      <c r="AJ104">
+        <v>1.7</v>
+      </c>
+      <c r="AK104">
+        <v>1.65</v>
+      </c>
+      <c r="AL104">
+        <v>1.3</v>
+      </c>
+      <c r="AM104">
+        <v>1.33</v>
+      </c>
+      <c r="AN104">
+        <v>1.33</v>
+      </c>
+      <c r="AO104">
+        <v>1.6</v>
+      </c>
+      <c r="AP104">
+        <v>1.57</v>
+      </c>
+      <c r="AQ104">
+        <v>1.33</v>
+      </c>
+      <c r="AR104">
+        <v>1</v>
+      </c>
+      <c r="AS104">
+        <v>1.22</v>
+      </c>
+      <c r="AT104">
+        <v>2.22</v>
+      </c>
+      <c r="AU104">
+        <v>5</v>
+      </c>
+      <c r="AV104">
+        <v>2</v>
+      </c>
+      <c r="AW104">
+        <v>5</v>
+      </c>
+      <c r="AX104">
+        <v>4</v>
+      </c>
+      <c r="AY104">
+        <v>14</v>
+      </c>
+      <c r="AZ104">
+        <v>8</v>
+      </c>
+      <c r="BA104">
+        <v>5</v>
+      </c>
+      <c r="BB104">
+        <v>7</v>
+      </c>
+      <c r="BC104">
+        <v>12</v>
+      </c>
+      <c r="BD104">
+        <v>2.05</v>
+      </c>
+      <c r="BE104">
+        <v>6.4</v>
+      </c>
+      <c r="BF104">
+        <v>1.84</v>
+      </c>
+      <c r="BG104">
+        <v>1.3</v>
+      </c>
+      <c r="BH104">
+        <v>3.05</v>
+      </c>
+      <c r="BI104">
+        <v>1.53</v>
+      </c>
+      <c r="BJ104">
+        <v>2.28</v>
+      </c>
+      <c r="BK104">
+        <v>1.87</v>
+      </c>
+      <c r="BL104">
+        <v>1.79</v>
+      </c>
+      <c r="BM104">
+        <v>2.38</v>
+      </c>
+      <c r="BN104">
+        <v>1.49</v>
+      </c>
+      <c r="BO104">
+        <v>3.05</v>
+      </c>
+      <c r="BP104">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7574669</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45627.625</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>78</v>
+      </c>
+      <c r="H105" t="s">
+        <v>83</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>90</v>
+      </c>
+      <c r="P105" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q105">
+        <v>9</v>
+      </c>
+      <c r="R105">
+        <v>2.75</v>
+      </c>
+      <c r="S105">
+        <v>1.67</v>
+      </c>
+      <c r="T105">
+        <v>1.25</v>
+      </c>
+      <c r="U105">
+        <v>3.75</v>
+      </c>
+      <c r="V105">
+        <v>2.2</v>
+      </c>
+      <c r="W105">
+        <v>1.62</v>
+      </c>
+      <c r="X105">
+        <v>5</v>
+      </c>
+      <c r="Y105">
+        <v>1.17</v>
+      </c>
+      <c r="Z105">
+        <v>11</v>
+      </c>
+      <c r="AA105">
+        <v>6</v>
+      </c>
+      <c r="AB105">
+        <v>1.22</v>
+      </c>
+      <c r="AC105">
+        <v>1.03</v>
+      </c>
+      <c r="AD105">
+        <v>11</v>
+      </c>
+      <c r="AE105">
+        <v>1.16</v>
+      </c>
+      <c r="AF105">
+        <v>5</v>
+      </c>
+      <c r="AG105">
+        <v>1.57</v>
+      </c>
+      <c r="AH105">
+        <v>2.25</v>
+      </c>
+      <c r="AI105">
+        <v>2</v>
+      </c>
+      <c r="AJ105">
+        <v>1.75</v>
+      </c>
+      <c r="AK105">
+        <v>4</v>
+      </c>
+      <c r="AL105">
+        <v>1.09</v>
+      </c>
+      <c r="AM105">
+        <v>1.01</v>
+      </c>
+      <c r="AN105">
+        <v>0.8</v>
+      </c>
+      <c r="AO105">
+        <v>1.75</v>
+      </c>
+      <c r="AP105">
+        <v>0.67</v>
+      </c>
+      <c r="AQ105">
+        <v>2</v>
+      </c>
+      <c r="AR105">
+        <v>0.97</v>
+      </c>
+      <c r="AS105">
+        <v>1.74</v>
+      </c>
+      <c r="AT105">
+        <v>2.71</v>
+      </c>
+      <c r="AU105">
+        <v>6</v>
+      </c>
+      <c r="AV105">
+        <v>9</v>
+      </c>
+      <c r="AW105">
+        <v>6</v>
+      </c>
+      <c r="AX105">
+        <v>2</v>
+      </c>
+      <c r="AY105">
+        <v>14</v>
+      </c>
+      <c r="AZ105">
+        <v>15</v>
+      </c>
+      <c r="BA105">
+        <v>5</v>
+      </c>
+      <c r="BB105">
+        <v>6</v>
+      </c>
+      <c r="BC105">
+        <v>11</v>
+      </c>
+      <c r="BD105">
+        <v>4.6</v>
+      </c>
+      <c r="BE105">
+        <v>8.5</v>
+      </c>
+      <c r="BF105">
+        <v>1.18</v>
+      </c>
+      <c r="BG105">
+        <v>1.2</v>
+      </c>
+      <c r="BH105">
+        <v>3.8</v>
+      </c>
+      <c r="BI105">
+        <v>1.36</v>
+      </c>
+      <c r="BJ105">
+        <v>2.8</v>
+      </c>
+      <c r="BK105">
+        <v>1.6</v>
+      </c>
+      <c r="BL105">
+        <v>2.14</v>
+      </c>
+      <c r="BM105">
+        <v>1.94</v>
+      </c>
+      <c r="BN105">
+        <v>1.73</v>
+      </c>
+      <c r="BO105">
+        <v>2.43</v>
+      </c>
+      <c r="BP105">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7574667</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45627.72916666666</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>71</v>
+      </c>
+      <c r="H106" t="s">
+        <v>77</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>90</v>
+      </c>
+      <c r="P106" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q106">
+        <v>5.5</v>
+      </c>
+      <c r="R106">
+        <v>2.25</v>
+      </c>
+      <c r="S106">
+        <v>2.2</v>
+      </c>
+      <c r="T106">
+        <v>1.36</v>
+      </c>
+      <c r="U106">
+        <v>3</v>
+      </c>
+      <c r="V106">
+        <v>2.75</v>
+      </c>
+      <c r="W106">
+        <v>1.4</v>
+      </c>
+      <c r="X106">
+        <v>7</v>
+      </c>
+      <c r="Y106">
+        <v>1.1</v>
+      </c>
+      <c r="Z106">
+        <v>5.1</v>
+      </c>
+      <c r="AA106">
+        <v>4.1</v>
+      </c>
+      <c r="AB106">
+        <v>1.56</v>
+      </c>
+      <c r="AC106">
+        <v>1.03</v>
+      </c>
+      <c r="AD106">
+        <v>13</v>
+      </c>
+      <c r="AE106">
+        <v>1.25</v>
+      </c>
+      <c r="AF106">
+        <v>3.75</v>
+      </c>
+      <c r="AG106">
+        <v>1.87</v>
+      </c>
+      <c r="AH106">
+        <v>2.02</v>
+      </c>
+      <c r="AI106">
+        <v>1.91</v>
+      </c>
+      <c r="AJ106">
+        <v>1.91</v>
+      </c>
+      <c r="AK106">
+        <v>2.3</v>
+      </c>
+      <c r="AL106">
+        <v>1.2</v>
+      </c>
+      <c r="AM106">
+        <v>1.16</v>
+      </c>
+      <c r="AN106">
+        <v>1.33</v>
+      </c>
+      <c r="AO106">
+        <v>2</v>
+      </c>
+      <c r="AP106">
+        <v>1.14</v>
+      </c>
+      <c r="AQ106">
+        <v>2.17</v>
+      </c>
+      <c r="AR106">
+        <v>1.19</v>
+      </c>
+      <c r="AS106">
+        <v>1.49</v>
+      </c>
+      <c r="AT106">
+        <v>2.68</v>
+      </c>
+      <c r="AU106">
+        <v>2</v>
+      </c>
+      <c r="AV106">
+        <v>9</v>
+      </c>
+      <c r="AW106">
+        <v>3</v>
+      </c>
+      <c r="AX106">
+        <v>4</v>
+      </c>
+      <c r="AY106">
+        <v>7</v>
+      </c>
+      <c r="AZ106">
+        <v>21</v>
+      </c>
+      <c r="BA106">
+        <v>2</v>
+      </c>
+      <c r="BB106">
+        <v>9</v>
+      </c>
+      <c r="BC106">
+        <v>11</v>
+      </c>
+      <c r="BD106">
+        <v>2.9</v>
+      </c>
+      <c r="BE106">
+        <v>7</v>
+      </c>
+      <c r="BF106">
+        <v>1.42</v>
+      </c>
+      <c r="BG106">
+        <v>1.23</v>
+      </c>
+      <c r="BH106">
+        <v>3.55</v>
+      </c>
+      <c r="BI106">
+        <v>1.4</v>
+      </c>
+      <c r="BJ106">
+        <v>2.65</v>
+      </c>
+      <c r="BK106">
+        <v>1.65</v>
+      </c>
+      <c r="BL106">
+        <v>2.04</v>
+      </c>
+      <c r="BM106">
+        <v>2.02</v>
+      </c>
+      <c r="BN106">
+        <v>1.67</v>
+      </c>
+      <c r="BO106">
+        <v>2.55</v>
+      </c>
+      <c r="BP106">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>['5', '30']</t>
+  </si>
+  <si>
+    <t>['45', '46', '59', '87']</t>
+  </si>
+  <si>
+    <t>['51', '55']</t>
   </si>
   <si>
     <t>['35']</t>
@@ -1002,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1467,7 +1473,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1673,7 +1679,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -1960,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2085,7 +2091,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2497,7 +2503,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3115,7 +3121,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3321,7 +3327,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3733,7 +3739,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4020,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4145,7 +4151,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4429,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ17">
         <v>0.4</v>
@@ -4557,7 +4563,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4763,7 +4769,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4969,7 +4975,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5175,7 +5181,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -6286,7 +6292,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR26">
         <v>0.6</v>
@@ -6823,7 +6829,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7029,7 +7035,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7235,7 +7241,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7316,7 +7322,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -8265,7 +8271,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8343,7 +8349,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8677,7 +8683,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8883,7 +8889,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9295,7 +9301,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9376,7 +9382,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9501,7 +9507,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9707,7 +9713,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10119,7 +10125,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10325,7 +10331,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10531,7 +10537,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10737,7 +10743,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11149,7 +11155,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11227,7 +11233,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ50">
         <v>1.8</v>
@@ -11561,7 +11567,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11642,7 +11648,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.51</v>
@@ -11767,7 +11773,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12179,7 +12185,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12385,7 +12391,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12591,7 +12597,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12797,7 +12803,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13003,7 +13009,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13084,7 +13090,7 @@
         <v>3</v>
       </c>
       <c r="AQ59">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR59">
         <v>2.26</v>
@@ -14239,7 +14245,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14857,7 +14863,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15144,7 +15150,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>2.1</v>
@@ -15475,7 +15481,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15553,7 +15559,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ71">
         <v>1.29</v>
@@ -15681,7 +15687,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16093,7 +16099,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16174,7 +16180,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ74">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR74">
         <v>1.21</v>
@@ -16299,7 +16305,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16505,7 +16511,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16711,7 +16717,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17329,7 +17335,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17535,7 +17541,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17741,7 +17747,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17947,7 +17953,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18028,7 +18034,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR83">
         <v>1.47</v>
@@ -18153,7 +18159,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18359,7 +18365,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18565,7 +18571,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18849,7 +18855,7 @@
         <v>1.2</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ87">
         <v>0.86</v>
@@ -18977,7 +18983,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19595,7 +19601,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19676,7 +19682,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ91">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR91">
         <v>1.03</v>
@@ -19801,7 +19807,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20419,7 +20425,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21037,7 +21043,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21243,7 +21249,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21655,7 +21661,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22067,7 +22073,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22240,7 +22246,7 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45627.52083333334</v>
+        <v>45626.875</v>
       </c>
       <c r="F104">
         <v>12</v>
@@ -22273,7 +22279,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22479,7 +22485,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22685,7 +22691,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -22842,6 +22848,418 @@
       </c>
       <c r="BP106">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7574668</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45628.65625</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>85</v>
+      </c>
+      <c r="H107" t="s">
+        <v>80</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107" t="s">
+        <v>155</v>
+      </c>
+      <c r="P107" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q107">
+        <v>2.3</v>
+      </c>
+      <c r="R107">
+        <v>2.1</v>
+      </c>
+      <c r="S107">
+        <v>5.5</v>
+      </c>
+      <c r="T107">
+        <v>1.44</v>
+      </c>
+      <c r="U107">
+        <v>2.63</v>
+      </c>
+      <c r="V107">
+        <v>3.25</v>
+      </c>
+      <c r="W107">
+        <v>1.33</v>
+      </c>
+      <c r="X107">
+        <v>9</v>
+      </c>
+      <c r="Y107">
+        <v>1.07</v>
+      </c>
+      <c r="Z107">
+        <v>1.7</v>
+      </c>
+      <c r="AA107">
+        <v>3.5</v>
+      </c>
+      <c r="AB107">
+        <v>4.75</v>
+      </c>
+      <c r="AC107">
+        <v>1.06</v>
+      </c>
+      <c r="AD107">
+        <v>10</v>
+      </c>
+      <c r="AE107">
+        <v>1.36</v>
+      </c>
+      <c r="AF107">
+        <v>3.2</v>
+      </c>
+      <c r="AG107">
+        <v>1.95</v>
+      </c>
+      <c r="AH107">
+        <v>1.75</v>
+      </c>
+      <c r="AI107">
+        <v>2</v>
+      </c>
+      <c r="AJ107">
+        <v>1.75</v>
+      </c>
+      <c r="AK107">
+        <v>1.17</v>
+      </c>
+      <c r="AL107">
+        <v>1.22</v>
+      </c>
+      <c r="AM107">
+        <v>2.15</v>
+      </c>
+      <c r="AN107">
+        <v>2</v>
+      </c>
+      <c r="AO107">
+        <v>0.33</v>
+      </c>
+      <c r="AP107">
+        <v>2.17</v>
+      </c>
+      <c r="AQ107">
+        <v>0.29</v>
+      </c>
+      <c r="AR107">
+        <v>1.2</v>
+      </c>
+      <c r="AS107">
+        <v>0.99</v>
+      </c>
+      <c r="AT107">
+        <v>2.19</v>
+      </c>
+      <c r="AU107">
+        <v>6</v>
+      </c>
+      <c r="AV107">
+        <v>0</v>
+      </c>
+      <c r="AW107">
+        <v>6</v>
+      </c>
+      <c r="AX107">
+        <v>4</v>
+      </c>
+      <c r="AY107">
+        <v>20</v>
+      </c>
+      <c r="AZ107">
+        <v>4</v>
+      </c>
+      <c r="BA107">
+        <v>9</v>
+      </c>
+      <c r="BB107">
+        <v>2</v>
+      </c>
+      <c r="BC107">
+        <v>11</v>
+      </c>
+      <c r="BD107">
+        <v>1.4</v>
+      </c>
+      <c r="BE107">
+        <v>7</v>
+      </c>
+      <c r="BF107">
+        <v>3.05</v>
+      </c>
+      <c r="BG107">
+        <v>1.23</v>
+      </c>
+      <c r="BH107">
+        <v>3.55</v>
+      </c>
+      <c r="BI107">
+        <v>1.42</v>
+      </c>
+      <c r="BJ107">
+        <v>2.55</v>
+      </c>
+      <c r="BK107">
+        <v>1.7</v>
+      </c>
+      <c r="BL107">
+        <v>2.05</v>
+      </c>
+      <c r="BM107">
+        <v>2.08</v>
+      </c>
+      <c r="BN107">
+        <v>1.63</v>
+      </c>
+      <c r="BO107">
+        <v>2.65</v>
+      </c>
+      <c r="BP107">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7574662</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45628.73958333334</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s">
+        <v>72</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>156</v>
+      </c>
+      <c r="P108" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q108">
+        <v>1.62</v>
+      </c>
+      <c r="R108">
+        <v>2.75</v>
+      </c>
+      <c r="S108">
+        <v>10</v>
+      </c>
+      <c r="T108">
+        <v>1.25</v>
+      </c>
+      <c r="U108">
+        <v>3.75</v>
+      </c>
+      <c r="V108">
+        <v>2.2</v>
+      </c>
+      <c r="W108">
+        <v>1.62</v>
+      </c>
+      <c r="X108">
+        <v>5</v>
+      </c>
+      <c r="Y108">
+        <v>1.17</v>
+      </c>
+      <c r="Z108">
+        <v>1.16</v>
+      </c>
+      <c r="AA108">
+        <v>6.5</v>
+      </c>
+      <c r="AB108">
+        <v>13</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>17</v>
+      </c>
+      <c r="AE108">
+        <v>1.15</v>
+      </c>
+      <c r="AF108">
+        <v>5.5</v>
+      </c>
+      <c r="AG108">
+        <v>1.5</v>
+      </c>
+      <c r="AH108">
+        <v>2.4</v>
+      </c>
+      <c r="AI108">
+        <v>2.1</v>
+      </c>
+      <c r="AJ108">
+        <v>1.67</v>
+      </c>
+      <c r="AK108">
+        <v>1.04</v>
+      </c>
+      <c r="AL108">
+        <v>1.1</v>
+      </c>
+      <c r="AM108">
+        <v>4.2</v>
+      </c>
+      <c r="AN108">
+        <v>3</v>
+      </c>
+      <c r="AO108">
+        <v>1</v>
+      </c>
+      <c r="AP108">
+        <v>3</v>
+      </c>
+      <c r="AQ108">
+        <v>0.83</v>
+      </c>
+      <c r="AR108">
+        <v>2.03</v>
+      </c>
+      <c r="AS108">
+        <v>0.99</v>
+      </c>
+      <c r="AT108">
+        <v>3.02</v>
+      </c>
+      <c r="AU108">
+        <v>10</v>
+      </c>
+      <c r="AV108">
+        <v>4</v>
+      </c>
+      <c r="AW108">
+        <v>5</v>
+      </c>
+      <c r="AX108">
+        <v>3</v>
+      </c>
+      <c r="AY108">
+        <v>18</v>
+      </c>
+      <c r="AZ108">
+        <v>11</v>
+      </c>
+      <c r="BA108">
+        <v>8</v>
+      </c>
+      <c r="BB108">
+        <v>6</v>
+      </c>
+      <c r="BC108">
+        <v>14</v>
+      </c>
+      <c r="BD108">
+        <v>1.1</v>
+      </c>
+      <c r="BE108">
+        <v>10</v>
+      </c>
+      <c r="BF108">
+        <v>6.25</v>
+      </c>
+      <c r="BG108">
+        <v>1.25</v>
+      </c>
+      <c r="BH108">
+        <v>3.4</v>
+      </c>
+      <c r="BI108">
+        <v>1.44</v>
+      </c>
+      <c r="BJ108">
+        <v>2.5</v>
+      </c>
+      <c r="BK108">
+        <v>1.7</v>
+      </c>
+      <c r="BL108">
+        <v>2.05</v>
+      </c>
+      <c r="BM108">
+        <v>2.05</v>
+      </c>
+      <c r="BN108">
+        <v>1.7</v>
+      </c>
+      <c r="BO108">
+        <v>2.65</v>
+      </c>
+      <c r="BP108">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,9 @@
     <t>['51', '55']</t>
   </si>
   <si>
+    <t>['19', '35']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -647,6 +650,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1473,7 +1479,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1679,7 +1685,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -2091,7 +2097,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2503,7 +2509,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3121,7 +3127,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3327,7 +3333,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3739,7 +3745,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3820,7 +3826,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4151,7 +4157,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4229,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>0.67</v>
@@ -4563,7 +4569,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4769,7 +4775,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4975,7 +4981,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5056,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -5181,7 +5187,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -6829,7 +6835,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6907,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7035,7 +7041,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7241,7 +7247,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8271,7 +8277,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8683,7 +8689,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8764,7 +8770,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ38">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AR38">
         <v>0.93</v>
@@ -8889,7 +8895,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9301,7 +9307,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9507,7 +9513,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9713,7 +9719,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10125,7 +10131,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10331,7 +10337,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10537,7 +10543,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10743,7 +10749,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11155,7 +11161,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11439,7 +11445,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -11567,7 +11573,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11773,7 +11779,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12185,7 +12191,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12391,7 +12397,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12472,7 +12478,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ56">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AR56">
         <v>0.98</v>
@@ -12597,7 +12603,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12803,7 +12809,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13009,7 +13015,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -14245,7 +14251,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14735,7 +14741,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ67">
         <v>1.5</v>
@@ -14863,7 +14869,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15481,7 +15487,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15687,7 +15693,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16099,7 +16105,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16305,7 +16311,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16511,7 +16517,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16717,7 +16723,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16798,7 +16804,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -17335,7 +17341,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17541,7 +17547,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17747,7 +17753,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17953,7 +17959,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18159,7 +18165,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18365,7 +18371,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18571,7 +18577,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18983,7 +18989,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19601,7 +19607,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19679,7 +19685,7 @@
         <v>0.4</v>
       </c>
       <c r="AP91">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ91">
         <v>0.29</v>
@@ -19807,7 +19813,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20425,7 +20431,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21043,7 +21049,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21124,7 +21130,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ98">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AR98">
         <v>1.75</v>
@@ -21249,7 +21255,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21661,7 +21667,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22073,7 +22079,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22246,7 +22252,7 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45626.875</v>
+        <v>45627.52083333334</v>
       </c>
       <c r="F104">
         <v>12</v>
@@ -22279,7 +22285,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22372,22 +22378,22 @@
         <v>2.22</v>
       </c>
       <c r="AU104">
+        <v>4</v>
+      </c>
+      <c r="AV104">
+        <v>0</v>
+      </c>
+      <c r="AW104">
+        <v>8</v>
+      </c>
+      <c r="AX104">
         <v>5</v>
       </c>
-      <c r="AV104">
-        <v>2</v>
-      </c>
-      <c r="AW104">
+      <c r="AY104">
+        <v>12</v>
+      </c>
+      <c r="AZ104">
         <v>5</v>
-      </c>
-      <c r="AX104">
-        <v>4</v>
-      </c>
-      <c r="AY104">
-        <v>14</v>
-      </c>
-      <c r="AZ104">
-        <v>8</v>
       </c>
       <c r="BA104">
         <v>5</v>
@@ -22485,7 +22491,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22691,7 +22697,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23260,6 +23266,212 @@
       </c>
       <c r="BP108">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7574675</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45631.71875</v>
+      </c>
+      <c r="F109">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>84</v>
+      </c>
+      <c r="H109" t="s">
+        <v>70</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>157</v>
+      </c>
+      <c r="P109" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q109">
+        <v>8.34</v>
+      </c>
+      <c r="R109">
+        <v>2.59</v>
+      </c>
+      <c r="S109">
+        <v>1.8</v>
+      </c>
+      <c r="T109">
+        <v>1.33</v>
+      </c>
+      <c r="U109">
+        <v>3.31</v>
+      </c>
+      <c r="V109">
+        <v>2.65</v>
+      </c>
+      <c r="W109">
+        <v>1.48</v>
+      </c>
+      <c r="X109">
+        <v>5.75</v>
+      </c>
+      <c r="Y109">
+        <v>1.1</v>
+      </c>
+      <c r="Z109">
+        <v>8</v>
+      </c>
+      <c r="AA109">
+        <v>5</v>
+      </c>
+      <c r="AB109">
+        <v>1.36</v>
+      </c>
+      <c r="AC109">
+        <v>1.04</v>
+      </c>
+      <c r="AD109">
+        <v>10</v>
+      </c>
+      <c r="AE109">
+        <v>1.25</v>
+      </c>
+      <c r="AF109">
+        <v>3.95</v>
+      </c>
+      <c r="AG109">
+        <v>1.75</v>
+      </c>
+      <c r="AH109">
+        <v>2.05</v>
+      </c>
+      <c r="AI109">
+        <v>2.05</v>
+      </c>
+      <c r="AJ109">
+        <v>1.7</v>
+      </c>
+      <c r="AK109">
+        <v>3</v>
+      </c>
+      <c r="AL109">
+        <v>1.13</v>
+      </c>
+      <c r="AM109">
+        <v>1.07</v>
+      </c>
+      <c r="AN109">
+        <v>2.2</v>
+      </c>
+      <c r="AO109">
+        <v>3</v>
+      </c>
+      <c r="AP109">
+        <v>2.33</v>
+      </c>
+      <c r="AQ109">
+        <v>2.57</v>
+      </c>
+      <c r="AR109">
+        <v>1.17</v>
+      </c>
+      <c r="AS109">
+        <v>2.08</v>
+      </c>
+      <c r="AT109">
+        <v>3.25</v>
+      </c>
+      <c r="AU109">
+        <v>5</v>
+      </c>
+      <c r="AV109">
+        <v>3</v>
+      </c>
+      <c r="AW109">
+        <v>2</v>
+      </c>
+      <c r="AX109">
+        <v>8</v>
+      </c>
+      <c r="AY109">
+        <v>9</v>
+      </c>
+      <c r="AZ109">
+        <v>17</v>
+      </c>
+      <c r="BA109">
+        <v>4</v>
+      </c>
+      <c r="BB109">
+        <v>6</v>
+      </c>
+      <c r="BC109">
+        <v>10</v>
+      </c>
+      <c r="BD109">
+        <v>4.4</v>
+      </c>
+      <c r="BE109">
+        <v>8</v>
+      </c>
+      <c r="BF109">
+        <v>1.24</v>
+      </c>
+      <c r="BG109">
+        <v>1.4</v>
+      </c>
+      <c r="BH109">
+        <v>2.65</v>
+      </c>
+      <c r="BI109">
+        <v>1.67</v>
+      </c>
+      <c r="BJ109">
+        <v>2.02</v>
+      </c>
+      <c r="BK109">
+        <v>2.07</v>
+      </c>
+      <c r="BL109">
+        <v>1.64</v>
+      </c>
+      <c r="BM109">
+        <v>2.65</v>
+      </c>
+      <c r="BN109">
+        <v>1.4</v>
+      </c>
+      <c r="BO109">
+        <v>3.45</v>
+      </c>
+      <c r="BP109">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,9 @@
     <t>['19', '35']</t>
   </si>
   <si>
+    <t>['16', '56']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -653,6 +656,9 @@
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['68', '82']</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1479,7 +1485,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1685,7 +1691,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -2097,7 +2103,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2509,7 +2515,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -2793,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9">
         <v>0.17</v>
@@ -3127,7 +3133,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3333,7 +3339,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3745,7 +3751,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4157,7 +4163,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4444,7 +4450,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4569,7 +4575,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4775,7 +4781,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4981,7 +4987,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5187,7 +5193,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -6707,7 +6713,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28">
         <v>0.86</v>
@@ -6835,7 +6841,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7041,7 +7047,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7247,7 +7253,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7534,7 +7540,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ32">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>0.64</v>
@@ -8277,7 +8283,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8689,7 +8695,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8895,7 +8901,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9307,7 +9313,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9513,7 +9519,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9719,7 +9725,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10131,7 +10137,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10209,7 +10215,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -10337,7 +10343,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10543,7 +10549,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10749,7 +10755,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -10830,7 +10836,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11161,7 +11167,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11573,7 +11579,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11779,7 +11785,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12191,7 +12197,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12397,7 +12403,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12603,7 +12609,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12809,7 +12815,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13015,7 +13021,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13711,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -14251,7 +14257,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14869,7 +14875,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15362,7 +15368,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15487,7 +15493,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15693,7 +15699,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16105,7 +16111,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16311,7 +16317,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16517,7 +16523,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16723,7 +16729,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17007,7 +17013,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ78">
         <v>0.33</v>
@@ -17341,7 +17347,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17547,7 +17553,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17753,7 +17759,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17959,7 +17965,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18165,7 +18171,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18371,7 +18377,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18577,7 +18583,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18989,7 +18995,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19276,7 +19282,7 @@
         <v>3</v>
       </c>
       <c r="AQ89">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>2.03</v>
@@ -19607,7 +19613,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19813,7 +19819,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20431,7 +20437,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21049,7 +21055,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21127,7 +21133,7 @@
         <v>3</v>
       </c>
       <c r="AP98">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ98">
         <v>2.57</v>
@@ -21255,7 +21261,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21667,7 +21673,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22079,7 +22085,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22285,7 +22291,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22491,7 +22497,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22697,7 +22703,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23315,7 +23321,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q109">
         <v>8.34</v>
@@ -23472,6 +23478,212 @@
       </c>
       <c r="BP109">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7574677</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45632.71875</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>77</v>
+      </c>
+      <c r="H110" t="s">
+        <v>74</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110" t="s">
+        <v>158</v>
+      </c>
+      <c r="P110" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q110">
+        <v>1.7</v>
+      </c>
+      <c r="R110">
+        <v>2.79</v>
+      </c>
+      <c r="S110">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="T110">
+        <v>1.28</v>
+      </c>
+      <c r="U110">
+        <v>3.35</v>
+      </c>
+      <c r="V110">
+        <v>2.39</v>
+      </c>
+      <c r="W110">
+        <v>1.58</v>
+      </c>
+      <c r="X110">
+        <v>5.25</v>
+      </c>
+      <c r="Y110">
+        <v>1.12</v>
+      </c>
+      <c r="Z110">
+        <v>1.38</v>
+      </c>
+      <c r="AA110">
+        <v>4.98</v>
+      </c>
+      <c r="AB110">
+        <v>7.8</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>15</v>
+      </c>
+      <c r="AE110">
+        <v>1.17</v>
+      </c>
+      <c r="AF110">
+        <v>5</v>
+      </c>
+      <c r="AG110">
+        <v>1.65</v>
+      </c>
+      <c r="AH110">
+        <v>2.25</v>
+      </c>
+      <c r="AI110">
+        <v>1.95</v>
+      </c>
+      <c r="AJ110">
+        <v>1.81</v>
+      </c>
+      <c r="AK110">
+        <v>1.06</v>
+      </c>
+      <c r="AL110">
+        <v>1.15</v>
+      </c>
+      <c r="AM110">
+        <v>3.44</v>
+      </c>
+      <c r="AN110">
+        <v>1.67</v>
+      </c>
+      <c r="AO110">
+        <v>0.4</v>
+      </c>
+      <c r="AP110">
+        <v>1.57</v>
+      </c>
+      <c r="AQ110">
+        <v>0.5</v>
+      </c>
+      <c r="AR110">
+        <v>1.54</v>
+      </c>
+      <c r="AS110">
+        <v>0.95</v>
+      </c>
+      <c r="AT110">
+        <v>2.49</v>
+      </c>
+      <c r="AU110">
+        <v>8</v>
+      </c>
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>5</v>
+      </c>
+      <c r="AX110">
+        <v>6</v>
+      </c>
+      <c r="AY110">
+        <v>17</v>
+      </c>
+      <c r="AZ110">
+        <v>12</v>
+      </c>
+      <c r="BA110">
+        <v>3</v>
+      </c>
+      <c r="BB110">
+        <v>2</v>
+      </c>
+      <c r="BC110">
+        <v>5</v>
+      </c>
+      <c r="BD110">
+        <v>1.22</v>
+      </c>
+      <c r="BE110">
+        <v>8.5</v>
+      </c>
+      <c r="BF110">
+        <v>4.6</v>
+      </c>
+      <c r="BG110">
+        <v>1.19</v>
+      </c>
+      <c r="BH110">
+        <v>3.95</v>
+      </c>
+      <c r="BI110">
+        <v>1.34</v>
+      </c>
+      <c r="BJ110">
+        <v>2.88</v>
+      </c>
+      <c r="BK110">
+        <v>1.56</v>
+      </c>
+      <c r="BL110">
+        <v>2.2</v>
+      </c>
+      <c r="BM110">
+        <v>1.88</v>
+      </c>
+      <c r="BN110">
+        <v>1.78</v>
+      </c>
+      <c r="BO110">
+        <v>2.33</v>
+      </c>
+      <c r="BP110">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,15 @@
     <t>['16', '56']</t>
   </si>
   <si>
+    <t>['7', '90+7']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -640,9 +649,6 @@
     <t>['58', '81', '89', '90+4']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['49', '65']</t>
   </si>
   <si>
@@ -659,6 +665,9 @@
   </si>
   <si>
     <t>['68', '82']</t>
+  </si>
+  <si>
+    <t>['50']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1369,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1485,7 +1494,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1566,7 +1575,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1691,7 +1700,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -2103,7 +2112,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2387,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2515,7 +2524,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3008,7 +3017,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3133,7 +3142,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3211,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ11">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3339,7 +3348,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3417,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ12">
         <v>0.4</v>
@@ -3751,7 +3760,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4163,7 +4172,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4575,7 +4584,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4781,7 +4790,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4987,7 +4996,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5193,7 +5202,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5480,7 +5489,7 @@
         <v>3</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5683,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ23">
         <v>1.29</v>
@@ -6098,7 +6107,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR25">
         <v>0.7</v>
@@ -6510,7 +6519,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR27">
         <v>1.62</v>
@@ -6841,7 +6850,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7047,7 +7056,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7125,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ30">
         <v>0.4</v>
@@ -7253,7 +7262,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7746,7 +7755,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>2.25</v>
@@ -8283,7 +8292,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8567,7 +8576,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37">
         <v>2.17</v>
@@ -8695,7 +8704,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8901,7 +8910,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9188,7 +9197,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9313,7 +9322,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9391,7 +9400,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ41">
         <v>0.29</v>
@@ -9519,7 +9528,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9725,7 +9734,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10012,7 +10021,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ44">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR44">
         <v>0.8100000000000001</v>
@@ -10137,7 +10146,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10218,7 +10227,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR45">
         <v>1.78</v>
@@ -10343,7 +10352,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10549,7 +10558,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10755,7 +10764,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11039,7 +11048,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ49">
         <v>0.17</v>
@@ -11167,7 +11176,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11248,7 +11257,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ50">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11579,7 +11588,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11657,7 +11666,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ52">
         <v>0.83</v>
@@ -11785,7 +11794,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12197,7 +12206,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12403,7 +12412,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12609,7 +12618,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12815,7 +12824,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12896,7 +12905,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR58">
         <v>1.27</v>
@@ -13021,7 +13030,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13305,10 +13314,10 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ60">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR60">
         <v>1.14</v>
@@ -13720,7 +13729,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR62">
         <v>1.53</v>
@@ -13923,7 +13932,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ63">
         <v>1.29</v>
@@ -14257,7 +14266,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14541,7 +14550,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66">
         <v>0.17</v>
@@ -14875,7 +14884,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15493,7 +15502,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15699,7 +15708,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15986,7 +15995,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR73">
         <v>1.21</v>
@@ -16111,7 +16120,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16189,7 +16198,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ74">
         <v>0.29</v>
@@ -16317,7 +16326,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16523,7 +16532,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16729,7 +16738,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16807,7 +16816,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ77">
         <v>2.57</v>
@@ -17222,7 +17231,7 @@
         <v>3</v>
       </c>
       <c r="AQ79">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR79">
         <v>2.16</v>
@@ -17347,7 +17356,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17428,7 +17437,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR80">
         <v>1.2</v>
@@ -17553,7 +17562,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17634,7 +17643,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ81">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -17759,7 +17768,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17965,7 +17974,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18171,7 +18180,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18377,7 +18386,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18455,7 +18464,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ85">
         <v>1.29</v>
@@ -18583,7 +18592,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18995,7 +19004,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19613,7 +19622,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19819,7 +19828,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20309,7 +20318,7 @@
         <v>0.6</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ94">
         <v>0.67</v>
@@ -20437,7 +20446,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -20518,7 +20527,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ95">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR95">
         <v>1.16</v>
@@ -20724,7 +20733,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR96">
         <v>1.15</v>
@@ -20927,10 +20936,10 @@
         <v>1.6</v>
       </c>
       <c r="AP97">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ97">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR97">
         <v>1.23</v>
@@ -21055,7 +21064,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21261,7 +21270,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21342,7 +21351,7 @@
         <v>3</v>
       </c>
       <c r="AQ99">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR99">
         <v>2.36</v>
@@ -21673,7 +21682,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22085,7 +22094,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22291,7 +22300,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22497,7 +22506,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22703,7 +22712,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23321,7 +23330,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q109">
         <v>8.34</v>
@@ -23417,7 +23426,7 @@
         <v>5</v>
       </c>
       <c r="AV109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW109">
         <v>2</v>
@@ -23429,7 +23438,7 @@
         <v>9</v>
       </c>
       <c r="AZ109">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA109">
         <v>4</v>
@@ -23527,7 +23536,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23684,6 +23693,830 @@
       </c>
       <c r="BP110">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7574676</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45633.52083333334</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>80</v>
+      </c>
+      <c r="H111" t="s">
+        <v>82</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>159</v>
+      </c>
+      <c r="P111" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q111">
+        <v>2.75</v>
+      </c>
+      <c r="R111">
+        <v>2.1</v>
+      </c>
+      <c r="S111">
+        <v>4.33</v>
+      </c>
+      <c r="T111">
+        <v>1.44</v>
+      </c>
+      <c r="U111">
+        <v>2.63</v>
+      </c>
+      <c r="V111">
+        <v>3.25</v>
+      </c>
+      <c r="W111">
+        <v>1.33</v>
+      </c>
+      <c r="X111">
+        <v>9</v>
+      </c>
+      <c r="Y111">
+        <v>1.07</v>
+      </c>
+      <c r="Z111">
+        <v>2.01</v>
+      </c>
+      <c r="AA111">
+        <v>3.5</v>
+      </c>
+      <c r="AB111">
+        <v>3.72</v>
+      </c>
+      <c r="AC111">
+        <v>1.05</v>
+      </c>
+      <c r="AD111">
+        <v>10</v>
+      </c>
+      <c r="AE111">
+        <v>1.33</v>
+      </c>
+      <c r="AF111">
+        <v>3.25</v>
+      </c>
+      <c r="AG111">
+        <v>2.05</v>
+      </c>
+      <c r="AH111">
+        <v>1.68</v>
+      </c>
+      <c r="AI111">
+        <v>1.91</v>
+      </c>
+      <c r="AJ111">
+        <v>1.91</v>
+      </c>
+      <c r="AK111">
+        <v>1.3</v>
+      </c>
+      <c r="AL111">
+        <v>1.25</v>
+      </c>
+      <c r="AM111">
+        <v>1.78</v>
+      </c>
+      <c r="AN111">
+        <v>1.6</v>
+      </c>
+      <c r="AO111">
+        <v>0.33</v>
+      </c>
+      <c r="AP111">
+        <v>1.83</v>
+      </c>
+      <c r="AQ111">
+        <v>0.29</v>
+      </c>
+      <c r="AR111">
+        <v>1.27</v>
+      </c>
+      <c r="AS111">
+        <v>1.39</v>
+      </c>
+      <c r="AT111">
+        <v>2.66</v>
+      </c>
+      <c r="AU111">
+        <v>5</v>
+      </c>
+      <c r="AV111">
+        <v>7</v>
+      </c>
+      <c r="AW111">
+        <v>8</v>
+      </c>
+      <c r="AX111">
+        <v>4</v>
+      </c>
+      <c r="AY111">
+        <v>18</v>
+      </c>
+      <c r="AZ111">
+        <v>20</v>
+      </c>
+      <c r="BA111">
+        <v>6</v>
+      </c>
+      <c r="BB111">
+        <v>7</v>
+      </c>
+      <c r="BC111">
+        <v>13</v>
+      </c>
+      <c r="BD111">
+        <v>1.55</v>
+      </c>
+      <c r="BE111">
+        <v>8.5</v>
+      </c>
+      <c r="BF111">
+        <v>2.91</v>
+      </c>
+      <c r="BG111">
+        <v>1.2</v>
+      </c>
+      <c r="BH111">
+        <v>4.3</v>
+      </c>
+      <c r="BI111">
+        <v>1.37</v>
+      </c>
+      <c r="BJ111">
+        <v>2.95</v>
+      </c>
+      <c r="BK111">
+        <v>1.62</v>
+      </c>
+      <c r="BL111">
+        <v>2.2</v>
+      </c>
+      <c r="BM111">
+        <v>2.05</v>
+      </c>
+      <c r="BN111">
+        <v>1.7</v>
+      </c>
+      <c r="BO111">
+        <v>2.6</v>
+      </c>
+      <c r="BP111">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7574678</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45633.625</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>83</v>
+      </c>
+      <c r="H112" t="s">
+        <v>85</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>160</v>
+      </c>
+      <c r="P112" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q112">
+        <v>1.8</v>
+      </c>
+      <c r="R112">
+        <v>2.5</v>
+      </c>
+      <c r="S112">
+        <v>8</v>
+      </c>
+      <c r="T112">
+        <v>1.3</v>
+      </c>
+      <c r="U112">
+        <v>3.4</v>
+      </c>
+      <c r="V112">
+        <v>2.5</v>
+      </c>
+      <c r="W112">
+        <v>1.5</v>
+      </c>
+      <c r="X112">
+        <v>6</v>
+      </c>
+      <c r="Y112">
+        <v>1.13</v>
+      </c>
+      <c r="Z112">
+        <v>1.32</v>
+      </c>
+      <c r="AA112">
+        <v>5.5</v>
+      </c>
+      <c r="AB112">
+        <v>8.9</v>
+      </c>
+      <c r="AC112">
+        <v>1.02</v>
+      </c>
+      <c r="AD112">
+        <v>17</v>
+      </c>
+      <c r="AE112">
+        <v>1.2</v>
+      </c>
+      <c r="AF112">
+        <v>4.5</v>
+      </c>
+      <c r="AG112">
+        <v>1.64</v>
+      </c>
+      <c r="AH112">
+        <v>2.12</v>
+      </c>
+      <c r="AI112">
+        <v>2</v>
+      </c>
+      <c r="AJ112">
+        <v>1.75</v>
+      </c>
+      <c r="AK112">
+        <v>1.04</v>
+      </c>
+      <c r="AL112">
+        <v>1.11</v>
+      </c>
+      <c r="AM112">
+        <v>3.5</v>
+      </c>
+      <c r="AN112">
+        <v>3</v>
+      </c>
+      <c r="AO112">
+        <v>1.33</v>
+      </c>
+      <c r="AP112">
+        <v>3</v>
+      </c>
+      <c r="AQ112">
+        <v>1.14</v>
+      </c>
+      <c r="AR112">
+        <v>2.24</v>
+      </c>
+      <c r="AS112">
+        <v>1.29</v>
+      </c>
+      <c r="AT112">
+        <v>3.53</v>
+      </c>
+      <c r="AU112">
+        <v>2</v>
+      </c>
+      <c r="AV112">
+        <v>3</v>
+      </c>
+      <c r="AW112">
+        <v>3</v>
+      </c>
+      <c r="AX112">
+        <v>6</v>
+      </c>
+      <c r="AY112">
+        <v>9</v>
+      </c>
+      <c r="AZ112">
+        <v>11</v>
+      </c>
+      <c r="BA112">
+        <v>6</v>
+      </c>
+      <c r="BB112">
+        <v>9</v>
+      </c>
+      <c r="BC112">
+        <v>15</v>
+      </c>
+      <c r="BD112">
+        <v>1.23</v>
+      </c>
+      <c r="BE112">
+        <v>8.5</v>
+      </c>
+      <c r="BF112">
+        <v>4.4</v>
+      </c>
+      <c r="BG112">
+        <v>1.18</v>
+      </c>
+      <c r="BH112">
+        <v>4.1</v>
+      </c>
+      <c r="BI112">
+        <v>1.33</v>
+      </c>
+      <c r="BJ112">
+        <v>2.95</v>
+      </c>
+      <c r="BK112">
+        <v>1.53</v>
+      </c>
+      <c r="BL112">
+        <v>2.28</v>
+      </c>
+      <c r="BM112">
+        <v>1.8</v>
+      </c>
+      <c r="BN112">
+        <v>1.91</v>
+      </c>
+      <c r="BO112">
+        <v>2.25</v>
+      </c>
+      <c r="BP112">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7574672</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45633.625</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s">
+        <v>81</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>98</v>
+      </c>
+      <c r="P113" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q113">
+        <v>2.4</v>
+      </c>
+      <c r="R113">
+        <v>2.07</v>
+      </c>
+      <c r="S113">
+        <v>5.2</v>
+      </c>
+      <c r="T113">
+        <v>1.47</v>
+      </c>
+      <c r="U113">
+        <v>2.49</v>
+      </c>
+      <c r="V113">
+        <v>3.1</v>
+      </c>
+      <c r="W113">
+        <v>1.32</v>
+      </c>
+      <c r="X113">
+        <v>7.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.06</v>
+      </c>
+      <c r="Z113">
+        <v>1.91</v>
+      </c>
+      <c r="AA113">
+        <v>3.44</v>
+      </c>
+      <c r="AB113">
+        <v>4.2</v>
+      </c>
+      <c r="AC113">
+        <v>1.04</v>
+      </c>
+      <c r="AD113">
+        <v>6.3</v>
+      </c>
+      <c r="AE113">
+        <v>1.36</v>
+      </c>
+      <c r="AF113">
+        <v>2.65</v>
+      </c>
+      <c r="AG113">
+        <v>2.17</v>
+      </c>
+      <c r="AH113">
+        <v>1.61</v>
+      </c>
+      <c r="AI113">
+        <v>2.03</v>
+      </c>
+      <c r="AJ113">
+        <v>1.7</v>
+      </c>
+      <c r="AK113">
+        <v>1.18</v>
+      </c>
+      <c r="AL113">
+        <v>1.25</v>
+      </c>
+      <c r="AM113">
+        <v>2</v>
+      </c>
+      <c r="AN113">
+        <v>2.5</v>
+      </c>
+      <c r="AO113">
+        <v>0.5</v>
+      </c>
+      <c r="AP113">
+        <v>2.57</v>
+      </c>
+      <c r="AQ113">
+        <v>0.43</v>
+      </c>
+      <c r="AR113">
+        <v>1.38</v>
+      </c>
+      <c r="AS113">
+        <v>0.75</v>
+      </c>
+      <c r="AT113">
+        <v>2.13</v>
+      </c>
+      <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>3</v>
+      </c>
+      <c r="AW113">
+        <v>3</v>
+      </c>
+      <c r="AX113">
+        <v>2</v>
+      </c>
+      <c r="AY113">
+        <v>11</v>
+      </c>
+      <c r="AZ113">
+        <v>5</v>
+      </c>
+      <c r="BA113">
+        <v>6</v>
+      </c>
+      <c r="BB113">
+        <v>2</v>
+      </c>
+      <c r="BC113">
+        <v>8</v>
+      </c>
+      <c r="BD113">
+        <v>1.36</v>
+      </c>
+      <c r="BE113">
+        <v>7.5</v>
+      </c>
+      <c r="BF113">
+        <v>3.4</v>
+      </c>
+      <c r="BG113">
+        <v>1.27</v>
+      </c>
+      <c r="BH113">
+        <v>3.3</v>
+      </c>
+      <c r="BI113">
+        <v>1.45</v>
+      </c>
+      <c r="BJ113">
+        <v>2.48</v>
+      </c>
+      <c r="BK113">
+        <v>1.74</v>
+      </c>
+      <c r="BL113">
+        <v>1.94</v>
+      </c>
+      <c r="BM113">
+        <v>2.14</v>
+      </c>
+      <c r="BN113">
+        <v>1.6</v>
+      </c>
+      <c r="BO113">
+        <v>2.7</v>
+      </c>
+      <c r="BP113">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7574671</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45633.72916666666</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>75</v>
+      </c>
+      <c r="H114" t="s">
+        <v>73</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>161</v>
+      </c>
+      <c r="P114" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q114">
+        <v>6.5</v>
+      </c>
+      <c r="R114">
+        <v>2.3</v>
+      </c>
+      <c r="S114">
+        <v>2.05</v>
+      </c>
+      <c r="T114">
+        <v>1.36</v>
+      </c>
+      <c r="U114">
+        <v>3</v>
+      </c>
+      <c r="V114">
+        <v>2.75</v>
+      </c>
+      <c r="W114">
+        <v>1.4</v>
+      </c>
+      <c r="X114">
+        <v>8</v>
+      </c>
+      <c r="Y114">
+        <v>1.08</v>
+      </c>
+      <c r="Z114">
+        <v>6.9</v>
+      </c>
+      <c r="AA114">
+        <v>4.33</v>
+      </c>
+      <c r="AB114">
+        <v>1.48</v>
+      </c>
+      <c r="AC114">
+        <v>1.04</v>
+      </c>
+      <c r="AD114">
+        <v>12</v>
+      </c>
+      <c r="AE114">
+        <v>1.28</v>
+      </c>
+      <c r="AF114">
+        <v>3.6</v>
+      </c>
+      <c r="AG114">
+        <v>1.93</v>
+      </c>
+      <c r="AH114">
+        <v>1.88</v>
+      </c>
+      <c r="AI114">
+        <v>2</v>
+      </c>
+      <c r="AJ114">
+        <v>1.75</v>
+      </c>
+      <c r="AK114">
+        <v>2.65</v>
+      </c>
+      <c r="AL114">
+        <v>1.17</v>
+      </c>
+      <c r="AM114">
+        <v>1.11</v>
+      </c>
+      <c r="AN114">
+        <v>1.5</v>
+      </c>
+      <c r="AO114">
+        <v>1.8</v>
+      </c>
+      <c r="AP114">
+        <v>1.43</v>
+      </c>
+      <c r="AQ114">
+        <v>1.67</v>
+      </c>
+      <c r="AR114">
+        <v>1.09</v>
+      </c>
+      <c r="AS114">
+        <v>1.1</v>
+      </c>
+      <c r="AT114">
+        <v>2.19</v>
+      </c>
+      <c r="AU114">
+        <v>3</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>1</v>
+      </c>
+      <c r="AX114">
+        <v>5</v>
+      </c>
+      <c r="AY114">
+        <v>5</v>
+      </c>
+      <c r="AZ114">
+        <v>18</v>
+      </c>
+      <c r="BA114">
+        <v>3</v>
+      </c>
+      <c r="BB114">
+        <v>5</v>
+      </c>
+      <c r="BC114">
+        <v>8</v>
+      </c>
+      <c r="BD114">
+        <v>3.3</v>
+      </c>
+      <c r="BE114">
+        <v>7</v>
+      </c>
+      <c r="BF114">
+        <v>1.4</v>
+      </c>
+      <c r="BG114">
+        <v>1.34</v>
+      </c>
+      <c r="BH114">
+        <v>2.9</v>
+      </c>
+      <c r="BI114">
+        <v>1.58</v>
+      </c>
+      <c r="BJ114">
+        <v>2.18</v>
+      </c>
+      <c r="BK114">
+        <v>1.93</v>
+      </c>
+      <c r="BL114">
+        <v>1.74</v>
+      </c>
+      <c r="BM114">
+        <v>2.45</v>
+      </c>
+      <c r="BN114">
+        <v>1.46</v>
+      </c>
+      <c r="BO114">
+        <v>3.15</v>
+      </c>
+      <c r="BP114">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -659,9 +662,6 @@
   </si>
   <si>
     <t>['69']</t>
-  </si>
-  <si>
-    <t>['12']</t>
   </si>
   <si>
     <t>['68', '82']</t>
@@ -1029,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1494,7 +1494,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1700,7 +1700,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
         <v>1.29</v>
@@ -2112,7 +2112,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2524,7 +2524,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3142,7 +3142,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3348,7 +3348,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3429,7 +3429,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ12">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4172,7 +4172,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4584,7 +4584,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ18">
         <v>2.17</v>
@@ -4790,7 +4790,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4996,7 +4996,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5202,7 +5202,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5280,7 +5280,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -6850,7 +6850,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7056,7 +7056,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7137,7 +7137,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ30">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>0.55</v>
@@ -7262,7 +7262,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -7961,7 +7961,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR34">
         <v>1.18</v>
@@ -8292,7 +8292,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8704,7 +8704,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8910,7 +8910,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8988,7 +8988,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39">
         <v>0.86</v>
@@ -9322,7 +9322,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9528,7 +9528,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9734,7 +9734,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -9815,7 +9815,7 @@
         <v>3</v>
       </c>
       <c r="AQ43">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR43">
         <v>2.13</v>
@@ -10146,7 +10146,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10352,7 +10352,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10558,7 +10558,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10764,7 +10764,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11176,7 +11176,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11588,7 +11588,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11794,7 +11794,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12081,7 +12081,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ54">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.92</v>
@@ -12206,7 +12206,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12284,7 +12284,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -12412,7 +12412,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12618,7 +12618,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12824,7 +12824,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12902,7 +12902,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
         <v>1.14</v>
@@ -13030,7 +13030,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -14141,7 +14141,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ64">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR64">
         <v>1.27</v>
@@ -14266,7 +14266,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14884,7 +14884,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -14965,7 +14965,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ68">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>0.83</v>
@@ -15502,7 +15502,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15708,7 +15708,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15992,7 +15992,7 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
         <v>0.29</v>
@@ -16120,7 +16120,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16326,7 +16326,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16532,7 +16532,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16610,7 +16610,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ76">
         <v>0.86</v>
@@ -16738,7 +16738,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17025,7 +17025,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ78">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR78">
         <v>1.68</v>
@@ -17356,7 +17356,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17562,7 +17562,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17768,7 +17768,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17974,7 +17974,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18180,7 +18180,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18386,7 +18386,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18592,7 +18592,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19004,7 +19004,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19622,7 +19622,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19828,7 +19828,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -19906,10 +19906,10 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ92">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR92">
         <v>1.25</v>
@@ -20115,7 +20115,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ93">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR93">
         <v>0.99</v>
@@ -20446,7 +20446,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -20524,7 +20524,7 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ95">
         <v>0.43</v>
@@ -21064,7 +21064,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21682,7 +21682,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22094,7 +22094,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22300,7 +22300,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22506,7 +22506,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22712,7 +22712,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23330,7 +23330,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="Q109">
         <v>8.34</v>
@@ -24360,7 +24360,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q114">
         <v>6.5</v>
@@ -24517,6 +24517,418 @@
       </c>
       <c r="BP114">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7574679</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45634.52083333334</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>86</v>
+      </c>
+      <c r="H115" t="s">
+        <v>76</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>131</v>
+      </c>
+      <c r="P115" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q115">
+        <v>3.25</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>3.75</v>
+      </c>
+      <c r="T115">
+        <v>1.47</v>
+      </c>
+      <c r="U115">
+        <v>2.5</v>
+      </c>
+      <c r="V115">
+        <v>3.25</v>
+      </c>
+      <c r="W115">
+        <v>1.3</v>
+      </c>
+      <c r="X115">
+        <v>8.9</v>
+      </c>
+      <c r="Y115">
+        <v>1.04</v>
+      </c>
+      <c r="Z115">
+        <v>2.46</v>
+      </c>
+      <c r="AA115">
+        <v>3.15</v>
+      </c>
+      <c r="AB115">
+        <v>3.02</v>
+      </c>
+      <c r="AC115">
+        <v>1.08</v>
+      </c>
+      <c r="AD115">
+        <v>8.5</v>
+      </c>
+      <c r="AE115">
+        <v>1.44</v>
+      </c>
+      <c r="AF115">
+        <v>2.8</v>
+      </c>
+      <c r="AG115">
+        <v>2</v>
+      </c>
+      <c r="AH115">
+        <v>1.7</v>
+      </c>
+      <c r="AI115">
+        <v>1.95</v>
+      </c>
+      <c r="AJ115">
+        <v>1.8</v>
+      </c>
+      <c r="AK115">
+        <v>1.4</v>
+      </c>
+      <c r="AL115">
+        <v>1.3</v>
+      </c>
+      <c r="AM115">
+        <v>1.57</v>
+      </c>
+      <c r="AN115">
+        <v>0.2</v>
+      </c>
+      <c r="AO115">
+        <v>0.33</v>
+      </c>
+      <c r="AP115">
+        <v>0.33</v>
+      </c>
+      <c r="AQ115">
+        <v>0.43</v>
+      </c>
+      <c r="AR115">
+        <v>1.28</v>
+      </c>
+      <c r="AS115">
+        <v>1.02</v>
+      </c>
+      <c r="AT115">
+        <v>2.3</v>
+      </c>
+      <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>7</v>
+      </c>
+      <c r="AW115">
+        <v>5</v>
+      </c>
+      <c r="AX115">
+        <v>4</v>
+      </c>
+      <c r="AY115">
+        <v>14</v>
+      </c>
+      <c r="AZ115">
+        <v>13</v>
+      </c>
+      <c r="BA115">
+        <v>5</v>
+      </c>
+      <c r="BB115">
+        <v>4</v>
+      </c>
+      <c r="BC115">
+        <v>9</v>
+      </c>
+      <c r="BD115">
+        <v>1.57</v>
+      </c>
+      <c r="BE115">
+        <v>6.75</v>
+      </c>
+      <c r="BF115">
+        <v>2.65</v>
+      </c>
+      <c r="BG115">
+        <v>1.27</v>
+      </c>
+      <c r="BH115">
+        <v>3.3</v>
+      </c>
+      <c r="BI115">
+        <v>1.48</v>
+      </c>
+      <c r="BJ115">
+        <v>2.4</v>
+      </c>
+      <c r="BK115">
+        <v>1.78</v>
+      </c>
+      <c r="BL115">
+        <v>1.88</v>
+      </c>
+      <c r="BM115">
+        <v>2.23</v>
+      </c>
+      <c r="BN115">
+        <v>1.56</v>
+      </c>
+      <c r="BO115">
+        <v>2.8</v>
+      </c>
+      <c r="BP115">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7574674</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45634.625</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>72</v>
+      </c>
+      <c r="H116" t="s">
+        <v>71</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>162</v>
+      </c>
+      <c r="P116" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q116">
+        <v>2.6</v>
+      </c>
+      <c r="R116">
+        <v>2.05</v>
+      </c>
+      <c r="S116">
+        <v>5</v>
+      </c>
+      <c r="T116">
+        <v>1.5</v>
+      </c>
+      <c r="U116">
+        <v>2.5</v>
+      </c>
+      <c r="V116">
+        <v>3.4</v>
+      </c>
+      <c r="W116">
+        <v>1.3</v>
+      </c>
+      <c r="X116">
+        <v>10</v>
+      </c>
+      <c r="Y116">
+        <v>1.06</v>
+      </c>
+      <c r="Z116">
+        <v>2</v>
+      </c>
+      <c r="AA116">
+        <v>3.25</v>
+      </c>
+      <c r="AB116">
+        <v>3.8</v>
+      </c>
+      <c r="AC116">
+        <v>1.08</v>
+      </c>
+      <c r="AD116">
+        <v>8</v>
+      </c>
+      <c r="AE116">
+        <v>1.44</v>
+      </c>
+      <c r="AF116">
+        <v>2.75</v>
+      </c>
+      <c r="AG116">
+        <v>2.2</v>
+      </c>
+      <c r="AH116">
+        <v>1.6</v>
+      </c>
+      <c r="AI116">
+        <v>2</v>
+      </c>
+      <c r="AJ116">
+        <v>1.75</v>
+      </c>
+      <c r="AK116">
+        <v>1.25</v>
+      </c>
+      <c r="AL116">
+        <v>1.28</v>
+      </c>
+      <c r="AM116">
+        <v>1.8</v>
+      </c>
+      <c r="AN116">
+        <v>1.33</v>
+      </c>
+      <c r="AO116">
+        <v>0.4</v>
+      </c>
+      <c r="AP116">
+        <v>1.29</v>
+      </c>
+      <c r="AQ116">
+        <v>0.5</v>
+      </c>
+      <c r="AR116">
+        <v>1.23</v>
+      </c>
+      <c r="AS116">
+        <v>1</v>
+      </c>
+      <c r="AT116">
+        <v>2.23</v>
+      </c>
+      <c r="AU116">
+        <v>6</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>3</v>
+      </c>
+      <c r="AX116">
+        <v>3</v>
+      </c>
+      <c r="AY116">
+        <v>13</v>
+      </c>
+      <c r="AZ116">
+        <v>8</v>
+      </c>
+      <c r="BA116">
+        <v>6</v>
+      </c>
+      <c r="BB116">
+        <v>3</v>
+      </c>
+      <c r="BC116">
+        <v>9</v>
+      </c>
+      <c r="BD116">
+        <v>1.75</v>
+      </c>
+      <c r="BE116">
+        <v>6.5</v>
+      </c>
+      <c r="BF116">
+        <v>2.3</v>
+      </c>
+      <c r="BG116">
+        <v>1.29</v>
+      </c>
+      <c r="BH116">
+        <v>3.15</v>
+      </c>
+      <c r="BI116">
+        <v>1.5</v>
+      </c>
+      <c r="BJ116">
+        <v>2.35</v>
+      </c>
+      <c r="BK116">
+        <v>1.82</v>
+      </c>
+      <c r="BL116">
+        <v>1.84</v>
+      </c>
+      <c r="BM116">
+        <v>2.05</v>
+      </c>
+      <c r="BN116">
+        <v>1.7</v>
+      </c>
+      <c r="BO116">
+        <v>2.95</v>
+      </c>
+      <c r="BP116">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,9 @@
     <t>['12']</t>
   </si>
   <si>
+    <t>['58', '68']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -668,6 +671,9 @@
   </si>
   <si>
     <t>['50']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1494,7 +1500,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1700,7 +1706,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -2112,7 +2118,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2524,7 +2530,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3142,7 +3148,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3348,7 +3354,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3760,7 +3766,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4172,7 +4178,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4253,7 +4259,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4584,7 +4590,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4790,7 +4796,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4868,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -4996,7 +5002,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5202,7 +5208,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -6850,7 +6856,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7056,7 +7062,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7262,7 +7268,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7340,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ31">
         <v>0.83</v>
@@ -8167,7 +8173,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR35">
         <v>1.11</v>
@@ -8292,7 +8298,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8704,7 +8710,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8910,7 +8916,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9322,7 +9328,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9528,7 +9534,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9734,7 +9740,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10146,7 +10152,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10352,7 +10358,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10430,7 +10436,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ46">
         <v>1.29</v>
@@ -10558,7 +10564,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10764,7 +10770,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11176,7 +11182,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11588,7 +11594,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11794,7 +11800,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11875,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR53">
         <v>1</v>
@@ -12206,7 +12212,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12412,7 +12418,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12618,7 +12624,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12696,7 +12702,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57">
         <v>0.86</v>
@@ -12824,7 +12830,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13030,7 +13036,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13523,7 +13529,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR61">
         <v>2.38</v>
@@ -14266,7 +14272,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14884,7 +14890,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15502,7 +15508,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15708,7 +15714,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16120,7 +16126,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16326,7 +16332,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16407,7 +16413,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR75">
         <v>0.89</v>
@@ -16532,7 +16538,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16738,7 +16744,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17356,7 +17362,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17434,7 +17440,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ80">
         <v>1.14</v>
@@ -17562,7 +17568,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17768,7 +17774,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17974,7 +17980,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18180,7 +18186,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18386,7 +18392,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18592,7 +18598,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19004,7 +19010,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19622,7 +19628,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19828,7 +19834,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20321,7 +20327,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ94">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR94">
         <v>1.13</v>
@@ -20446,7 +20452,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -20730,7 +20736,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ96">
         <v>0.29</v>
@@ -21064,7 +21070,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21682,7 +21688,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22094,7 +22100,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22300,7 +22306,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22506,7 +22512,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22712,7 +22718,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23536,7 +23542,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23742,7 +23748,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24360,7 +24366,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q114">
         <v>6.5</v>
@@ -24533,7 +24539,7 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45634.52083333334</v>
+        <v>45633.875</v>
       </c>
       <c r="F115">
         <v>13</v>
@@ -24566,7 +24572,7 @@
         <v>131</v>
       </c>
       <c r="P115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q115">
         <v>3.25</v>
@@ -24929,6 +24935,212 @@
       </c>
       <c r="BP116">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7574673</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45635.71875</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>87</v>
+      </c>
+      <c r="H117" t="s">
+        <v>78</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>163</v>
+      </c>
+      <c r="P117" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q117">
+        <v>3.25</v>
+      </c>
+      <c r="R117">
+        <v>2.05</v>
+      </c>
+      <c r="S117">
+        <v>3.5</v>
+      </c>
+      <c r="T117">
+        <v>1.44</v>
+      </c>
+      <c r="U117">
+        <v>2.63</v>
+      </c>
+      <c r="V117">
+        <v>3.4</v>
+      </c>
+      <c r="W117">
+        <v>1.3</v>
+      </c>
+      <c r="X117">
+        <v>10</v>
+      </c>
+      <c r="Y117">
+        <v>1.06</v>
+      </c>
+      <c r="Z117">
+        <v>2.5</v>
+      </c>
+      <c r="AA117">
+        <v>3.3</v>
+      </c>
+      <c r="AB117">
+        <v>2.63</v>
+      </c>
+      <c r="AC117">
+        <v>1.07</v>
+      </c>
+      <c r="AD117">
+        <v>9</v>
+      </c>
+      <c r="AE117">
+        <v>1.38</v>
+      </c>
+      <c r="AF117">
+        <v>3</v>
+      </c>
+      <c r="AG117">
+        <v>2.14</v>
+      </c>
+      <c r="AH117">
+        <v>1.67</v>
+      </c>
+      <c r="AI117">
+        <v>1.91</v>
+      </c>
+      <c r="AJ117">
+        <v>1.91</v>
+      </c>
+      <c r="AK117">
+        <v>1.44</v>
+      </c>
+      <c r="AL117">
+        <v>1.3</v>
+      </c>
+      <c r="AM117">
+        <v>1.52</v>
+      </c>
+      <c r="AN117">
+        <v>1.33</v>
+      </c>
+      <c r="AO117">
+        <v>0.67</v>
+      </c>
+      <c r="AP117">
+        <v>1.57</v>
+      </c>
+      <c r="AQ117">
+        <v>0.57</v>
+      </c>
+      <c r="AR117">
+        <v>1.23</v>
+      </c>
+      <c r="AS117">
+        <v>1.02</v>
+      </c>
+      <c r="AT117">
+        <v>2.25</v>
+      </c>
+      <c r="AU117">
+        <v>3</v>
+      </c>
+      <c r="AV117">
+        <v>5</v>
+      </c>
+      <c r="AW117">
+        <v>5</v>
+      </c>
+      <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>11</v>
+      </c>
+      <c r="AZ117">
+        <v>11</v>
+      </c>
+      <c r="BA117">
+        <v>2</v>
+      </c>
+      <c r="BB117">
+        <v>7</v>
+      </c>
+      <c r="BC117">
+        <v>9</v>
+      </c>
+      <c r="BD117">
+        <v>1.91</v>
+      </c>
+      <c r="BE117">
+        <v>8</v>
+      </c>
+      <c r="BF117">
+        <v>2.2</v>
+      </c>
+      <c r="BG117">
+        <v>1.23</v>
+      </c>
+      <c r="BH117">
+        <v>3.9</v>
+      </c>
+      <c r="BI117">
+        <v>1.42</v>
+      </c>
+      <c r="BJ117">
+        <v>2.75</v>
+      </c>
+      <c r="BK117">
+        <v>1.7</v>
+      </c>
+      <c r="BL117">
+        <v>2.1</v>
+      </c>
+      <c r="BM117">
+        <v>2.05</v>
+      </c>
+      <c r="BN117">
+        <v>1.7</v>
+      </c>
+      <c r="BO117">
+        <v>2.7</v>
+      </c>
+      <c r="BP117">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -24951,7 +24951,7 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45635.71875</v>
+        <v>45634.875</v>
       </c>
       <c r="F117">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -24539,7 +24539,7 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45633.875</v>
+        <v>45634.52083333334</v>
       </c>
       <c r="F115">
         <v>13</v>
@@ -24665,19 +24665,19 @@
         <v>2.3</v>
       </c>
       <c r="AU115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV115">
+        <v>6</v>
+      </c>
+      <c r="AW115">
+        <v>9</v>
+      </c>
+      <c r="AX115">
         <v>7</v>
       </c>
-      <c r="AW115">
-        <v>5</v>
-      </c>
-      <c r="AX115">
-        <v>4</v>
-      </c>
       <c r="AY115">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ115">
         <v>13</v>
@@ -24951,7 +24951,7 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45634.875</v>
+        <v>45635.71875</v>
       </c>
       <c r="F117">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,12 @@
     <t>['58', '68']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['23', '49', '66']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -674,6 +680,12 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['43', '58']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ2">
         <v>0.43</v>
@@ -1500,7 +1512,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1706,7 +1718,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -1787,7 +1799,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1993,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2118,7 +2130,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2530,7 +2542,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -2608,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ8">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3148,7 +3160,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3354,7 +3366,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3766,7 +3778,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3844,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
         <v>2.57</v>
@@ -4178,7 +4190,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4590,7 +4602,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4796,7 +4808,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5002,7 +5014,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5080,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ20">
         <v>2.57</v>
@@ -5208,7 +5220,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5701,7 +5713,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ23">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR23">
         <v>1.27</v>
@@ -6319,7 +6331,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ26">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR26">
         <v>0.6</v>
@@ -6731,7 +6743,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ28">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.72</v>
@@ -6856,7 +6868,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7062,7 +7074,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7268,7 +7280,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7758,7 +7770,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -7964,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34">
         <v>0.43</v>
@@ -8298,7 +8310,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8710,7 +8722,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8916,7 +8928,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -8997,7 +9009,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ39">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR39">
         <v>1.27</v>
@@ -9328,7 +9340,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9409,7 +9421,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ41">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9534,7 +9546,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9740,7 +9752,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10152,7 +10164,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10358,7 +10370,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10439,7 +10451,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ46">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.1</v>
@@ -10564,7 +10576,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10642,7 +10654,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>2.17</v>
@@ -10770,7 +10782,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11182,7 +11194,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11594,7 +11606,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11800,7 +11812,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11878,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ53">
         <v>0.57</v>
@@ -12084,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ54">
         <v>0.5</v>
@@ -12212,7 +12224,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12418,7 +12430,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12624,7 +12636,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12705,7 +12717,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ57">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -12830,7 +12842,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13036,7 +13048,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13117,7 +13129,7 @@
         <v>3</v>
       </c>
       <c r="AQ59">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR59">
         <v>2.26</v>
@@ -13941,7 +13953,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ63">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR63">
         <v>1.11</v>
@@ -14272,7 +14284,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14890,7 +14902,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15174,7 +15186,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ69">
         <v>0.83</v>
@@ -15380,7 +15392,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ70">
         <v>0.5</v>
@@ -15508,7 +15520,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15589,7 +15601,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ71">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR71">
         <v>1.19</v>
@@ -15714,7 +15726,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16126,7 +16138,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16207,7 +16219,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ74">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR74">
         <v>1.21</v>
@@ -16332,7 +16344,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16538,7 +16550,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16619,7 +16631,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ76">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR76">
         <v>1.15</v>
@@ -16744,7 +16756,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17362,7 +17374,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17568,7 +17580,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17774,7 +17786,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17852,7 +17864,7 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ82">
         <v>0.17</v>
@@ -17980,7 +17992,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18186,7 +18198,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18264,7 +18276,7 @@
         <v>1.33</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ84">
         <v>2</v>
@@ -18392,7 +18404,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18473,7 +18485,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR85">
         <v>1.21</v>
@@ -18598,7 +18610,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18885,7 +18897,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ87">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19010,7 +19022,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19500,7 +19512,7 @@
         <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ90">
         <v>1.5</v>
@@ -19628,7 +19640,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19709,7 +19721,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ91">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR91">
         <v>1.03</v>
@@ -19834,7 +19846,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20452,7 +20464,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21070,7 +21082,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21560,7 +21572,7 @@
         <v>0.2</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ100">
         <v>0.17</v>
@@ -21688,7 +21700,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -21769,7 +21781,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -21972,10 +21984,10 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR102">
         <v>1.15</v>
@@ -22100,7 +22112,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22178,7 +22190,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ103">
         <v>1.5</v>
@@ -22306,7 +22318,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22512,7 +22524,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22718,7 +22730,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23005,7 +23017,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ107">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
@@ -23542,7 +23554,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23748,7 +23760,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24366,7 +24378,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q114">
         <v>6.5</v>
@@ -24572,7 +24584,7 @@
         <v>131</v>
       </c>
       <c r="P115" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q115">
         <v>3.25</v>
@@ -24984,7 +24996,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25141,6 +25153,624 @@
       </c>
       <c r="BP117">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7574688</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45640.52083333334</v>
+      </c>
+      <c r="F118">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>76</v>
+      </c>
+      <c r="H118" t="s">
+        <v>80</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>90</v>
+      </c>
+      <c r="P118" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q118">
+        <v>3.5</v>
+      </c>
+      <c r="R118">
+        <v>1.9</v>
+      </c>
+      <c r="S118">
+        <v>3.3</v>
+      </c>
+      <c r="T118">
+        <v>1.53</v>
+      </c>
+      <c r="U118">
+        <v>2.35</v>
+      </c>
+      <c r="V118">
+        <v>3.4</v>
+      </c>
+      <c r="W118">
+        <v>1.28</v>
+      </c>
+      <c r="X118">
+        <v>8</v>
+      </c>
+      <c r="Y118">
+        <v>1.05</v>
+      </c>
+      <c r="Z118">
+        <v>2.82</v>
+      </c>
+      <c r="AA118">
+        <v>2.95</v>
+      </c>
+      <c r="AB118">
+        <v>2.59</v>
+      </c>
+      <c r="AC118">
+        <v>1.1</v>
+      </c>
+      <c r="AD118">
+        <v>6.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.48</v>
+      </c>
+      <c r="AF118">
+        <v>2.65</v>
+      </c>
+      <c r="AG118">
+        <v>2.22</v>
+      </c>
+      <c r="AH118">
+        <v>1.66</v>
+      </c>
+      <c r="AI118">
+        <v>1.95</v>
+      </c>
+      <c r="AJ118">
+        <v>1.77</v>
+      </c>
+      <c r="AK118">
+        <v>1.48</v>
+      </c>
+      <c r="AL118">
+        <v>1.33</v>
+      </c>
+      <c r="AM118">
+        <v>1.4</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
+        <v>0.29</v>
+      </c>
+      <c r="AP118">
+        <v>0.86</v>
+      </c>
+      <c r="AQ118">
+        <v>0.63</v>
+      </c>
+      <c r="AR118">
+        <v>1.14</v>
+      </c>
+      <c r="AS118">
+        <v>0.9</v>
+      </c>
+      <c r="AT118">
+        <v>2.04</v>
+      </c>
+      <c r="AU118">
+        <v>3</v>
+      </c>
+      <c r="AV118">
+        <v>3</v>
+      </c>
+      <c r="AW118">
+        <v>9</v>
+      </c>
+      <c r="AX118">
+        <v>3</v>
+      </c>
+      <c r="AY118">
+        <v>16</v>
+      </c>
+      <c r="AZ118">
+        <v>8</v>
+      </c>
+      <c r="BA118">
+        <v>7</v>
+      </c>
+      <c r="BB118">
+        <v>1</v>
+      </c>
+      <c r="BC118">
+        <v>8</v>
+      </c>
+      <c r="BD118">
+        <v>2.15</v>
+      </c>
+      <c r="BE118">
+        <v>6.4</v>
+      </c>
+      <c r="BF118">
+        <v>1.85</v>
+      </c>
+      <c r="BG118">
+        <v>1.32</v>
+      </c>
+      <c r="BH118">
+        <v>3</v>
+      </c>
+      <c r="BI118">
+        <v>1.55</v>
+      </c>
+      <c r="BJ118">
+        <v>2.25</v>
+      </c>
+      <c r="BK118">
+        <v>1.88</v>
+      </c>
+      <c r="BL118">
+        <v>1.78</v>
+      </c>
+      <c r="BM118">
+        <v>2.38</v>
+      </c>
+      <c r="BN118">
+        <v>1.49</v>
+      </c>
+      <c r="BO118">
+        <v>3.05</v>
+      </c>
+      <c r="BP118">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7574683</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45640.625</v>
+      </c>
+      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>82</v>
+      </c>
+      <c r="H119" t="s">
+        <v>84</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>164</v>
+      </c>
+      <c r="P119" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q119">
+        <v>3.35</v>
+      </c>
+      <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
+        <v>3.25</v>
+      </c>
+      <c r="T119">
+        <v>1.48</v>
+      </c>
+      <c r="U119">
+        <v>2.45</v>
+      </c>
+      <c r="V119">
+        <v>3.1</v>
+      </c>
+      <c r="W119">
+        <v>1.33</v>
+      </c>
+      <c r="X119">
+        <v>7.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.06</v>
+      </c>
+      <c r="Z119">
+        <v>2.67</v>
+      </c>
+      <c r="AA119">
+        <v>3.15</v>
+      </c>
+      <c r="AB119">
+        <v>2.59</v>
+      </c>
+      <c r="AC119">
+        <v>1.08</v>
+      </c>
+      <c r="AD119">
+        <v>7.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.4</v>
+      </c>
+      <c r="AF119">
+        <v>2.88</v>
+      </c>
+      <c r="AG119">
+        <v>2.25</v>
+      </c>
+      <c r="AH119">
+        <v>1.65</v>
+      </c>
+      <c r="AI119">
+        <v>1.85</v>
+      </c>
+      <c r="AJ119">
+        <v>1.85</v>
+      </c>
+      <c r="AK119">
+        <v>1.45</v>
+      </c>
+      <c r="AL119">
+        <v>1.3</v>
+      </c>
+      <c r="AM119">
+        <v>1.44</v>
+      </c>
+      <c r="AN119">
+        <v>1.4</v>
+      </c>
+      <c r="AO119">
+        <v>0.86</v>
+      </c>
+      <c r="AP119">
+        <v>1.67</v>
+      </c>
+      <c r="AQ119">
+        <v>0.75</v>
+      </c>
+      <c r="AR119">
+        <v>1.33</v>
+      </c>
+      <c r="AS119">
+        <v>1.26</v>
+      </c>
+      <c r="AT119">
+        <v>2.59</v>
+      </c>
+      <c r="AU119">
+        <v>6</v>
+      </c>
+      <c r="AV119">
+        <v>2</v>
+      </c>
+      <c r="AW119">
+        <v>4</v>
+      </c>
+      <c r="AX119">
+        <v>2</v>
+      </c>
+      <c r="AY119">
+        <v>13</v>
+      </c>
+      <c r="AZ119">
+        <v>5</v>
+      </c>
+      <c r="BA119">
+        <v>10</v>
+      </c>
+      <c r="BB119">
+        <v>2</v>
+      </c>
+      <c r="BC119">
+        <v>12</v>
+      </c>
+      <c r="BD119">
+        <v>1.86</v>
+      </c>
+      <c r="BE119">
+        <v>6.75</v>
+      </c>
+      <c r="BF119">
+        <v>2.12</v>
+      </c>
+      <c r="BG119">
+        <v>1.25</v>
+      </c>
+      <c r="BH119">
+        <v>3.45</v>
+      </c>
+      <c r="BI119">
+        <v>1.43</v>
+      </c>
+      <c r="BJ119">
+        <v>2.55</v>
+      </c>
+      <c r="BK119">
+        <v>1.71</v>
+      </c>
+      <c r="BL119">
+        <v>1.97</v>
+      </c>
+      <c r="BM119">
+        <v>2.12</v>
+      </c>
+      <c r="BN119">
+        <v>1.61</v>
+      </c>
+      <c r="BO119">
+        <v>2.7</v>
+      </c>
+      <c r="BP119">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7574680</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45640.72916666666</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>70</v>
+      </c>
+      <c r="H120" t="s">
+        <v>86</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>5</v>
+      </c>
+      <c r="O120" t="s">
+        <v>165</v>
+      </c>
+      <c r="P120" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q120">
+        <v>1.36</v>
+      </c>
+      <c r="R120">
+        <v>3.25</v>
+      </c>
+      <c r="S120">
+        <v>13</v>
+      </c>
+      <c r="T120">
+        <v>1.17</v>
+      </c>
+      <c r="U120">
+        <v>4.5</v>
+      </c>
+      <c r="V120">
+        <v>1.77</v>
+      </c>
+      <c r="W120">
+        <v>1.93</v>
+      </c>
+      <c r="X120">
+        <v>3.4</v>
+      </c>
+      <c r="Y120">
+        <v>1.28</v>
+      </c>
+      <c r="Z120">
+        <v>1.07</v>
+      </c>
+      <c r="AA120">
+        <v>11</v>
+      </c>
+      <c r="AB120">
+        <v>18</v>
+      </c>
+      <c r="AC120">
+        <v>1.01</v>
+      </c>
+      <c r="AD120">
+        <v>14</v>
+      </c>
+      <c r="AE120">
+        <v>1.08</v>
+      </c>
+      <c r="AF120">
+        <v>7.5</v>
+      </c>
+      <c r="AG120">
+        <v>1.28</v>
+      </c>
+      <c r="AH120">
+        <v>3.3</v>
+      </c>
+      <c r="AI120">
+        <v>2.15</v>
+      </c>
+      <c r="AJ120">
+        <v>1.62</v>
+      </c>
+      <c r="AK120">
+        <v>1.01</v>
+      </c>
+      <c r="AL120">
+        <v>1.04</v>
+      </c>
+      <c r="AM120">
+        <v>7.5</v>
+      </c>
+      <c r="AN120">
+        <v>2.5</v>
+      </c>
+      <c r="AO120">
+        <v>1.29</v>
+      </c>
+      <c r="AP120">
+        <v>2.57</v>
+      </c>
+      <c r="AQ120">
+        <v>1.13</v>
+      </c>
+      <c r="AR120">
+        <v>2.02</v>
+      </c>
+      <c r="AS120">
+        <v>0.98</v>
+      </c>
+      <c r="AT120">
+        <v>3</v>
+      </c>
+      <c r="AU120">
+        <v>8</v>
+      </c>
+      <c r="AV120">
+        <v>3</v>
+      </c>
+      <c r="AW120">
+        <v>8</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>22</v>
+      </c>
+      <c r="AZ120">
+        <v>9</v>
+      </c>
+      <c r="BA120">
+        <v>10</v>
+      </c>
+      <c r="BB120">
+        <v>1</v>
+      </c>
+      <c r="BC120">
+        <v>11</v>
+      </c>
+      <c r="BD120">
+        <v>1.07</v>
+      </c>
+      <c r="BE120">
+        <v>12</v>
+      </c>
+      <c r="BF120">
+        <v>8.5</v>
+      </c>
+      <c r="BG120">
+        <v>1.27</v>
+      </c>
+      <c r="BH120">
+        <v>3.3</v>
+      </c>
+      <c r="BI120">
+        <v>1.47</v>
+      </c>
+      <c r="BJ120">
+        <v>2.43</v>
+      </c>
+      <c r="BK120">
+        <v>1.75</v>
+      </c>
+      <c r="BL120">
+        <v>1.91</v>
+      </c>
+      <c r="BM120">
+        <v>2.18</v>
+      </c>
+      <c r="BN120">
+        <v>1.58</v>
+      </c>
+      <c r="BO120">
+        <v>2.8</v>
+      </c>
+      <c r="BP120">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,10 +508,16 @@
     <t>['58', '68']</t>
   </si>
   <si>
+    <t>['23', '49', '66']</t>
+  </si>
+  <si>
     <t>['55']</t>
   </si>
   <si>
-    <t>['23', '49', '66']</t>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
   <si>
     <t>['35']</t>
@@ -682,10 +688,13 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['43', '58']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
-    <t>['43', '58']</t>
+    <t>['56', '63']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1512,7 +1521,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1590,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ3">
         <v>0.29</v>
@@ -1718,7 +1727,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -2130,7 +2139,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2208,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2417,7 +2426,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2542,7 +2551,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3032,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.14</v>
@@ -3160,7 +3169,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3366,7 +3375,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3778,7 +3787,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4065,7 +4074,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4190,7 +4199,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4602,7 +4611,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4808,7 +4817,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5014,7 +5023,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5220,7 +5229,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5301,7 +5310,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR21">
         <v>1.57</v>
@@ -6122,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>0.29</v>
@@ -6328,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ26">
         <v>0.63</v>
@@ -6534,7 +6543,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
         <v>1.14</v>
@@ -6868,7 +6877,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6949,7 +6958,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR29">
         <v>1.3</v>
@@ -7074,7 +7083,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7280,7 +7289,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7361,7 +7370,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ31">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -8310,7 +8319,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8722,7 +8731,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8800,7 +8809,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>2.57</v>
@@ -8928,7 +8937,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9212,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40">
         <v>0.43</v>
@@ -9340,7 +9349,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9546,7 +9555,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9627,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR42">
         <v>2.4</v>
@@ -9752,7 +9761,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10036,7 +10045,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
         <v>0.29</v>
@@ -10164,7 +10173,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10370,7 +10379,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10576,7 +10585,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10782,7 +10791,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11194,7 +11203,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11606,7 +11615,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11687,7 +11696,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR52">
         <v>1.51</v>
@@ -11812,7 +11821,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12224,7 +12233,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12305,7 +12314,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR55">
         <v>1.28</v>
@@ -12430,7 +12439,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12508,7 +12517,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ56">
         <v>2.57</v>
@@ -12636,7 +12645,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12842,7 +12851,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13048,7 +13057,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -14156,7 +14165,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ64">
         <v>0.43</v>
@@ -14284,7 +14293,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14777,7 +14786,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -14902,7 +14911,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -14980,7 +14989,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>0.5</v>
@@ -15189,7 +15198,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR69">
         <v>2.1</v>
@@ -15520,7 +15529,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15726,7 +15735,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16138,7 +16147,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16344,7 +16353,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16422,7 +16431,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75">
         <v>0.57</v>
@@ -16550,7 +16559,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16756,7 +16765,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17374,7 +17383,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17580,7 +17589,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17658,7 +17667,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ81">
         <v>1.67</v>
@@ -17786,7 +17795,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17992,7 +18001,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18073,7 +18082,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR83">
         <v>1.47</v>
@@ -18198,7 +18207,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18279,7 +18288,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR84">
         <v>1.17</v>
@@ -18404,7 +18413,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18610,7 +18619,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18688,7 +18697,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -19022,7 +19031,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19100,7 +19109,7 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>2.17</v>
@@ -19515,7 +19524,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ90">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR90">
         <v>1.22</v>
@@ -19640,7 +19649,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19846,7 +19855,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20130,7 +20139,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93">
         <v>0.5</v>
@@ -20464,7 +20473,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21082,7 +21091,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21700,7 +21709,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22112,7 +22121,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22193,7 +22202,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR103">
         <v>2.02</v>
@@ -22318,7 +22327,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22396,7 +22405,7 @@
         <v>1.6</v>
       </c>
       <c r="AP104">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104">
         <v>1.33</v>
@@ -22524,7 +22533,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22602,10 +22611,10 @@
         <v>1.75</v>
       </c>
       <c r="AP105">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR105">
         <v>0.97</v>
@@ -22730,7 +22739,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -22808,7 +22817,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ106">
         <v>2.17</v>
@@ -23223,7 +23232,7 @@
         <v>3</v>
       </c>
       <c r="AQ108">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR108">
         <v>2.03</v>
@@ -23554,7 +23563,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23760,7 +23769,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24378,7 +24387,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q114">
         <v>6.5</v>
@@ -24584,7 +24593,7 @@
         <v>131</v>
       </c>
       <c r="P115" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q115">
         <v>3.25</v>
@@ -24996,7 +25005,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25160,7 +25169,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7574688</v>
+        <v>7574680</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25169,196 +25178,196 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45640.52083333334</v>
+        <v>45639.875</v>
       </c>
       <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" t="s">
+        <v>86</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118" t="s">
+        <v>164</v>
+      </c>
+      <c r="P118" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q118">
+        <v>1.36</v>
+      </c>
+      <c r="R118">
+        <v>3.25</v>
+      </c>
+      <c r="S118">
+        <v>13</v>
+      </c>
+      <c r="T118">
+        <v>1.17</v>
+      </c>
+      <c r="U118">
+        <v>4.5</v>
+      </c>
+      <c r="V118">
+        <v>1.77</v>
+      </c>
+      <c r="W118">
+        <v>1.93</v>
+      </c>
+      <c r="X118">
+        <v>3.4</v>
+      </c>
+      <c r="Y118">
+        <v>1.28</v>
+      </c>
+      <c r="Z118">
+        <v>1.07</v>
+      </c>
+      <c r="AA118">
+        <v>11</v>
+      </c>
+      <c r="AB118">
+        <v>18</v>
+      </c>
+      <c r="AC118">
+        <v>1.01</v>
+      </c>
+      <c r="AD118">
         <v>14</v>
       </c>
-      <c r="G118" t="s">
-        <v>76</v>
-      </c>
-      <c r="H118" t="s">
-        <v>80</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>1</v>
-      </c>
-      <c r="N118">
-        <v>1</v>
-      </c>
-      <c r="O118" t="s">
-        <v>90</v>
-      </c>
-      <c r="P118" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q118">
-        <v>3.5</v>
-      </c>
-      <c r="R118">
-        <v>1.9</v>
-      </c>
-      <c r="S118">
+      <c r="AE118">
+        <v>1.08</v>
+      </c>
+      <c r="AF118">
+        <v>7.5</v>
+      </c>
+      <c r="AG118">
+        <v>1.28</v>
+      </c>
+      <c r="AH118">
         <v>3.3</v>
       </c>
-      <c r="T118">
-        <v>1.53</v>
-      </c>
-      <c r="U118">
-        <v>2.35</v>
-      </c>
-      <c r="V118">
-        <v>3.4</v>
-      </c>
-      <c r="W118">
-        <v>1.28</v>
-      </c>
-      <c r="X118">
+      <c r="AI118">
+        <v>2.15</v>
+      </c>
+      <c r="AJ118">
+        <v>1.62</v>
+      </c>
+      <c r="AK118">
+        <v>1.01</v>
+      </c>
+      <c r="AL118">
+        <v>1.04</v>
+      </c>
+      <c r="AM118">
+        <v>7.5</v>
+      </c>
+      <c r="AN118">
+        <v>2.5</v>
+      </c>
+      <c r="AO118">
+        <v>1.29</v>
+      </c>
+      <c r="AP118">
+        <v>2.57</v>
+      </c>
+      <c r="AQ118">
+        <v>1.13</v>
+      </c>
+      <c r="AR118">
+        <v>2.02</v>
+      </c>
+      <c r="AS118">
+        <v>0.98</v>
+      </c>
+      <c r="AT118">
+        <v>3</v>
+      </c>
+      <c r="AU118">
         <v>8</v>
       </c>
-      <c r="Y118">
-        <v>1.05</v>
-      </c>
-      <c r="Z118">
-        <v>2.82</v>
-      </c>
-      <c r="AA118">
-        <v>2.95</v>
-      </c>
-      <c r="AB118">
-        <v>2.59</v>
-      </c>
-      <c r="AC118">
-        <v>1.1</v>
-      </c>
-      <c r="AD118">
-        <v>6.5</v>
-      </c>
-      <c r="AE118">
-        <v>1.48</v>
-      </c>
-      <c r="AF118">
-        <v>2.65</v>
-      </c>
-      <c r="AG118">
-        <v>2.22</v>
-      </c>
-      <c r="AH118">
-        <v>1.66</v>
-      </c>
-      <c r="AI118">
-        <v>1.95</v>
-      </c>
-      <c r="AJ118">
-        <v>1.77</v>
-      </c>
-      <c r="AK118">
-        <v>1.48</v>
-      </c>
-      <c r="AL118">
-        <v>1.33</v>
-      </c>
-      <c r="AM118">
-        <v>1.4</v>
-      </c>
-      <c r="AN118">
-        <v>1</v>
-      </c>
-      <c r="AO118">
-        <v>0.29</v>
-      </c>
-      <c r="AP118">
-        <v>0.86</v>
-      </c>
-      <c r="AQ118">
-        <v>0.63</v>
-      </c>
-      <c r="AR118">
-        <v>1.14</v>
-      </c>
-      <c r="AS118">
-        <v>0.9</v>
-      </c>
-      <c r="AT118">
-        <v>2.04</v>
-      </c>
-      <c r="AU118">
-        <v>3</v>
-      </c>
       <c r="AV118">
         <v>3</v>
       </c>
       <c r="AW118">
+        <v>8</v>
+      </c>
+      <c r="AX118">
+        <v>3</v>
+      </c>
+      <c r="AY118">
+        <v>22</v>
+      </c>
+      <c r="AZ118">
         <v>9</v>
       </c>
-      <c r="AX118">
-        <v>3</v>
-      </c>
-      <c r="AY118">
-        <v>16</v>
-      </c>
-      <c r="AZ118">
-        <v>8</v>
-      </c>
       <c r="BA118">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB118">
         <v>1</v>
       </c>
       <c r="BC118">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD118">
-        <v>2.15</v>
+        <v>1.07</v>
       </c>
       <c r="BE118">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="BF118">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="BG118">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BH118">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="BI118">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="BJ118">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="BK118">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="BL118">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="BM118">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="BN118">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="BO118">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BP118">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="119" spans="1:68">
@@ -25375,7 +25384,7 @@
         <v>69</v>
       </c>
       <c r="E119" s="2">
-        <v>45640.625</v>
+        <v>45639.875</v>
       </c>
       <c r="F119">
         <v>14</v>
@@ -25405,7 +25414,7 @@
         <v>1</v>
       </c>
       <c r="O119" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P119" t="s">
         <v>90</v>
@@ -25572,7 +25581,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7574680</v>
+        <v>7574688</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25581,196 +25590,814 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45640.72916666666</v>
+        <v>45640.52083333334</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H120" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>90</v>
+      </c>
+      <c r="P120" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q120">
+        <v>3.5</v>
+      </c>
+      <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>3.3</v>
+      </c>
+      <c r="T120">
+        <v>1.53</v>
+      </c>
+      <c r="U120">
+        <v>2.35</v>
+      </c>
+      <c r="V120">
+        <v>3.4</v>
+      </c>
+      <c r="W120">
+        <v>1.28</v>
+      </c>
+      <c r="X120">
+        <v>8</v>
+      </c>
+      <c r="Y120">
+        <v>1.05</v>
+      </c>
+      <c r="Z120">
+        <v>2.82</v>
+      </c>
+      <c r="AA120">
+        <v>2.95</v>
+      </c>
+      <c r="AB120">
+        <v>2.59</v>
+      </c>
+      <c r="AC120">
+        <v>1.1</v>
+      </c>
+      <c r="AD120">
+        <v>6.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.48</v>
+      </c>
+      <c r="AF120">
+        <v>2.65</v>
+      </c>
+      <c r="AG120">
+        <v>2.22</v>
+      </c>
+      <c r="AH120">
+        <v>1.66</v>
+      </c>
+      <c r="AI120">
+        <v>1.95</v>
+      </c>
+      <c r="AJ120">
+        <v>1.77</v>
+      </c>
+      <c r="AK120">
+        <v>1.48</v>
+      </c>
+      <c r="AL120">
+        <v>1.33</v>
+      </c>
+      <c r="AM120">
+        <v>1.4</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
+        <v>0.29</v>
+      </c>
+      <c r="AP120">
+        <v>0.86</v>
+      </c>
+      <c r="AQ120">
+        <v>0.63</v>
+      </c>
+      <c r="AR120">
+        <v>1.14</v>
+      </c>
+      <c r="AS120">
+        <v>0.9</v>
+      </c>
+      <c r="AT120">
+        <v>2.04</v>
+      </c>
+      <c r="AU120">
+        <v>3</v>
+      </c>
+      <c r="AV120">
+        <v>3</v>
+      </c>
+      <c r="AW120">
+        <v>9</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>16</v>
+      </c>
+      <c r="AZ120">
+        <v>8</v>
+      </c>
+      <c r="BA120">
+        <v>7</v>
+      </c>
+      <c r="BB120">
+        <v>1</v>
+      </c>
+      <c r="BC120">
+        <v>8</v>
+      </c>
+      <c r="BD120">
+        <v>2.15</v>
+      </c>
+      <c r="BE120">
+        <v>6.4</v>
+      </c>
+      <c r="BF120">
+        <v>1.85</v>
+      </c>
+      <c r="BG120">
+        <v>1.32</v>
+      </c>
+      <c r="BH120">
+        <v>3</v>
+      </c>
+      <c r="BI120">
+        <v>1.55</v>
+      </c>
+      <c r="BJ120">
+        <v>2.25</v>
+      </c>
+      <c r="BK120">
+        <v>1.88</v>
+      </c>
+      <c r="BL120">
+        <v>1.78</v>
+      </c>
+      <c r="BM120">
+        <v>2.38</v>
+      </c>
+      <c r="BN120">
+        <v>1.49</v>
+      </c>
+      <c r="BO120">
+        <v>3.05</v>
+      </c>
+      <c r="BP120">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7574686</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45640.875</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>78</v>
+      </c>
+      <c r="H121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>166</v>
+      </c>
+      <c r="P121" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q121">
+        <v>4</v>
+      </c>
+      <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>3.2</v>
+      </c>
+      <c r="T121">
+        <v>1.53</v>
+      </c>
+      <c r="U121">
+        <v>2.38</v>
+      </c>
+      <c r="V121">
+        <v>3.5</v>
+      </c>
+      <c r="W121">
+        <v>1.29</v>
+      </c>
+      <c r="X121">
+        <v>11</v>
+      </c>
+      <c r="Y121">
+        <v>1.05</v>
+      </c>
+      <c r="Z121">
+        <v>3.1</v>
+      </c>
+      <c r="AA121">
+        <v>3</v>
+      </c>
+      <c r="AB121">
+        <v>2.26</v>
+      </c>
+      <c r="AC121">
+        <v>1.09</v>
+      </c>
+      <c r="AD121">
+        <v>7</v>
+      </c>
+      <c r="AE121">
+        <v>1.45</v>
+      </c>
+      <c r="AF121">
+        <v>2.7</v>
+      </c>
+      <c r="AG121">
+        <v>2.22</v>
+      </c>
+      <c r="AH121">
+        <v>1.58</v>
+      </c>
+      <c r="AI121">
+        <v>2</v>
+      </c>
+      <c r="AJ121">
+        <v>1.75</v>
+      </c>
+      <c r="AK121">
+        <v>1.59</v>
+      </c>
+      <c r="AL121">
+        <v>1.36</v>
+      </c>
+      <c r="AM121">
+        <v>1.36</v>
+      </c>
+      <c r="AN121">
+        <v>0.67</v>
+      </c>
+      <c r="AO121">
+        <v>1.5</v>
+      </c>
+      <c r="AP121">
+        <v>1</v>
+      </c>
+      <c r="AQ121">
+        <v>1.29</v>
+      </c>
+      <c r="AR121">
+        <v>1.05</v>
+      </c>
+      <c r="AS121">
+        <v>1.18</v>
+      </c>
+      <c r="AT121">
+        <v>2.23</v>
+      </c>
+      <c r="AU121">
+        <v>4</v>
+      </c>
+      <c r="AV121">
+        <v>2</v>
+      </c>
+      <c r="AW121">
+        <v>7</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>13</v>
+      </c>
+      <c r="AZ121">
+        <v>6</v>
+      </c>
+      <c r="BA121">
+        <v>7</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>9</v>
+      </c>
+      <c r="BD121">
+        <v>1.98</v>
+      </c>
+      <c r="BE121">
+        <v>6.4</v>
+      </c>
+      <c r="BF121">
+        <v>2</v>
+      </c>
+      <c r="BG121">
+        <v>1.34</v>
+      </c>
+      <c r="BH121">
+        <v>2.88</v>
+      </c>
+      <c r="BI121">
+        <v>1.6</v>
+      </c>
+      <c r="BJ121">
+        <v>2.15</v>
+      </c>
+      <c r="BK121">
+        <v>1.96</v>
+      </c>
+      <c r="BL121">
+        <v>1.72</v>
+      </c>
+      <c r="BM121">
+        <v>2.5</v>
+      </c>
+      <c r="BN121">
+        <v>1.44</v>
+      </c>
+      <c r="BO121">
+        <v>3.3</v>
+      </c>
+      <c r="BP121">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7574685</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45641.625</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>71</v>
+      </c>
+      <c r="H122" t="s">
+        <v>83</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>167</v>
+      </c>
+      <c r="P122" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q122">
+        <v>11</v>
+      </c>
+      <c r="R122">
+        <v>2.75</v>
+      </c>
+      <c r="S122">
+        <v>1.5</v>
+      </c>
+      <c r="T122">
+        <v>1.25</v>
+      </c>
+      <c r="U122">
+        <v>3.55</v>
+      </c>
+      <c r="V122">
+        <v>2.15</v>
+      </c>
+      <c r="W122">
+        <v>1.62</v>
+      </c>
+      <c r="X122">
+        <v>4.5</v>
+      </c>
+      <c r="Y122">
+        <v>1.17</v>
+      </c>
+      <c r="Z122">
+        <v>13</v>
+      </c>
+      <c r="AA122">
+        <v>7.3</v>
+      </c>
+      <c r="AB122">
+        <v>1.15</v>
+      </c>
+      <c r="AC122">
+        <v>1.01</v>
+      </c>
+      <c r="AD122">
+        <v>17</v>
+      </c>
+      <c r="AE122">
+        <v>1.15</v>
+      </c>
+      <c r="AF122">
+        <v>5.25</v>
+      </c>
+      <c r="AG122">
+        <v>1.47</v>
+      </c>
+      <c r="AH122">
+        <v>2.57</v>
+      </c>
+      <c r="AI122">
+        <v>2.2</v>
+      </c>
+      <c r="AJ122">
+        <v>1.6</v>
+      </c>
+      <c r="AK122">
         <v>5</v>
       </c>
-      <c r="O120" t="s">
-        <v>165</v>
-      </c>
-      <c r="P120" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q120">
+      <c r="AL122">
+        <v>1.08</v>
+      </c>
+      <c r="AM122">
+        <v>1.02</v>
+      </c>
+      <c r="AN122">
+        <v>1.14</v>
+      </c>
+      <c r="AO122">
+        <v>2</v>
+      </c>
+      <c r="AP122">
+        <v>1.13</v>
+      </c>
+      <c r="AQ122">
+        <v>1.83</v>
+      </c>
+      <c r="AR122">
+        <v>1.11</v>
+      </c>
+      <c r="AS122">
+        <v>1.73</v>
+      </c>
+      <c r="AT122">
+        <v>2.84</v>
+      </c>
+      <c r="AU122">
+        <v>8</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>9</v>
+      </c>
+      <c r="AX122">
+        <v>6</v>
+      </c>
+      <c r="AY122">
+        <v>19</v>
+      </c>
+      <c r="AZ122">
+        <v>14</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>3</v>
+      </c>
+      <c r="BC122">
+        <v>3</v>
+      </c>
+      <c r="BD122">
+        <v>4.4</v>
+      </c>
+      <c r="BE122">
+        <v>8.5</v>
+      </c>
+      <c r="BF122">
+        <v>1.23</v>
+      </c>
+      <c r="BG122">
+        <v>1.27</v>
+      </c>
+      <c r="BH122">
+        <v>3.25</v>
+      </c>
+      <c r="BI122">
+        <v>1.48</v>
+      </c>
+      <c r="BJ122">
+        <v>2.4</v>
+      </c>
+      <c r="BK122">
+        <v>1.76</v>
+      </c>
+      <c r="BL122">
+        <v>1.9</v>
+      </c>
+      <c r="BM122">
+        <v>2.18</v>
+      </c>
+      <c r="BN122">
+        <v>1.58</v>
+      </c>
+      <c r="BO122">
+        <v>2.8</v>
+      </c>
+      <c r="BP122">
         <v>1.36</v>
       </c>
-      <c r="R120">
-        <v>3.25</v>
-      </c>
-      <c r="S120">
-        <v>13</v>
-      </c>
-      <c r="T120">
-        <v>1.17</v>
-      </c>
-      <c r="U120">
-        <v>4.5</v>
-      </c>
-      <c r="V120">
-        <v>1.77</v>
-      </c>
-      <c r="W120">
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7574681</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45641.72916666666</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>74</v>
+      </c>
+      <c r="H123" t="s">
+        <v>72</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>90</v>
+      </c>
+      <c r="P123" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q123">
+        <v>3.3</v>
+      </c>
+      <c r="R123">
         <v>1.93</v>
       </c>
-      <c r="X120">
-        <v>3.4</v>
-      </c>
-      <c r="Y120">
-        <v>1.28</v>
-      </c>
-      <c r="Z120">
-        <v>1.07</v>
-      </c>
-      <c r="AA120">
+      <c r="S123">
+        <v>3.35</v>
+      </c>
+      <c r="T123">
+        <v>1.5</v>
+      </c>
+      <c r="U123">
+        <v>2.4</v>
+      </c>
+      <c r="V123">
+        <v>3.2</v>
+      </c>
+      <c r="W123">
+        <v>1.3</v>
+      </c>
+      <c r="X123">
+        <v>8</v>
+      </c>
+      <c r="Y123">
+        <v>1.05</v>
+      </c>
+      <c r="Z123">
+        <v>2.6</v>
+      </c>
+      <c r="AA123">
+        <v>3.3</v>
+      </c>
+      <c r="AB123">
+        <v>2.6</v>
+      </c>
+      <c r="AC123">
+        <v>1.08</v>
+      </c>
+      <c r="AD123">
+        <v>7.5</v>
+      </c>
+      <c r="AE123">
+        <v>1.42</v>
+      </c>
+      <c r="AF123">
+        <v>2.8</v>
+      </c>
+      <c r="AG123">
+        <v>2.27</v>
+      </c>
+      <c r="AH123">
+        <v>1.56</v>
+      </c>
+      <c r="AI123">
+        <v>1.85</v>
+      </c>
+      <c r="AJ123">
+        <v>1.83</v>
+      </c>
+      <c r="AK123">
+        <v>1.44</v>
+      </c>
+      <c r="AL123">
+        <v>1.3</v>
+      </c>
+      <c r="AM123">
+        <v>1.45</v>
+      </c>
+      <c r="AN123">
+        <v>1.57</v>
+      </c>
+      <c r="AO123">
+        <v>0.83</v>
+      </c>
+      <c r="AP123">
+        <v>1.38</v>
+      </c>
+      <c r="AQ123">
+        <v>1.14</v>
+      </c>
+      <c r="AR123">
+        <v>1.04</v>
+      </c>
+      <c r="AS123">
+        <v>0.99</v>
+      </c>
+      <c r="AT123">
+        <v>2.03</v>
+      </c>
+      <c r="AU123">
+        <v>6</v>
+      </c>
+      <c r="AV123">
+        <v>5</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>5</v>
+      </c>
+      <c r="AY123">
+        <v>15</v>
+      </c>
+      <c r="AZ123">
         <v>11</v>
       </c>
-      <c r="AB120">
-        <v>18</v>
-      </c>
-      <c r="AC120">
-        <v>1.01</v>
-      </c>
-      <c r="AD120">
-        <v>14</v>
-      </c>
-      <c r="AE120">
-        <v>1.08</v>
-      </c>
-      <c r="AF120">
-        <v>7.5</v>
-      </c>
-      <c r="AG120">
-        <v>1.28</v>
-      </c>
-      <c r="AH120">
-        <v>3.3</v>
-      </c>
-      <c r="AI120">
-        <v>2.15</v>
-      </c>
-      <c r="AJ120">
-        <v>1.62</v>
-      </c>
-      <c r="AK120">
-        <v>1.01</v>
-      </c>
-      <c r="AL120">
-        <v>1.04</v>
-      </c>
-      <c r="AM120">
-        <v>7.5</v>
-      </c>
-      <c r="AN120">
-        <v>2.5</v>
-      </c>
-      <c r="AO120">
+      <c r="BA123">
+        <v>5</v>
+      </c>
+      <c r="BB123">
+        <v>4</v>
+      </c>
+      <c r="BC123">
+        <v>9</v>
+      </c>
+      <c r="BD123">
+        <v>1.81</v>
+      </c>
+      <c r="BE123">
+        <v>6.5</v>
+      </c>
+      <c r="BF123">
+        <v>2.2</v>
+      </c>
+      <c r="BG123">
         <v>1.29</v>
       </c>
-      <c r="AP120">
-        <v>2.57</v>
-      </c>
-      <c r="AQ120">
-        <v>1.13</v>
-      </c>
-      <c r="AR120">
-        <v>2.02</v>
-      </c>
-      <c r="AS120">
-        <v>0.98</v>
-      </c>
-      <c r="AT120">
-        <v>3</v>
-      </c>
-      <c r="AU120">
-        <v>8</v>
-      </c>
-      <c r="AV120">
-        <v>3</v>
-      </c>
-      <c r="AW120">
-        <v>8</v>
-      </c>
-      <c r="AX120">
-        <v>3</v>
-      </c>
-      <c r="AY120">
-        <v>22</v>
-      </c>
-      <c r="AZ120">
-        <v>9</v>
-      </c>
-      <c r="BA120">
-        <v>10</v>
-      </c>
-      <c r="BB120">
-        <v>1</v>
-      </c>
-      <c r="BC120">
-        <v>11</v>
-      </c>
-      <c r="BD120">
-        <v>1.07</v>
-      </c>
-      <c r="BE120">
-        <v>12</v>
-      </c>
-      <c r="BF120">
-        <v>8.5</v>
-      </c>
-      <c r="BG120">
-        <v>1.27</v>
-      </c>
-      <c r="BH120">
-        <v>3.3</v>
-      </c>
-      <c r="BI120">
-        <v>1.47</v>
-      </c>
-      <c r="BJ120">
-        <v>2.43</v>
-      </c>
-      <c r="BK120">
-        <v>1.75</v>
-      </c>
-      <c r="BL120">
-        <v>1.91</v>
-      </c>
-      <c r="BM120">
-        <v>2.18</v>
-      </c>
-      <c r="BN120">
-        <v>1.58</v>
-      </c>
-      <c r="BO120">
-        <v>2.8</v>
-      </c>
-      <c r="BP120">
-        <v>1.36</v>
+      <c r="BH123">
+        <v>3.15</v>
+      </c>
+      <c r="BI123">
+        <v>1.5</v>
+      </c>
+      <c r="BJ123">
+        <v>2.33</v>
+      </c>
+      <c r="BK123">
+        <v>1.82</v>
+      </c>
+      <c r="BL123">
+        <v>1.84</v>
+      </c>
+      <c r="BM123">
+        <v>2.28</v>
+      </c>
+      <c r="BN123">
+        <v>1.52</v>
+      </c>
+      <c r="BO123">
+        <v>2.95</v>
+      </c>
+      <c r="BP123">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,10 +514,19 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['67']</t>
   </si>
   <si>
-    <t>['90+4']</t>
+    <t>['62', '77', '90+4']</t>
+  </si>
+  <si>
+    <t>['12', '90+3']</t>
+  </si>
+  <si>
+    <t>['6', '38']</t>
   </si>
   <si>
     <t>['35']</t>
@@ -695,6 +704,12 @@
   </si>
   <si>
     <t>['56', '63']</t>
+  </si>
+  <si>
+    <t>['45+3', '56', '70']</t>
+  </si>
+  <si>
+    <t>['51', '58']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1521,7 +1536,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1727,7 +1742,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -2139,7 +2154,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2551,7 +2566,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -2835,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3044,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3169,7 +3184,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3375,7 +3390,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3659,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ13">
         <v>0.43</v>
@@ -3787,7 +3802,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4199,7 +4214,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4611,7 +4626,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4817,7 +4832,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4898,7 +4913,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5023,7 +5038,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5229,7 +5244,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5928,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR24">
         <v>2.62</v>
@@ -6546,7 +6561,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ27">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>1.62</v>
@@ -6749,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>0.75</v>
@@ -6877,7 +6892,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7083,7 +7098,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7289,7 +7304,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8191,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ35">
         <v>0.57</v>
@@ -8319,7 +8334,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8400,7 +8415,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>1.59</v>
@@ -8731,7 +8746,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8937,7 +8952,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9349,7 +9364,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9555,7 +9570,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9761,7 +9776,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10173,7 +10188,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10251,10 +10266,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR45">
         <v>1.78</v>
@@ -10379,7 +10394,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10585,7 +10600,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10791,7 +10806,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -10869,7 +10884,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -11078,7 +11093,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ49">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR49">
         <v>1.09</v>
@@ -11203,7 +11218,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11490,7 +11505,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>1.08</v>
@@ -11615,7 +11630,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11821,7 +11836,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12233,7 +12248,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12439,7 +12454,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12645,7 +12660,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12851,7 +12866,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12932,7 +12947,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR58">
         <v>1.27</v>
@@ -13057,7 +13072,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13753,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>0.43</v>
@@ -14293,7 +14308,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14371,10 +14386,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ65">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14580,7 +14595,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ66">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -14911,7 +14926,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15529,7 +15544,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15735,7 +15750,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16147,7 +16162,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16353,7 +16368,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16559,7 +16574,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16765,7 +16780,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17049,7 +17064,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>0.43</v>
@@ -17383,7 +17398,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17464,7 +17479,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR80">
         <v>1.2</v>
@@ -17589,7 +17604,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17795,7 +17810,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17876,7 +17891,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ82">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR82">
         <v>2.06</v>
@@ -18001,7 +18016,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18079,7 +18094,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ83">
         <v>1.14</v>
@@ -18207,7 +18222,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18413,7 +18428,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18619,7 +18634,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18700,7 +18715,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR86">
         <v>1.12</v>
@@ -19031,7 +19046,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19649,7 +19664,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19855,7 +19870,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20473,7 +20488,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -20966,7 +20981,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ97">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR97">
         <v>1.23</v>
@@ -21091,7 +21106,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21169,7 +21184,7 @@
         <v>3</v>
       </c>
       <c r="AP98">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>2.57</v>
@@ -21584,7 +21599,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ100">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR100">
         <v>1.15</v>
@@ -21709,7 +21724,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -21787,7 +21802,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -22121,7 +22136,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22327,7 +22342,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22408,7 +22423,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR104">
         <v>1</v>
@@ -22533,7 +22548,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22739,7 +22754,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23563,7 +23578,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23641,7 +23656,7 @@
         <v>0.4</v>
       </c>
       <c r="AP110">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
         <v>0.5</v>
@@ -23769,7 +23784,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24056,7 +24071,7 @@
         <v>3</v>
       </c>
       <c r="AQ112">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR112">
         <v>2.24</v>
@@ -24387,7 +24402,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q114">
         <v>6.5</v>
@@ -24593,7 +24608,7 @@
         <v>131</v>
       </c>
       <c r="P115" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q115">
         <v>3.25</v>
@@ -25005,7 +25020,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25211,7 +25226,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q118">
         <v>1.36</v>
@@ -25307,7 +25322,7 @@
         <v>8</v>
       </c>
       <c r="AV118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW118">
         <v>8</v>
@@ -25319,7 +25334,7 @@
         <v>22</v>
       </c>
       <c r="AZ118">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA118">
         <v>10</v>
@@ -25623,7 +25638,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q120">
         <v>3.5</v>
@@ -25728,7 +25743,7 @@
         <v>3</v>
       </c>
       <c r="AY120">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ120">
         <v>8</v>
@@ -25787,7 +25802,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7574686</v>
+        <v>7574685</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25799,193 +25814,193 @@
         <v>45640.875</v>
       </c>
       <c r="F121">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H121" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O121" t="s">
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="Q121">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="S121">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="T121">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="U121">
-        <v>2.38</v>
+        <v>3.55</v>
       </c>
       <c r="V121">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="W121">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="X121">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="Y121">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="Z121">
-        <v>3.1</v>
+        <v>13</v>
       </c>
       <c r="AA121">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="AB121">
-        <v>2.26</v>
+        <v>1.15</v>
       </c>
       <c r="AC121">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AD121">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AE121">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AF121">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="AG121">
-        <v>2.22</v>
+        <v>1.47</v>
       </c>
       <c r="AH121">
+        <v>2.57</v>
+      </c>
+      <c r="AI121">
+        <v>2.2</v>
+      </c>
+      <c r="AJ121">
+        <v>1.6</v>
+      </c>
+      <c r="AK121">
+        <v>5</v>
+      </c>
+      <c r="AL121">
+        <v>1.08</v>
+      </c>
+      <c r="AM121">
+        <v>1.02</v>
+      </c>
+      <c r="AN121">
+        <v>1.14</v>
+      </c>
+      <c r="AO121">
+        <v>2</v>
+      </c>
+      <c r="AP121">
+        <v>1.13</v>
+      </c>
+      <c r="AQ121">
+        <v>1.83</v>
+      </c>
+      <c r="AR121">
+        <v>1.11</v>
+      </c>
+      <c r="AS121">
+        <v>1.73</v>
+      </c>
+      <c r="AT121">
+        <v>2.84</v>
+      </c>
+      <c r="AU121">
+        <v>8</v>
+      </c>
+      <c r="AV121">
+        <v>5</v>
+      </c>
+      <c r="AW121">
+        <v>9</v>
+      </c>
+      <c r="AX121">
+        <v>6</v>
+      </c>
+      <c r="AY121">
+        <v>19</v>
+      </c>
+      <c r="AZ121">
+        <v>14</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>3</v>
+      </c>
+      <c r="BC121">
+        <v>3</v>
+      </c>
+      <c r="BD121">
+        <v>4.4</v>
+      </c>
+      <c r="BE121">
+        <v>8.5</v>
+      </c>
+      <c r="BF121">
+        <v>1.23</v>
+      </c>
+      <c r="BG121">
+        <v>1.27</v>
+      </c>
+      <c r="BH121">
+        <v>3.25</v>
+      </c>
+      <c r="BI121">
+        <v>1.48</v>
+      </c>
+      <c r="BJ121">
+        <v>2.4</v>
+      </c>
+      <c r="BK121">
+        <v>1.76</v>
+      </c>
+      <c r="BL121">
+        <v>1.9</v>
+      </c>
+      <c r="BM121">
+        <v>2.18</v>
+      </c>
+      <c r="BN121">
         <v>1.58</v>
       </c>
-      <c r="AI121">
-        <v>2</v>
-      </c>
-      <c r="AJ121">
-        <v>1.75</v>
-      </c>
-      <c r="AK121">
-        <v>1.59</v>
-      </c>
-      <c r="AL121">
+      <c r="BO121">
+        <v>2.8</v>
+      </c>
+      <c r="BP121">
         <v>1.36</v>
-      </c>
-      <c r="AM121">
-        <v>1.36</v>
-      </c>
-      <c r="AN121">
-        <v>0.67</v>
-      </c>
-      <c r="AO121">
-        <v>1.5</v>
-      </c>
-      <c r="AP121">
-        <v>1</v>
-      </c>
-      <c r="AQ121">
-        <v>1.29</v>
-      </c>
-      <c r="AR121">
-        <v>1.05</v>
-      </c>
-      <c r="AS121">
-        <v>1.18</v>
-      </c>
-      <c r="AT121">
-        <v>2.23</v>
-      </c>
-      <c r="AU121">
-        <v>4</v>
-      </c>
-      <c r="AV121">
-        <v>2</v>
-      </c>
-      <c r="AW121">
-        <v>7</v>
-      </c>
-      <c r="AX121">
-        <v>2</v>
-      </c>
-      <c r="AY121">
-        <v>13</v>
-      </c>
-      <c r="AZ121">
-        <v>6</v>
-      </c>
-      <c r="BA121">
-        <v>7</v>
-      </c>
-      <c r="BB121">
-        <v>2</v>
-      </c>
-      <c r="BC121">
-        <v>9</v>
-      </c>
-      <c r="BD121">
-        <v>1.98</v>
-      </c>
-      <c r="BE121">
-        <v>6.4</v>
-      </c>
-      <c r="BF121">
-        <v>2</v>
-      </c>
-      <c r="BG121">
-        <v>1.34</v>
-      </c>
-      <c r="BH121">
-        <v>2.88</v>
-      </c>
-      <c r="BI121">
-        <v>1.6</v>
-      </c>
-      <c r="BJ121">
-        <v>2.15</v>
-      </c>
-      <c r="BK121">
-        <v>1.96</v>
-      </c>
-      <c r="BL121">
-        <v>1.72</v>
-      </c>
-      <c r="BM121">
-        <v>2.5</v>
-      </c>
-      <c r="BN121">
-        <v>1.44</v>
-      </c>
-      <c r="BO121">
-        <v>3.3</v>
-      </c>
-      <c r="BP121">
-        <v>1.27</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -25993,7 +26008,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7574685</v>
+        <v>7574686</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26002,196 +26017,196 @@
         <v>69</v>
       </c>
       <c r="E122" s="2">
-        <v>45641.625</v>
+        <v>45640.875</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H122" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O122" t="s">
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="Q122">
+        <v>4</v>
+      </c>
+      <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>3.2</v>
+      </c>
+      <c r="T122">
+        <v>1.53</v>
+      </c>
+      <c r="U122">
+        <v>2.38</v>
+      </c>
+      <c r="V122">
+        <v>3.5</v>
+      </c>
+      <c r="W122">
+        <v>1.29</v>
+      </c>
+      <c r="X122">
         <v>11</v>
       </c>
-      <c r="R122">
-        <v>2.75</v>
-      </c>
-      <c r="S122">
+      <c r="Y122">
+        <v>1.05</v>
+      </c>
+      <c r="Z122">
+        <v>3.1</v>
+      </c>
+      <c r="AA122">
+        <v>3</v>
+      </c>
+      <c r="AB122">
+        <v>2.26</v>
+      </c>
+      <c r="AC122">
+        <v>1.09</v>
+      </c>
+      <c r="AD122">
+        <v>7</v>
+      </c>
+      <c r="AE122">
+        <v>1.45</v>
+      </c>
+      <c r="AF122">
+        <v>2.7</v>
+      </c>
+      <c r="AG122">
+        <v>2.22</v>
+      </c>
+      <c r="AH122">
+        <v>1.58</v>
+      </c>
+      <c r="AI122">
+        <v>2</v>
+      </c>
+      <c r="AJ122">
+        <v>1.75</v>
+      </c>
+      <c r="AK122">
+        <v>1.59</v>
+      </c>
+      <c r="AL122">
+        <v>1.36</v>
+      </c>
+      <c r="AM122">
+        <v>1.36</v>
+      </c>
+      <c r="AN122">
+        <v>0.67</v>
+      </c>
+      <c r="AO122">
         <v>1.5</v>
       </c>
-      <c r="T122">
-        <v>1.25</v>
-      </c>
-      <c r="U122">
-        <v>3.55</v>
-      </c>
-      <c r="V122">
+      <c r="AP122">
+        <v>1</v>
+      </c>
+      <c r="AQ122">
+        <v>1.29</v>
+      </c>
+      <c r="AR122">
+        <v>1.05</v>
+      </c>
+      <c r="AS122">
+        <v>1.18</v>
+      </c>
+      <c r="AT122">
+        <v>2.23</v>
+      </c>
+      <c r="AU122">
+        <v>4</v>
+      </c>
+      <c r="AV122">
+        <v>2</v>
+      </c>
+      <c r="AW122">
+        <v>7</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>13</v>
+      </c>
+      <c r="AZ122">
+        <v>6</v>
+      </c>
+      <c r="BA122">
+        <v>7</v>
+      </c>
+      <c r="BB122">
+        <v>2</v>
+      </c>
+      <c r="BC122">
+        <v>9</v>
+      </c>
+      <c r="BD122">
+        <v>1.98</v>
+      </c>
+      <c r="BE122">
+        <v>6.4</v>
+      </c>
+      <c r="BF122">
+        <v>2</v>
+      </c>
+      <c r="BG122">
+        <v>1.34</v>
+      </c>
+      <c r="BH122">
+        <v>2.88</v>
+      </c>
+      <c r="BI122">
+        <v>1.6</v>
+      </c>
+      <c r="BJ122">
         <v>2.15</v>
       </c>
-      <c r="W122">
-        <v>1.62</v>
-      </c>
-      <c r="X122">
-        <v>4.5</v>
-      </c>
-      <c r="Y122">
-        <v>1.17</v>
-      </c>
-      <c r="Z122">
-        <v>13</v>
-      </c>
-      <c r="AA122">
-        <v>7.3</v>
-      </c>
-      <c r="AB122">
-        <v>1.15</v>
-      </c>
-      <c r="AC122">
-        <v>1.01</v>
-      </c>
-      <c r="AD122">
-        <v>17</v>
-      </c>
-      <c r="AE122">
-        <v>1.15</v>
-      </c>
-      <c r="AF122">
-        <v>5.25</v>
-      </c>
-      <c r="AG122">
-        <v>1.47</v>
-      </c>
-      <c r="AH122">
-        <v>2.57</v>
-      </c>
-      <c r="AI122">
-        <v>2.2</v>
-      </c>
-      <c r="AJ122">
-        <v>1.6</v>
-      </c>
-      <c r="AK122">
-        <v>5</v>
-      </c>
-      <c r="AL122">
-        <v>1.08</v>
-      </c>
-      <c r="AM122">
-        <v>1.02</v>
-      </c>
-      <c r="AN122">
-        <v>1.14</v>
-      </c>
-      <c r="AO122">
-        <v>2</v>
-      </c>
-      <c r="AP122">
-        <v>1.13</v>
-      </c>
-      <c r="AQ122">
-        <v>1.83</v>
-      </c>
-      <c r="AR122">
-        <v>1.11</v>
-      </c>
-      <c r="AS122">
-        <v>1.73</v>
-      </c>
-      <c r="AT122">
-        <v>2.84</v>
-      </c>
-      <c r="AU122">
-        <v>8</v>
-      </c>
-      <c r="AV122">
-        <v>5</v>
-      </c>
-      <c r="AW122">
-        <v>9</v>
-      </c>
-      <c r="AX122">
-        <v>6</v>
-      </c>
-      <c r="AY122">
-        <v>19</v>
-      </c>
-      <c r="AZ122">
-        <v>14</v>
-      </c>
-      <c r="BA122">
-        <v>0</v>
-      </c>
-      <c r="BB122">
-        <v>3</v>
-      </c>
-      <c r="BC122">
-        <v>3</v>
-      </c>
-      <c r="BD122">
-        <v>4.4</v>
-      </c>
-      <c r="BE122">
-        <v>8.5</v>
-      </c>
-      <c r="BF122">
-        <v>1.23</v>
-      </c>
-      <c r="BG122">
+      <c r="BK122">
+        <v>1.96</v>
+      </c>
+      <c r="BL122">
+        <v>1.72</v>
+      </c>
+      <c r="BM122">
+        <v>2.5</v>
+      </c>
+      <c r="BN122">
+        <v>1.44</v>
+      </c>
+      <c r="BO122">
+        <v>3.3</v>
+      </c>
+      <c r="BP122">
         <v>1.27</v>
-      </c>
-      <c r="BH122">
-        <v>3.25</v>
-      </c>
-      <c r="BI122">
-        <v>1.48</v>
-      </c>
-      <c r="BJ122">
-        <v>2.4</v>
-      </c>
-      <c r="BK122">
-        <v>1.76</v>
-      </c>
-      <c r="BL122">
-        <v>1.9</v>
-      </c>
-      <c r="BM122">
-        <v>2.18</v>
-      </c>
-      <c r="BN122">
-        <v>1.58</v>
-      </c>
-      <c r="BO122">
-        <v>2.8</v>
-      </c>
-      <c r="BP122">
-        <v>1.36</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -26241,7 +26256,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26398,6 +26413,624 @@
       </c>
       <c r="BP123">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7574687</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45642.65625</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>77</v>
+      </c>
+      <c r="H124" t="s">
+        <v>75</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>6</v>
+      </c>
+      <c r="O124" t="s">
+        <v>168</v>
+      </c>
+      <c r="P124" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q124">
+        <v>2.05</v>
+      </c>
+      <c r="R124">
+        <v>2.3</v>
+      </c>
+      <c r="S124">
+        <v>6.5</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>7</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>1.54</v>
+      </c>
+      <c r="AA124">
+        <v>4.14</v>
+      </c>
+      <c r="AB124">
+        <v>5.88</v>
+      </c>
+      <c r="AC124">
+        <v>1.04</v>
+      </c>
+      <c r="AD124">
+        <v>12</v>
+      </c>
+      <c r="AE124">
+        <v>1.28</v>
+      </c>
+      <c r="AF124">
+        <v>3.6</v>
+      </c>
+      <c r="AG124">
+        <v>1.89</v>
+      </c>
+      <c r="AH124">
+        <v>1.81</v>
+      </c>
+      <c r="AI124">
+        <v>2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.75</v>
+      </c>
+      <c r="AK124">
+        <v>1.1</v>
+      </c>
+      <c r="AL124">
+        <v>1.17</v>
+      </c>
+      <c r="AM124">
+        <v>2.7</v>
+      </c>
+      <c r="AN124">
+        <v>1.57</v>
+      </c>
+      <c r="AO124">
+        <v>1.33</v>
+      </c>
+      <c r="AP124">
+        <v>1.5</v>
+      </c>
+      <c r="AQ124">
+        <v>1.29</v>
+      </c>
+      <c r="AR124">
+        <v>1.55</v>
+      </c>
+      <c r="AS124">
+        <v>1.11</v>
+      </c>
+      <c r="AT124">
+        <v>2.66</v>
+      </c>
+      <c r="AU124">
+        <v>9</v>
+      </c>
+      <c r="AV124">
+        <v>9</v>
+      </c>
+      <c r="AW124">
+        <v>8</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <v>23</v>
+      </c>
+      <c r="AZ124">
+        <v>11</v>
+      </c>
+      <c r="BA124">
+        <v>10</v>
+      </c>
+      <c r="BB124">
+        <v>3</v>
+      </c>
+      <c r="BC124">
+        <v>13</v>
+      </c>
+      <c r="BD124">
+        <v>1.3</v>
+      </c>
+      <c r="BE124">
+        <v>7.5</v>
+      </c>
+      <c r="BF124">
+        <v>3.8</v>
+      </c>
+      <c r="BG124">
+        <v>1.23</v>
+      </c>
+      <c r="BH124">
+        <v>3.55</v>
+      </c>
+      <c r="BI124">
+        <v>1.4</v>
+      </c>
+      <c r="BJ124">
+        <v>2.65</v>
+      </c>
+      <c r="BK124">
+        <v>1.66</v>
+      </c>
+      <c r="BL124">
+        <v>2.04</v>
+      </c>
+      <c r="BM124">
+        <v>2.04</v>
+      </c>
+      <c r="BN124">
+        <v>1.66</v>
+      </c>
+      <c r="BO124">
+        <v>2.5</v>
+      </c>
+      <c r="BP124">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7574682</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45642.71875</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125" t="s">
+        <v>87</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>169</v>
+      </c>
+      <c r="P125" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q125">
+        <v>1.5</v>
+      </c>
+      <c r="R125">
+        <v>2.88</v>
+      </c>
+      <c r="S125">
+        <v>13</v>
+      </c>
+      <c r="T125">
+        <v>1.25</v>
+      </c>
+      <c r="U125">
+        <v>3.75</v>
+      </c>
+      <c r="V125">
+        <v>2.2</v>
+      </c>
+      <c r="W125">
+        <v>1.62</v>
+      </c>
+      <c r="X125">
+        <v>5</v>
+      </c>
+      <c r="Y125">
+        <v>1.17</v>
+      </c>
+      <c r="Z125">
+        <v>1.14</v>
+      </c>
+      <c r="AA125">
+        <v>7.4</v>
+      </c>
+      <c r="AB125">
+        <v>15</v>
+      </c>
+      <c r="AC125">
+        <v>1.02</v>
+      </c>
+      <c r="AD125">
+        <v>15</v>
+      </c>
+      <c r="AE125">
+        <v>1.14</v>
+      </c>
+      <c r="AF125">
+        <v>5.5</v>
+      </c>
+      <c r="AG125">
+        <v>1.5</v>
+      </c>
+      <c r="AH125">
+        <v>2.4</v>
+      </c>
+      <c r="AI125">
+        <v>2.5</v>
+      </c>
+      <c r="AJ125">
+        <v>1.5</v>
+      </c>
+      <c r="AK125">
+        <v>1.02</v>
+      </c>
+      <c r="AL125">
+        <v>1.07</v>
+      </c>
+      <c r="AM125">
+        <v>5.5</v>
+      </c>
+      <c r="AN125">
+        <v>3</v>
+      </c>
+      <c r="AO125">
+        <v>0.17</v>
+      </c>
+      <c r="AP125">
+        <v>3</v>
+      </c>
+      <c r="AQ125">
+        <v>0.14</v>
+      </c>
+      <c r="AR125">
+        <v>2.03</v>
+      </c>
+      <c r="AS125">
+        <v>1.04</v>
+      </c>
+      <c r="AT125">
+        <v>3.07</v>
+      </c>
+      <c r="AU125">
+        <v>5</v>
+      </c>
+      <c r="AV125">
+        <v>0</v>
+      </c>
+      <c r="AW125">
+        <v>5</v>
+      </c>
+      <c r="AX125">
+        <v>2</v>
+      </c>
+      <c r="AY125">
+        <v>13</v>
+      </c>
+      <c r="AZ125">
+        <v>6</v>
+      </c>
+      <c r="BA125">
+        <v>11</v>
+      </c>
+      <c r="BB125">
+        <v>4</v>
+      </c>
+      <c r="BC125">
+        <v>15</v>
+      </c>
+      <c r="BD125">
+        <v>1.12</v>
+      </c>
+      <c r="BE125">
+        <v>10.5</v>
+      </c>
+      <c r="BF125">
+        <v>6.25</v>
+      </c>
+      <c r="BG125">
+        <v>1.2</v>
+      </c>
+      <c r="BH125">
+        <v>3.8</v>
+      </c>
+      <c r="BI125">
+        <v>1.36</v>
+      </c>
+      <c r="BJ125">
+        <v>2.8</v>
+      </c>
+      <c r="BK125">
+        <v>1.6</v>
+      </c>
+      <c r="BL125">
+        <v>2.14</v>
+      </c>
+      <c r="BM125">
+        <v>1.94</v>
+      </c>
+      <c r="BN125">
+        <v>1.74</v>
+      </c>
+      <c r="BO125">
+        <v>2.4</v>
+      </c>
+      <c r="BP125">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7574684</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45642.73958333334</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>81</v>
+      </c>
+      <c r="H126" t="s">
+        <v>85</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>170</v>
+      </c>
+      <c r="P126" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q126">
+        <v>4.33</v>
+      </c>
+      <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
+        <v>2.75</v>
+      </c>
+      <c r="T126">
+        <v>1.5</v>
+      </c>
+      <c r="U126">
+        <v>2.5</v>
+      </c>
+      <c r="V126">
+        <v>3.4</v>
+      </c>
+      <c r="W126">
+        <v>1.3</v>
+      </c>
+      <c r="X126">
+        <v>10</v>
+      </c>
+      <c r="Y126">
+        <v>1.06</v>
+      </c>
+      <c r="Z126">
+        <v>3.65</v>
+      </c>
+      <c r="AA126">
+        <v>3.25</v>
+      </c>
+      <c r="AB126">
+        <v>2.01</v>
+      </c>
+      <c r="AC126">
+        <v>1.07</v>
+      </c>
+      <c r="AD126">
+        <v>8.5</v>
+      </c>
+      <c r="AE126">
+        <v>1.4</v>
+      </c>
+      <c r="AF126">
+        <v>2.95</v>
+      </c>
+      <c r="AG126">
+        <v>2.15</v>
+      </c>
+      <c r="AH126">
+        <v>1.65</v>
+      </c>
+      <c r="AI126">
+        <v>1.95</v>
+      </c>
+      <c r="AJ126">
+        <v>1.8</v>
+      </c>
+      <c r="AK126">
+        <v>1.78</v>
+      </c>
+      <c r="AL126">
+        <v>1.28</v>
+      </c>
+      <c r="AM126">
+        <v>1.28</v>
+      </c>
+      <c r="AN126">
+        <v>2</v>
+      </c>
+      <c r="AO126">
+        <v>1.14</v>
+      </c>
+      <c r="AP126">
+        <v>1.86</v>
+      </c>
+      <c r="AQ126">
+        <v>1.13</v>
+      </c>
+      <c r="AR126">
+        <v>1.4</v>
+      </c>
+      <c r="AS126">
+        <v>1.26</v>
+      </c>
+      <c r="AT126">
+        <v>2.66</v>
+      </c>
+      <c r="AU126">
+        <v>5</v>
+      </c>
+      <c r="AV126">
+        <v>6</v>
+      </c>
+      <c r="AW126">
+        <v>1</v>
+      </c>
+      <c r="AX126">
+        <v>8</v>
+      </c>
+      <c r="AY126">
+        <v>6</v>
+      </c>
+      <c r="AZ126">
+        <v>17</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>2</v>
+      </c>
+      <c r="BC126">
+        <v>2</v>
+      </c>
+      <c r="BD126">
+        <v>2.48</v>
+      </c>
+      <c r="BE126">
+        <v>7</v>
+      </c>
+      <c r="BF126">
+        <v>1.64</v>
+      </c>
+      <c r="BG126">
+        <v>1.18</v>
+      </c>
+      <c r="BH126">
+        <v>4</v>
+      </c>
+      <c r="BI126">
+        <v>1.34</v>
+      </c>
+      <c r="BJ126">
+        <v>2.9</v>
+      </c>
+      <c r="BK126">
+        <v>1.56</v>
+      </c>
+      <c r="BL126">
+        <v>2.23</v>
+      </c>
+      <c r="BM126">
+        <v>1.87</v>
+      </c>
+      <c r="BN126">
+        <v>1.79</v>
+      </c>
+      <c r="BO126">
+        <v>2.32</v>
+      </c>
+      <c r="BP126">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -508,22 +508,22 @@
     <t>['58', '68']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
     <t>['23', '49', '66']</t>
   </si>
   <si>
-    <t>['55']</t>
+    <t>['67']</t>
   </si>
   <si>
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['67']</t>
+    <t>['12', '90+3']</t>
   </si>
   <si>
     <t>['62', '77', '90+4']</t>
-  </si>
-  <si>
-    <t>['12', '90+3']</t>
   </si>
   <si>
     <t>['6', '38']</t>
@@ -697,10 +697,10 @@
     <t>['4']</t>
   </si>
   <si>
-    <t>['43', '58']</t>
+    <t>['47']</t>
   </si>
   <si>
-    <t>['47']</t>
+    <t>['43', '58']</t>
   </si>
   <si>
     <t>['56', '63']</t>
@@ -25184,7 +25184,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7574680</v>
+        <v>7574688</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25193,196 +25193,196 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45639.875</v>
+        <v>45640.52083333334</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H118" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O118" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="P118" t="s">
         <v>227</v>
       </c>
       <c r="Q118">
-        <v>1.36</v>
+        <v>3.5</v>
       </c>
       <c r="R118">
-        <v>3.25</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="T118">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="U118">
-        <v>4.5</v>
+        <v>2.35</v>
       </c>
       <c r="V118">
+        <v>3.4</v>
+      </c>
+      <c r="W118">
+        <v>1.28</v>
+      </c>
+      <c r="X118">
+        <v>8</v>
+      </c>
+      <c r="Y118">
+        <v>1.05</v>
+      </c>
+      <c r="Z118">
+        <v>2.82</v>
+      </c>
+      <c r="AA118">
+        <v>2.95</v>
+      </c>
+      <c r="AB118">
+        <v>2.59</v>
+      </c>
+      <c r="AC118">
+        <v>1.1</v>
+      </c>
+      <c r="AD118">
+        <v>6.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.48</v>
+      </c>
+      <c r="AF118">
+        <v>2.65</v>
+      </c>
+      <c r="AG118">
+        <v>2.22</v>
+      </c>
+      <c r="AH118">
+        <v>1.66</v>
+      </c>
+      <c r="AI118">
+        <v>1.95</v>
+      </c>
+      <c r="AJ118">
         <v>1.77</v>
       </c>
-      <c r="W118">
-        <v>1.93</v>
-      </c>
-      <c r="X118">
-        <v>3.4</v>
-      </c>
-      <c r="Y118">
-        <v>1.28</v>
-      </c>
-      <c r="Z118">
-        <v>1.07</v>
-      </c>
-      <c r="AA118">
-        <v>11</v>
-      </c>
-      <c r="AB118">
-        <v>18</v>
-      </c>
-      <c r="AC118">
-        <v>1.01</v>
-      </c>
-      <c r="AD118">
-        <v>14</v>
-      </c>
-      <c r="AE118">
-        <v>1.08</v>
-      </c>
-      <c r="AF118">
-        <v>7.5</v>
-      </c>
-      <c r="AG118">
-        <v>1.28</v>
-      </c>
-      <c r="AH118">
-        <v>3.3</v>
-      </c>
-      <c r="AI118">
+      <c r="AK118">
+        <v>1.48</v>
+      </c>
+      <c r="AL118">
+        <v>1.33</v>
+      </c>
+      <c r="AM118">
+        <v>1.4</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
+        <v>0.29</v>
+      </c>
+      <c r="AP118">
+        <v>0.86</v>
+      </c>
+      <c r="AQ118">
+        <v>0.63</v>
+      </c>
+      <c r="AR118">
+        <v>1.14</v>
+      </c>
+      <c r="AS118">
+        <v>0.9</v>
+      </c>
+      <c r="AT118">
+        <v>2.04</v>
+      </c>
+      <c r="AU118">
+        <v>3</v>
+      </c>
+      <c r="AV118">
+        <v>3</v>
+      </c>
+      <c r="AW118">
+        <v>9</v>
+      </c>
+      <c r="AX118">
+        <v>3</v>
+      </c>
+      <c r="AY118">
+        <v>17</v>
+      </c>
+      <c r="AZ118">
+        <v>8</v>
+      </c>
+      <c r="BA118">
+        <v>7</v>
+      </c>
+      <c r="BB118">
+        <v>1</v>
+      </c>
+      <c r="BC118">
+        <v>8</v>
+      </c>
+      <c r="BD118">
         <v>2.15</v>
       </c>
-      <c r="AJ118">
-        <v>1.62</v>
-      </c>
-      <c r="AK118">
-        <v>1.01</v>
-      </c>
-      <c r="AL118">
-        <v>1.04</v>
-      </c>
-      <c r="AM118">
-        <v>7.5</v>
-      </c>
-      <c r="AN118">
-        <v>2.5</v>
-      </c>
-      <c r="AO118">
-        <v>1.29</v>
-      </c>
-      <c r="AP118">
-        <v>2.57</v>
-      </c>
-      <c r="AQ118">
-        <v>1.13</v>
-      </c>
-      <c r="AR118">
-        <v>2.02</v>
-      </c>
-      <c r="AS118">
-        <v>0.98</v>
-      </c>
-      <c r="AT118">
-        <v>3</v>
-      </c>
-      <c r="AU118">
-        <v>8</v>
-      </c>
-      <c r="AV118">
-        <v>4</v>
-      </c>
-      <c r="AW118">
-        <v>8</v>
-      </c>
-      <c r="AX118">
-        <v>3</v>
-      </c>
-      <c r="AY118">
-        <v>22</v>
-      </c>
-      <c r="AZ118">
-        <v>10</v>
-      </c>
-      <c r="BA118">
-        <v>10</v>
-      </c>
-      <c r="BB118">
-        <v>1</v>
-      </c>
-      <c r="BC118">
-        <v>11</v>
-      </c>
-      <c r="BD118">
-        <v>1.07</v>
-      </c>
       <c r="BE118">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="BF118">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="BG118">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="BH118">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="BI118">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="BJ118">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="BK118">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="BL118">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="BM118">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="BN118">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="BO118">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="BP118">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="119" spans="1:68">
@@ -25399,10 +25399,10 @@
         <v>69</v>
       </c>
       <c r="E119" s="2">
-        <v>45639.875</v>
+        <v>45640.625</v>
       </c>
       <c r="F119">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
         <v>82</v>
@@ -25429,7 +25429,7 @@
         <v>1</v>
       </c>
       <c r="O119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P119" t="s">
         <v>90</v>
@@ -25528,19 +25528,19 @@
         <v>6</v>
       </c>
       <c r="AV119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY119">
         <v>13</v>
       </c>
       <c r="AZ119">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA119">
         <v>10</v>
@@ -25596,7 +25596,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7574688</v>
+        <v>7574680</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25605,196 +25605,196 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45640.52083333334</v>
+        <v>45640.72916666666</v>
       </c>
       <c r="F120">
         <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H120" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O120" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="P120" t="s">
         <v>228</v>
       </c>
       <c r="Q120">
-        <v>3.5</v>
+        <v>1.36</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>3.25</v>
       </c>
       <c r="S120">
+        <v>13</v>
+      </c>
+      <c r="T120">
+        <v>1.17</v>
+      </c>
+      <c r="U120">
+        <v>4.5</v>
+      </c>
+      <c r="V120">
+        <v>1.77</v>
+      </c>
+      <c r="W120">
+        <v>1.93</v>
+      </c>
+      <c r="X120">
+        <v>3.4</v>
+      </c>
+      <c r="Y120">
+        <v>1.28</v>
+      </c>
+      <c r="Z120">
+        <v>1.07</v>
+      </c>
+      <c r="AA120">
+        <v>11</v>
+      </c>
+      <c r="AB120">
+        <v>18</v>
+      </c>
+      <c r="AC120">
+        <v>1.01</v>
+      </c>
+      <c r="AD120">
+        <v>14</v>
+      </c>
+      <c r="AE120">
+        <v>1.08</v>
+      </c>
+      <c r="AF120">
+        <v>7.5</v>
+      </c>
+      <c r="AG120">
+        <v>1.28</v>
+      </c>
+      <c r="AH120">
         <v>3.3</v>
       </c>
-      <c r="T120">
-        <v>1.53</v>
-      </c>
-      <c r="U120">
-        <v>2.35</v>
-      </c>
-      <c r="V120">
-        <v>3.4</v>
-      </c>
-      <c r="W120">
-        <v>1.28</v>
-      </c>
-      <c r="X120">
+      <c r="AI120">
+        <v>2.15</v>
+      </c>
+      <c r="AJ120">
+        <v>1.62</v>
+      </c>
+      <c r="AK120">
+        <v>1.01</v>
+      </c>
+      <c r="AL120">
+        <v>1.04</v>
+      </c>
+      <c r="AM120">
+        <v>7.5</v>
+      </c>
+      <c r="AN120">
+        <v>2.5</v>
+      </c>
+      <c r="AO120">
+        <v>1.29</v>
+      </c>
+      <c r="AP120">
+        <v>2.57</v>
+      </c>
+      <c r="AQ120">
+        <v>1.13</v>
+      </c>
+      <c r="AR120">
+        <v>2.02</v>
+      </c>
+      <c r="AS120">
+        <v>0.98</v>
+      </c>
+      <c r="AT120">
+        <v>3</v>
+      </c>
+      <c r="AU120">
         <v>8</v>
       </c>
-      <c r="Y120">
-        <v>1.05</v>
-      </c>
-      <c r="Z120">
-        <v>2.82</v>
-      </c>
-      <c r="AA120">
-        <v>2.95</v>
-      </c>
-      <c r="AB120">
-        <v>2.59</v>
-      </c>
-      <c r="AC120">
-        <v>1.1</v>
-      </c>
-      <c r="AD120">
-        <v>6.5</v>
-      </c>
-      <c r="AE120">
-        <v>1.48</v>
-      </c>
-      <c r="AF120">
-        <v>2.65</v>
-      </c>
-      <c r="AG120">
-        <v>2.22</v>
-      </c>
-      <c r="AH120">
-        <v>1.66</v>
-      </c>
-      <c r="AI120">
-        <v>1.95</v>
-      </c>
-      <c r="AJ120">
-        <v>1.77</v>
-      </c>
-      <c r="AK120">
-        <v>1.48</v>
-      </c>
-      <c r="AL120">
-        <v>1.33</v>
-      </c>
-      <c r="AM120">
-        <v>1.4</v>
-      </c>
-      <c r="AN120">
-        <v>1</v>
-      </c>
-      <c r="AO120">
-        <v>0.29</v>
-      </c>
-      <c r="AP120">
-        <v>0.86</v>
-      </c>
-      <c r="AQ120">
-        <v>0.63</v>
-      </c>
-      <c r="AR120">
-        <v>1.14</v>
-      </c>
-      <c r="AS120">
-        <v>0.9</v>
-      </c>
-      <c r="AT120">
-        <v>2.04</v>
-      </c>
-      <c r="AU120">
-        <v>3</v>
-      </c>
       <c r="AV120">
         <v>3</v>
       </c>
       <c r="AW120">
+        <v>15</v>
+      </c>
+      <c r="AX120">
+        <v>6</v>
+      </c>
+      <c r="AY120">
+        <v>23</v>
+      </c>
+      <c r="AZ120">
         <v>9</v>
       </c>
-      <c r="AX120">
-        <v>3</v>
-      </c>
-      <c r="AY120">
-        <v>17</v>
-      </c>
-      <c r="AZ120">
-        <v>8</v>
-      </c>
       <c r="BA120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB120">
         <v>1</v>
       </c>
       <c r="BC120">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD120">
-        <v>2.15</v>
+        <v>1.07</v>
       </c>
       <c r="BE120">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="BF120">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="BG120">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BH120">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="BI120">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="BJ120">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="BK120">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="BL120">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="BM120">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="BN120">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="BO120">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BP120">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="121" spans="1:68">
@@ -25802,7 +25802,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7574685</v>
+        <v>7574686</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25811,196 +25811,196 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45640.875</v>
+        <v>45641.52083333334</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H121" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O121" t="s">
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="Q121">
+        <v>4</v>
+      </c>
+      <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>3.2</v>
+      </c>
+      <c r="T121">
+        <v>1.53</v>
+      </c>
+      <c r="U121">
+        <v>2.38</v>
+      </c>
+      <c r="V121">
+        <v>3.5</v>
+      </c>
+      <c r="W121">
+        <v>1.29</v>
+      </c>
+      <c r="X121">
         <v>11</v>
       </c>
-      <c r="R121">
-        <v>2.75</v>
-      </c>
-      <c r="S121">
+      <c r="Y121">
+        <v>1.05</v>
+      </c>
+      <c r="Z121">
+        <v>3.1</v>
+      </c>
+      <c r="AA121">
+        <v>3</v>
+      </c>
+      <c r="AB121">
+        <v>2.26</v>
+      </c>
+      <c r="AC121">
+        <v>1.09</v>
+      </c>
+      <c r="AD121">
+        <v>7</v>
+      </c>
+      <c r="AE121">
+        <v>1.45</v>
+      </c>
+      <c r="AF121">
+        <v>2.7</v>
+      </c>
+      <c r="AG121">
+        <v>2.22</v>
+      </c>
+      <c r="AH121">
+        <v>1.58</v>
+      </c>
+      <c r="AI121">
+        <v>2</v>
+      </c>
+      <c r="AJ121">
+        <v>1.75</v>
+      </c>
+      <c r="AK121">
+        <v>1.59</v>
+      </c>
+      <c r="AL121">
+        <v>1.36</v>
+      </c>
+      <c r="AM121">
+        <v>1.36</v>
+      </c>
+      <c r="AN121">
+        <v>0.67</v>
+      </c>
+      <c r="AO121">
         <v>1.5</v>
       </c>
-      <c r="T121">
-        <v>1.25</v>
-      </c>
-      <c r="U121">
-        <v>3.55</v>
-      </c>
-      <c r="V121">
+      <c r="AP121">
+        <v>1</v>
+      </c>
+      <c r="AQ121">
+        <v>1.29</v>
+      </c>
+      <c r="AR121">
+        <v>1.05</v>
+      </c>
+      <c r="AS121">
+        <v>1.18</v>
+      </c>
+      <c r="AT121">
+        <v>2.23</v>
+      </c>
+      <c r="AU121">
+        <v>4</v>
+      </c>
+      <c r="AV121">
+        <v>2</v>
+      </c>
+      <c r="AW121">
+        <v>7</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>13</v>
+      </c>
+      <c r="AZ121">
+        <v>6</v>
+      </c>
+      <c r="BA121">
+        <v>7</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>9</v>
+      </c>
+      <c r="BD121">
+        <v>1.98</v>
+      </c>
+      <c r="BE121">
+        <v>6.4</v>
+      </c>
+      <c r="BF121">
+        <v>2</v>
+      </c>
+      <c r="BG121">
+        <v>1.34</v>
+      </c>
+      <c r="BH121">
+        <v>2.88</v>
+      </c>
+      <c r="BI121">
+        <v>1.6</v>
+      </c>
+      <c r="BJ121">
         <v>2.15</v>
       </c>
-      <c r="W121">
-        <v>1.62</v>
-      </c>
-      <c r="X121">
-        <v>4.5</v>
-      </c>
-      <c r="Y121">
-        <v>1.17</v>
-      </c>
-      <c r="Z121">
-        <v>13</v>
-      </c>
-      <c r="AA121">
-        <v>7.3</v>
-      </c>
-      <c r="AB121">
-        <v>1.15</v>
-      </c>
-      <c r="AC121">
-        <v>1.01</v>
-      </c>
-      <c r="AD121">
-        <v>17</v>
-      </c>
-      <c r="AE121">
-        <v>1.15</v>
-      </c>
-      <c r="AF121">
-        <v>5.25</v>
-      </c>
-      <c r="AG121">
-        <v>1.47</v>
-      </c>
-      <c r="AH121">
-        <v>2.57</v>
-      </c>
-      <c r="AI121">
-        <v>2.2</v>
-      </c>
-      <c r="AJ121">
-        <v>1.6</v>
-      </c>
-      <c r="AK121">
-        <v>5</v>
-      </c>
-      <c r="AL121">
-        <v>1.08</v>
-      </c>
-      <c r="AM121">
-        <v>1.02</v>
-      </c>
-      <c r="AN121">
-        <v>1.14</v>
-      </c>
-      <c r="AO121">
-        <v>2</v>
-      </c>
-      <c r="AP121">
-        <v>1.13</v>
-      </c>
-      <c r="AQ121">
-        <v>1.83</v>
-      </c>
-      <c r="AR121">
-        <v>1.11</v>
-      </c>
-      <c r="AS121">
-        <v>1.73</v>
-      </c>
-      <c r="AT121">
-        <v>2.84</v>
-      </c>
-      <c r="AU121">
-        <v>8</v>
-      </c>
-      <c r="AV121">
-        <v>5</v>
-      </c>
-      <c r="AW121">
-        <v>9</v>
-      </c>
-      <c r="AX121">
-        <v>6</v>
-      </c>
-      <c r="AY121">
-        <v>19</v>
-      </c>
-      <c r="AZ121">
-        <v>14</v>
-      </c>
-      <c r="BA121">
-        <v>0</v>
-      </c>
-      <c r="BB121">
-        <v>3</v>
-      </c>
-      <c r="BC121">
-        <v>3</v>
-      </c>
-      <c r="BD121">
-        <v>4.4</v>
-      </c>
-      <c r="BE121">
-        <v>8.5</v>
-      </c>
-      <c r="BF121">
-        <v>1.23</v>
-      </c>
-      <c r="BG121">
+      <c r="BK121">
+        <v>1.96</v>
+      </c>
+      <c r="BL121">
+        <v>1.72</v>
+      </c>
+      <c r="BM121">
+        <v>2.5</v>
+      </c>
+      <c r="BN121">
+        <v>1.44</v>
+      </c>
+      <c r="BO121">
+        <v>3.3</v>
+      </c>
+      <c r="BP121">
         <v>1.27</v>
-      </c>
-      <c r="BH121">
-        <v>3.25</v>
-      </c>
-      <c r="BI121">
-        <v>1.48</v>
-      </c>
-      <c r="BJ121">
-        <v>2.4</v>
-      </c>
-      <c r="BK121">
-        <v>1.76</v>
-      </c>
-      <c r="BL121">
-        <v>1.9</v>
-      </c>
-      <c r="BM121">
-        <v>2.18</v>
-      </c>
-      <c r="BN121">
-        <v>1.58</v>
-      </c>
-      <c r="BO121">
-        <v>2.8</v>
-      </c>
-      <c r="BP121">
-        <v>1.36</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -26008,7 +26008,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7574686</v>
+        <v>7574685</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26017,196 +26017,196 @@
         <v>69</v>
       </c>
       <c r="E122" s="2">
-        <v>45640.875</v>
+        <v>45641.625</v>
       </c>
       <c r="F122">
         <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H122" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O122" t="s">
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="Q122">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="S122">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="T122">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="U122">
-        <v>2.38</v>
+        <v>3.55</v>
       </c>
       <c r="V122">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="W122">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="X122">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="Y122">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="Z122">
-        <v>3.1</v>
+        <v>13</v>
       </c>
       <c r="AA122">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="AB122">
-        <v>2.26</v>
+        <v>1.15</v>
       </c>
       <c r="AC122">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AD122">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AE122">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AF122">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="AG122">
-        <v>2.22</v>
+        <v>1.47</v>
       </c>
       <c r="AH122">
+        <v>2.57</v>
+      </c>
+      <c r="AI122">
+        <v>2.2</v>
+      </c>
+      <c r="AJ122">
+        <v>1.6</v>
+      </c>
+      <c r="AK122">
+        <v>5</v>
+      </c>
+      <c r="AL122">
+        <v>1.08</v>
+      </c>
+      <c r="AM122">
+        <v>1.02</v>
+      </c>
+      <c r="AN122">
+        <v>1.14</v>
+      </c>
+      <c r="AO122">
+        <v>2</v>
+      </c>
+      <c r="AP122">
+        <v>1.13</v>
+      </c>
+      <c r="AQ122">
+        <v>1.83</v>
+      </c>
+      <c r="AR122">
+        <v>1.11</v>
+      </c>
+      <c r="AS122">
+        <v>1.73</v>
+      </c>
+      <c r="AT122">
+        <v>2.84</v>
+      </c>
+      <c r="AU122">
+        <v>8</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>9</v>
+      </c>
+      <c r="AX122">
+        <v>6</v>
+      </c>
+      <c r="AY122">
+        <v>19</v>
+      </c>
+      <c r="AZ122">
+        <v>14</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>3</v>
+      </c>
+      <c r="BC122">
+        <v>3</v>
+      </c>
+      <c r="BD122">
+        <v>4.4</v>
+      </c>
+      <c r="BE122">
+        <v>8.5</v>
+      </c>
+      <c r="BF122">
+        <v>1.23</v>
+      </c>
+      <c r="BG122">
+        <v>1.27</v>
+      </c>
+      <c r="BH122">
+        <v>3.25</v>
+      </c>
+      <c r="BI122">
+        <v>1.48</v>
+      </c>
+      <c r="BJ122">
+        <v>2.4</v>
+      </c>
+      <c r="BK122">
+        <v>1.76</v>
+      </c>
+      <c r="BL122">
+        <v>1.9</v>
+      </c>
+      <c r="BM122">
+        <v>2.18</v>
+      </c>
+      <c r="BN122">
         <v>1.58</v>
       </c>
-      <c r="AI122">
-        <v>2</v>
-      </c>
-      <c r="AJ122">
-        <v>1.75</v>
-      </c>
-      <c r="AK122">
-        <v>1.59</v>
-      </c>
-      <c r="AL122">
+      <c r="BO122">
+        <v>2.8</v>
+      </c>
+      <c r="BP122">
         <v>1.36</v>
-      </c>
-      <c r="AM122">
-        <v>1.36</v>
-      </c>
-      <c r="AN122">
-        <v>0.67</v>
-      </c>
-      <c r="AO122">
-        <v>1.5</v>
-      </c>
-      <c r="AP122">
-        <v>1</v>
-      </c>
-      <c r="AQ122">
-        <v>1.29</v>
-      </c>
-      <c r="AR122">
-        <v>1.05</v>
-      </c>
-      <c r="AS122">
-        <v>1.18</v>
-      </c>
-      <c r="AT122">
-        <v>2.23</v>
-      </c>
-      <c r="AU122">
-        <v>4</v>
-      </c>
-      <c r="AV122">
-        <v>2</v>
-      </c>
-      <c r="AW122">
-        <v>7</v>
-      </c>
-      <c r="AX122">
-        <v>2</v>
-      </c>
-      <c r="AY122">
-        <v>13</v>
-      </c>
-      <c r="AZ122">
-        <v>6</v>
-      </c>
-      <c r="BA122">
-        <v>7</v>
-      </c>
-      <c r="BB122">
-        <v>2</v>
-      </c>
-      <c r="BC122">
-        <v>9</v>
-      </c>
-      <c r="BD122">
-        <v>1.98</v>
-      </c>
-      <c r="BE122">
-        <v>6.4</v>
-      </c>
-      <c r="BF122">
-        <v>2</v>
-      </c>
-      <c r="BG122">
-        <v>1.34</v>
-      </c>
-      <c r="BH122">
-        <v>2.88</v>
-      </c>
-      <c r="BI122">
-        <v>1.6</v>
-      </c>
-      <c r="BJ122">
-        <v>2.15</v>
-      </c>
-      <c r="BK122">
-        <v>1.96</v>
-      </c>
-      <c r="BL122">
-        <v>1.72</v>
-      </c>
-      <c r="BM122">
-        <v>2.5</v>
-      </c>
-      <c r="BN122">
-        <v>1.44</v>
-      </c>
-      <c r="BO122">
-        <v>3.3</v>
-      </c>
-      <c r="BP122">
-        <v>1.27</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -26420,7 +26420,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7574687</v>
+        <v>7574682</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26429,196 +26429,196 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45642.65625</v>
+        <v>45641.875</v>
       </c>
       <c r="F124">
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H124" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124">
         <v>1</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N124">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O124" t="s">
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="Q124">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="R124">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="S124">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="T124">
+        <v>1.25</v>
+      </c>
+      <c r="U124">
+        <v>3.75</v>
+      </c>
+      <c r="V124">
+        <v>2.2</v>
+      </c>
+      <c r="W124">
+        <v>1.62</v>
+      </c>
+      <c r="X124">
+        <v>5</v>
+      </c>
+      <c r="Y124">
+        <v>1.17</v>
+      </c>
+      <c r="Z124">
+        <v>1.14</v>
+      </c>
+      <c r="AA124">
+        <v>7.4</v>
+      </c>
+      <c r="AB124">
+        <v>15</v>
+      </c>
+      <c r="AC124">
+        <v>1.02</v>
+      </c>
+      <c r="AD124">
+        <v>15</v>
+      </c>
+      <c r="AE124">
+        <v>1.14</v>
+      </c>
+      <c r="AF124">
+        <v>5.5</v>
+      </c>
+      <c r="AG124">
+        <v>1.5</v>
+      </c>
+      <c r="AH124">
+        <v>2.4</v>
+      </c>
+      <c r="AI124">
+        <v>2.5</v>
+      </c>
+      <c r="AJ124">
+        <v>1.5</v>
+      </c>
+      <c r="AK124">
+        <v>1.02</v>
+      </c>
+      <c r="AL124">
+        <v>1.07</v>
+      </c>
+      <c r="AM124">
+        <v>5.5</v>
+      </c>
+      <c r="AN124">
+        <v>3</v>
+      </c>
+      <c r="AO124">
+        <v>0.17</v>
+      </c>
+      <c r="AP124">
+        <v>3</v>
+      </c>
+      <c r="AQ124">
+        <v>0.14</v>
+      </c>
+      <c r="AR124">
+        <v>2.03</v>
+      </c>
+      <c r="AS124">
+        <v>1.04</v>
+      </c>
+      <c r="AT124">
+        <v>3.07</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>0</v>
+      </c>
+      <c r="AW124">
+        <v>5</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <v>13</v>
+      </c>
+      <c r="AZ124">
+        <v>6</v>
+      </c>
+      <c r="BA124">
+        <v>11</v>
+      </c>
+      <c r="BB124">
+        <v>4</v>
+      </c>
+      <c r="BC124">
+        <v>15</v>
+      </c>
+      <c r="BD124">
+        <v>1.12</v>
+      </c>
+      <c r="BE124">
+        <v>10.5</v>
+      </c>
+      <c r="BF124">
+        <v>6.25</v>
+      </c>
+      <c r="BG124">
+        <v>1.2</v>
+      </c>
+      <c r="BH124">
+        <v>3.8</v>
+      </c>
+      <c r="BI124">
         <v>1.36</v>
       </c>
-      <c r="U124">
-        <v>3</v>
-      </c>
-      <c r="V124">
-        <v>2.75</v>
-      </c>
-      <c r="W124">
-        <v>1.4</v>
-      </c>
-      <c r="X124">
-        <v>7</v>
-      </c>
-      <c r="Y124">
-        <v>1.1</v>
-      </c>
-      <c r="Z124">
-        <v>1.54</v>
-      </c>
-      <c r="AA124">
-        <v>4.14</v>
-      </c>
-      <c r="AB124">
-        <v>5.88</v>
-      </c>
-      <c r="AC124">
-        <v>1.04</v>
-      </c>
-      <c r="AD124">
-        <v>12</v>
-      </c>
-      <c r="AE124">
-        <v>1.28</v>
-      </c>
-      <c r="AF124">
-        <v>3.6</v>
-      </c>
-      <c r="AG124">
-        <v>1.89</v>
-      </c>
-      <c r="AH124">
-        <v>1.81</v>
-      </c>
-      <c r="AI124">
-        <v>2</v>
-      </c>
-      <c r="AJ124">
-        <v>1.75</v>
-      </c>
-      <c r="AK124">
-        <v>1.1</v>
-      </c>
-      <c r="AL124">
-        <v>1.17</v>
-      </c>
-      <c r="AM124">
-        <v>2.7</v>
-      </c>
-      <c r="AN124">
-        <v>1.57</v>
-      </c>
-      <c r="AO124">
-        <v>1.33</v>
-      </c>
-      <c r="AP124">
-        <v>1.5</v>
-      </c>
-      <c r="AQ124">
-        <v>1.29</v>
-      </c>
-      <c r="AR124">
-        <v>1.55</v>
-      </c>
-      <c r="AS124">
-        <v>1.11</v>
-      </c>
-      <c r="AT124">
-        <v>2.66</v>
-      </c>
-      <c r="AU124">
-        <v>9</v>
-      </c>
-      <c r="AV124">
-        <v>9</v>
-      </c>
-      <c r="AW124">
-        <v>8</v>
-      </c>
-      <c r="AX124">
-        <v>2</v>
-      </c>
-      <c r="AY124">
-        <v>23</v>
-      </c>
-      <c r="AZ124">
-        <v>11</v>
-      </c>
-      <c r="BA124">
-        <v>10</v>
-      </c>
-      <c r="BB124">
-        <v>3</v>
-      </c>
-      <c r="BC124">
-        <v>13</v>
-      </c>
-      <c r="BD124">
-        <v>1.3</v>
-      </c>
-      <c r="BE124">
-        <v>7.5</v>
-      </c>
-      <c r="BF124">
-        <v>3.8</v>
-      </c>
-      <c r="BG124">
-        <v>1.23</v>
-      </c>
-      <c r="BH124">
-        <v>3.55</v>
-      </c>
-      <c r="BI124">
-        <v>1.4</v>
-      </c>
       <c r="BJ124">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BK124">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="BL124">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="BM124">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="BN124">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="BO124">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BP124">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26626,7 +26626,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7574682</v>
+        <v>7574687</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26635,196 +26635,196 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45642.71875</v>
+        <v>45642.65625</v>
       </c>
       <c r="F125">
         <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H125" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125">
         <v>1</v>
       </c>
       <c r="L125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O125" t="s">
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="Q125">
+        <v>2.05</v>
+      </c>
+      <c r="R125">
+        <v>2.3</v>
+      </c>
+      <c r="S125">
+        <v>6.5</v>
+      </c>
+      <c r="T125">
+        <v>1.36</v>
+      </c>
+      <c r="U125">
+        <v>3</v>
+      </c>
+      <c r="V125">
+        <v>2.75</v>
+      </c>
+      <c r="W125">
+        <v>1.4</v>
+      </c>
+      <c r="X125">
+        <v>7</v>
+      </c>
+      <c r="Y125">
+        <v>1.1</v>
+      </c>
+      <c r="Z125">
+        <v>1.54</v>
+      </c>
+      <c r="AA125">
+        <v>4.14</v>
+      </c>
+      <c r="AB125">
+        <v>5.88</v>
+      </c>
+      <c r="AC125">
+        <v>1.04</v>
+      </c>
+      <c r="AD125">
+        <v>12</v>
+      </c>
+      <c r="AE125">
+        <v>1.28</v>
+      </c>
+      <c r="AF125">
+        <v>3.6</v>
+      </c>
+      <c r="AG125">
+        <v>1.89</v>
+      </c>
+      <c r="AH125">
+        <v>1.81</v>
+      </c>
+      <c r="AI125">
+        <v>2</v>
+      </c>
+      <c r="AJ125">
+        <v>1.75</v>
+      </c>
+      <c r="AK125">
+        <v>1.1</v>
+      </c>
+      <c r="AL125">
+        <v>1.17</v>
+      </c>
+      <c r="AM125">
+        <v>2.7</v>
+      </c>
+      <c r="AN125">
+        <v>1.57</v>
+      </c>
+      <c r="AO125">
+        <v>1.33</v>
+      </c>
+      <c r="AP125">
         <v>1.5</v>
       </c>
-      <c r="R125">
-        <v>2.88</v>
-      </c>
-      <c r="S125">
+      <c r="AQ125">
+        <v>1.29</v>
+      </c>
+      <c r="AR125">
+        <v>1.55</v>
+      </c>
+      <c r="AS125">
+        <v>1.11</v>
+      </c>
+      <c r="AT125">
+        <v>2.66</v>
+      </c>
+      <c r="AU125">
+        <v>9</v>
+      </c>
+      <c r="AV125">
+        <v>9</v>
+      </c>
+      <c r="AW125">
+        <v>8</v>
+      </c>
+      <c r="AX125">
+        <v>2</v>
+      </c>
+      <c r="AY125">
+        <v>23</v>
+      </c>
+      <c r="AZ125">
+        <v>11</v>
+      </c>
+      <c r="BA125">
+        <v>10</v>
+      </c>
+      <c r="BB125">
+        <v>3</v>
+      </c>
+      <c r="BC125">
         <v>13</v>
       </c>
-      <c r="T125">
-        <v>1.25</v>
-      </c>
-      <c r="U125">
-        <v>3.75</v>
-      </c>
-      <c r="V125">
-        <v>2.2</v>
-      </c>
-      <c r="W125">
-        <v>1.62</v>
-      </c>
-      <c r="X125">
-        <v>5</v>
-      </c>
-      <c r="Y125">
-        <v>1.17</v>
-      </c>
-      <c r="Z125">
-        <v>1.14</v>
-      </c>
-      <c r="AA125">
-        <v>7.4</v>
-      </c>
-      <c r="AB125">
-        <v>15</v>
-      </c>
-      <c r="AC125">
-        <v>1.02</v>
-      </c>
-      <c r="AD125">
-        <v>15</v>
-      </c>
-      <c r="AE125">
-        <v>1.14</v>
-      </c>
-      <c r="AF125">
-        <v>5.5</v>
-      </c>
-      <c r="AG125">
-        <v>1.5</v>
-      </c>
-      <c r="AH125">
-        <v>2.4</v>
-      </c>
-      <c r="AI125">
+      <c r="BD125">
+        <v>1.3</v>
+      </c>
+      <c r="BE125">
+        <v>7.5</v>
+      </c>
+      <c r="BF125">
+        <v>3.8</v>
+      </c>
+      <c r="BG125">
+        <v>1.23</v>
+      </c>
+      <c r="BH125">
+        <v>3.55</v>
+      </c>
+      <c r="BI125">
+        <v>1.4</v>
+      </c>
+      <c r="BJ125">
+        <v>2.65</v>
+      </c>
+      <c r="BK125">
+        <v>1.66</v>
+      </c>
+      <c r="BL125">
+        <v>2.04</v>
+      </c>
+      <c r="BM125">
+        <v>2.04</v>
+      </c>
+      <c r="BN125">
+        <v>1.66</v>
+      </c>
+      <c r="BO125">
         <v>2.5</v>
       </c>
-      <c r="AJ125">
-        <v>1.5</v>
-      </c>
-      <c r="AK125">
-        <v>1.02</v>
-      </c>
-      <c r="AL125">
-        <v>1.07</v>
-      </c>
-      <c r="AM125">
-        <v>5.5</v>
-      </c>
-      <c r="AN125">
-        <v>3</v>
-      </c>
-      <c r="AO125">
-        <v>0.17</v>
-      </c>
-      <c r="AP125">
-        <v>3</v>
-      </c>
-      <c r="AQ125">
-        <v>0.14</v>
-      </c>
-      <c r="AR125">
-        <v>2.03</v>
-      </c>
-      <c r="AS125">
-        <v>1.04</v>
-      </c>
-      <c r="AT125">
-        <v>3.07</v>
-      </c>
-      <c r="AU125">
-        <v>5</v>
-      </c>
-      <c r="AV125">
-        <v>0</v>
-      </c>
-      <c r="AW125">
-        <v>5</v>
-      </c>
-      <c r="AX125">
-        <v>2</v>
-      </c>
-      <c r="AY125">
-        <v>13</v>
-      </c>
-      <c r="AZ125">
-        <v>6</v>
-      </c>
-      <c r="BA125">
-        <v>11</v>
-      </c>
-      <c r="BB125">
-        <v>4</v>
-      </c>
-      <c r="BC125">
-        <v>15</v>
-      </c>
-      <c r="BD125">
-        <v>1.12</v>
-      </c>
-      <c r="BE125">
-        <v>10.5</v>
-      </c>
-      <c r="BF125">
-        <v>6.25</v>
-      </c>
-      <c r="BG125">
-        <v>1.2</v>
-      </c>
-      <c r="BH125">
-        <v>3.8</v>
-      </c>
-      <c r="BI125">
-        <v>1.36</v>
-      </c>
-      <c r="BJ125">
-        <v>2.8</v>
-      </c>
-      <c r="BK125">
-        <v>1.6</v>
-      </c>
-      <c r="BL125">
-        <v>2.14</v>
-      </c>
-      <c r="BM125">
-        <v>1.94</v>
-      </c>
-      <c r="BN125">
-        <v>1.74</v>
-      </c>
-      <c r="BO125">
-        <v>2.4</v>
-      </c>
       <c r="BP125">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="126" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -520,10 +520,10 @@
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['12', '90+3']</t>
+    <t>['62', '77', '90+4']</t>
   </si>
   <si>
-    <t>['62', '77', '90+4']</t>
+    <t>['12', '90+3']</t>
   </si>
   <si>
     <t>['6', '38']</t>
@@ -26420,7 +26420,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7574682</v>
+        <v>7574687</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26429,196 +26429,196 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45641.875</v>
+        <v>45642.65625</v>
       </c>
       <c r="F124">
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H124" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124">
         <v>1</v>
       </c>
       <c r="L124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O124" t="s">
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="Q124">
+        <v>2.05</v>
+      </c>
+      <c r="R124">
+        <v>2.3</v>
+      </c>
+      <c r="S124">
+        <v>6.5</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>7</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>1.54</v>
+      </c>
+      <c r="AA124">
+        <v>4.14</v>
+      </c>
+      <c r="AB124">
+        <v>5.88</v>
+      </c>
+      <c r="AC124">
+        <v>1.04</v>
+      </c>
+      <c r="AD124">
+        <v>12</v>
+      </c>
+      <c r="AE124">
+        <v>1.28</v>
+      </c>
+      <c r="AF124">
+        <v>3.6</v>
+      </c>
+      <c r="AG124">
+        <v>1.89</v>
+      </c>
+      <c r="AH124">
+        <v>1.81</v>
+      </c>
+      <c r="AI124">
+        <v>2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.75</v>
+      </c>
+      <c r="AK124">
+        <v>1.1</v>
+      </c>
+      <c r="AL124">
+        <v>1.17</v>
+      </c>
+      <c r="AM124">
+        <v>2.7</v>
+      </c>
+      <c r="AN124">
+        <v>1.57</v>
+      </c>
+      <c r="AO124">
+        <v>1.33</v>
+      </c>
+      <c r="AP124">
         <v>1.5</v>
       </c>
-      <c r="R124">
-        <v>2.88</v>
-      </c>
-      <c r="S124">
+      <c r="AQ124">
+        <v>1.29</v>
+      </c>
+      <c r="AR124">
+        <v>1.55</v>
+      </c>
+      <c r="AS124">
+        <v>1.11</v>
+      </c>
+      <c r="AT124">
+        <v>2.66</v>
+      </c>
+      <c r="AU124">
+        <v>9</v>
+      </c>
+      <c r="AV124">
+        <v>9</v>
+      </c>
+      <c r="AW124">
+        <v>9</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <v>24</v>
+      </c>
+      <c r="AZ124">
+        <v>11</v>
+      </c>
+      <c r="BA124">
+        <v>10</v>
+      </c>
+      <c r="BB124">
+        <v>3</v>
+      </c>
+      <c r="BC124">
         <v>13</v>
       </c>
-      <c r="T124">
-        <v>1.25</v>
-      </c>
-      <c r="U124">
-        <v>3.75</v>
-      </c>
-      <c r="V124">
-        <v>2.2</v>
-      </c>
-      <c r="W124">
-        <v>1.62</v>
-      </c>
-      <c r="X124">
-        <v>5</v>
-      </c>
-      <c r="Y124">
-        <v>1.17</v>
-      </c>
-      <c r="Z124">
-        <v>1.14</v>
-      </c>
-      <c r="AA124">
-        <v>7.4</v>
-      </c>
-      <c r="AB124">
-        <v>15</v>
-      </c>
-      <c r="AC124">
-        <v>1.02</v>
-      </c>
-      <c r="AD124">
-        <v>15</v>
-      </c>
-      <c r="AE124">
-        <v>1.14</v>
-      </c>
-      <c r="AF124">
-        <v>5.5</v>
-      </c>
-      <c r="AG124">
-        <v>1.5</v>
-      </c>
-      <c r="AH124">
-        <v>2.4</v>
-      </c>
-      <c r="AI124">
+      <c r="BD124">
+        <v>1.3</v>
+      </c>
+      <c r="BE124">
+        <v>7.5</v>
+      </c>
+      <c r="BF124">
+        <v>3.8</v>
+      </c>
+      <c r="BG124">
+        <v>1.23</v>
+      </c>
+      <c r="BH124">
+        <v>3.55</v>
+      </c>
+      <c r="BI124">
+        <v>1.4</v>
+      </c>
+      <c r="BJ124">
+        <v>2.65</v>
+      </c>
+      <c r="BK124">
+        <v>1.66</v>
+      </c>
+      <c r="BL124">
+        <v>2.04</v>
+      </c>
+      <c r="BM124">
+        <v>2.04</v>
+      </c>
+      <c r="BN124">
+        <v>1.66</v>
+      </c>
+      <c r="BO124">
         <v>2.5</v>
       </c>
-      <c r="AJ124">
-        <v>1.5</v>
-      </c>
-      <c r="AK124">
-        <v>1.02</v>
-      </c>
-      <c r="AL124">
-        <v>1.07</v>
-      </c>
-      <c r="AM124">
-        <v>5.5</v>
-      </c>
-      <c r="AN124">
-        <v>3</v>
-      </c>
-      <c r="AO124">
-        <v>0.17</v>
-      </c>
-      <c r="AP124">
-        <v>3</v>
-      </c>
-      <c r="AQ124">
-        <v>0.14</v>
-      </c>
-      <c r="AR124">
-        <v>2.03</v>
-      </c>
-      <c r="AS124">
-        <v>1.04</v>
-      </c>
-      <c r="AT124">
-        <v>3.07</v>
-      </c>
-      <c r="AU124">
-        <v>5</v>
-      </c>
-      <c r="AV124">
-        <v>0</v>
-      </c>
-      <c r="AW124">
-        <v>5</v>
-      </c>
-      <c r="AX124">
-        <v>2</v>
-      </c>
-      <c r="AY124">
-        <v>13</v>
-      </c>
-      <c r="AZ124">
-        <v>6</v>
-      </c>
-      <c r="BA124">
-        <v>11</v>
-      </c>
-      <c r="BB124">
-        <v>4</v>
-      </c>
-      <c r="BC124">
-        <v>15</v>
-      </c>
-      <c r="BD124">
-        <v>1.12</v>
-      </c>
-      <c r="BE124">
-        <v>10.5</v>
-      </c>
-      <c r="BF124">
-        <v>6.25</v>
-      </c>
-      <c r="BG124">
-        <v>1.2</v>
-      </c>
-      <c r="BH124">
-        <v>3.8</v>
-      </c>
-      <c r="BI124">
-        <v>1.36</v>
-      </c>
-      <c r="BJ124">
-        <v>2.8</v>
-      </c>
-      <c r="BK124">
-        <v>1.6</v>
-      </c>
-      <c r="BL124">
-        <v>2.14</v>
-      </c>
-      <c r="BM124">
-        <v>1.94</v>
-      </c>
-      <c r="BN124">
-        <v>1.74</v>
-      </c>
-      <c r="BO124">
-        <v>2.4</v>
-      </c>
       <c r="BP124">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26626,7 +26626,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7574687</v>
+        <v>7574682</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26635,196 +26635,196 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45642.65625</v>
+        <v>45642.71875</v>
       </c>
       <c r="F125">
         <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H125" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>1</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O125" t="s">
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="Q125">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="R125">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="S125">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="T125">
+        <v>1.25</v>
+      </c>
+      <c r="U125">
+        <v>3.75</v>
+      </c>
+      <c r="V125">
+        <v>2.2</v>
+      </c>
+      <c r="W125">
+        <v>1.62</v>
+      </c>
+      <c r="X125">
+        <v>5</v>
+      </c>
+      <c r="Y125">
+        <v>1.17</v>
+      </c>
+      <c r="Z125">
+        <v>1.14</v>
+      </c>
+      <c r="AA125">
+        <v>7.4</v>
+      </c>
+      <c r="AB125">
+        <v>15</v>
+      </c>
+      <c r="AC125">
+        <v>1.02</v>
+      </c>
+      <c r="AD125">
+        <v>15</v>
+      </c>
+      <c r="AE125">
+        <v>1.14</v>
+      </c>
+      <c r="AF125">
+        <v>5.5</v>
+      </c>
+      <c r="AG125">
+        <v>1.5</v>
+      </c>
+      <c r="AH125">
+        <v>2.4</v>
+      </c>
+      <c r="AI125">
+        <v>2.5</v>
+      </c>
+      <c r="AJ125">
+        <v>1.5</v>
+      </c>
+      <c r="AK125">
+        <v>1.02</v>
+      </c>
+      <c r="AL125">
+        <v>1.07</v>
+      </c>
+      <c r="AM125">
+        <v>5.5</v>
+      </c>
+      <c r="AN125">
+        <v>3</v>
+      </c>
+      <c r="AO125">
+        <v>0.17</v>
+      </c>
+      <c r="AP125">
+        <v>3</v>
+      </c>
+      <c r="AQ125">
+        <v>0.14</v>
+      </c>
+      <c r="AR125">
+        <v>2.03</v>
+      </c>
+      <c r="AS125">
+        <v>1.04</v>
+      </c>
+      <c r="AT125">
+        <v>3.07</v>
+      </c>
+      <c r="AU125">
+        <v>-1</v>
+      </c>
+      <c r="AV125">
+        <v>-1</v>
+      </c>
+      <c r="AW125">
+        <v>-1</v>
+      </c>
+      <c r="AX125">
+        <v>-1</v>
+      </c>
+      <c r="AY125">
+        <v>-1</v>
+      </c>
+      <c r="AZ125">
+        <v>-1</v>
+      </c>
+      <c r="BA125">
+        <v>11</v>
+      </c>
+      <c r="BB125">
+        <v>4</v>
+      </c>
+      <c r="BC125">
+        <v>15</v>
+      </c>
+      <c r="BD125">
+        <v>1.12</v>
+      </c>
+      <c r="BE125">
+        <v>10.5</v>
+      </c>
+      <c r="BF125">
+        <v>6.25</v>
+      </c>
+      <c r="BG125">
+        <v>1.2</v>
+      </c>
+      <c r="BH125">
+        <v>3.8</v>
+      </c>
+      <c r="BI125">
         <v>1.36</v>
       </c>
-      <c r="U125">
-        <v>3</v>
-      </c>
-      <c r="V125">
-        <v>2.75</v>
-      </c>
-      <c r="W125">
-        <v>1.4</v>
-      </c>
-      <c r="X125">
-        <v>7</v>
-      </c>
-      <c r="Y125">
-        <v>1.1</v>
-      </c>
-      <c r="Z125">
-        <v>1.54</v>
-      </c>
-      <c r="AA125">
-        <v>4.14</v>
-      </c>
-      <c r="AB125">
-        <v>5.88</v>
-      </c>
-      <c r="AC125">
-        <v>1.04</v>
-      </c>
-      <c r="AD125">
-        <v>12</v>
-      </c>
-      <c r="AE125">
-        <v>1.28</v>
-      </c>
-      <c r="AF125">
-        <v>3.6</v>
-      </c>
-      <c r="AG125">
-        <v>1.89</v>
-      </c>
-      <c r="AH125">
-        <v>1.81</v>
-      </c>
-      <c r="AI125">
-        <v>2</v>
-      </c>
-      <c r="AJ125">
-        <v>1.75</v>
-      </c>
-      <c r="AK125">
-        <v>1.1</v>
-      </c>
-      <c r="AL125">
-        <v>1.17</v>
-      </c>
-      <c r="AM125">
-        <v>2.7</v>
-      </c>
-      <c r="AN125">
-        <v>1.57</v>
-      </c>
-      <c r="AO125">
-        <v>1.33</v>
-      </c>
-      <c r="AP125">
-        <v>1.5</v>
-      </c>
-      <c r="AQ125">
-        <v>1.29</v>
-      </c>
-      <c r="AR125">
-        <v>1.55</v>
-      </c>
-      <c r="AS125">
-        <v>1.11</v>
-      </c>
-      <c r="AT125">
-        <v>2.66</v>
-      </c>
-      <c r="AU125">
-        <v>9</v>
-      </c>
-      <c r="AV125">
-        <v>9</v>
-      </c>
-      <c r="AW125">
-        <v>8</v>
-      </c>
-      <c r="AX125">
-        <v>2</v>
-      </c>
-      <c r="AY125">
-        <v>23</v>
-      </c>
-      <c r="AZ125">
-        <v>11</v>
-      </c>
-      <c r="BA125">
-        <v>10</v>
-      </c>
-      <c r="BB125">
-        <v>3</v>
-      </c>
-      <c r="BC125">
-        <v>13</v>
-      </c>
-      <c r="BD125">
-        <v>1.3</v>
-      </c>
-      <c r="BE125">
-        <v>7.5</v>
-      </c>
-      <c r="BF125">
-        <v>3.8</v>
-      </c>
-      <c r="BG125">
-        <v>1.23</v>
-      </c>
-      <c r="BH125">
-        <v>3.55</v>
-      </c>
-      <c r="BI125">
-        <v>1.4</v>
-      </c>
       <c r="BJ125">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BK125">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="BL125">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="BM125">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="BN125">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="BO125">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BP125">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="126" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -711,6 +711,9 @@
   <si>
     <t>['51', '58']</t>
   </si>
+  <si>
+    <t>['59', '74']</t>
+  </si>
 </sst>
 </file>
 
@@ -1071,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2441,7 +2444,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3880,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ14">
         <v>2.57</v>
@@ -6973,7 +6976,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.3</v>
@@ -8000,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ34">
         <v>0.43</v>
@@ -10678,7 +10681,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ47">
         <v>2.17</v>
@@ -12329,7 +12332,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ55">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.28</v>
@@ -18303,7 +18306,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ84">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.17</v>
@@ -19536,7 +19539,7 @@
         <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ90">
         <v>1.29</v>
@@ -22008,7 +22011,7 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ102">
         <v>1.13</v>
@@ -22629,7 +22632,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR105">
         <v>0.97</v>
@@ -25510,7 +25513,7 @@
         <v>0.86</v>
       </c>
       <c r="AP119">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ119">
         <v>0.75</v>
@@ -26131,7 +26134,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ122">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR122">
         <v>1.11</v>
@@ -26761,22 +26764,22 @@
         <v>3.07</v>
       </c>
       <c r="AU125">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW125">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX125">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY125">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ125">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA125">
         <v>11</v>
@@ -27031,6 +27034,212 @@
       </c>
       <c r="BP126">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7574632</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45645.58333333334</v>
+      </c>
+      <c r="F127">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>82</v>
+      </c>
+      <c r="H127" t="s">
+        <v>83</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>90</v>
+      </c>
+      <c r="P127" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q127">
+        <v>8</v>
+      </c>
+      <c r="R127">
+        <v>2.88</v>
+      </c>
+      <c r="S127">
+        <v>1.67</v>
+      </c>
+      <c r="T127">
+        <v>1.22</v>
+      </c>
+      <c r="U127">
+        <v>4</v>
+      </c>
+      <c r="V127">
+        <v>2.1</v>
+      </c>
+      <c r="W127">
+        <v>1.67</v>
+      </c>
+      <c r="X127">
+        <v>4.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.18</v>
+      </c>
+      <c r="Z127">
+        <v>9</v>
+      </c>
+      <c r="AA127">
+        <v>5.75</v>
+      </c>
+      <c r="AB127">
+        <v>1.24</v>
+      </c>
+      <c r="AC127">
+        <v>1.01</v>
+      </c>
+      <c r="AD127">
+        <v>25.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.08</v>
+      </c>
+      <c r="AF127">
+        <v>5.15</v>
+      </c>
+      <c r="AG127">
+        <v>1.42</v>
+      </c>
+      <c r="AH127">
+        <v>2.74</v>
+      </c>
+      <c r="AI127">
+        <v>1.8</v>
+      </c>
+      <c r="AJ127">
+        <v>1.95</v>
+      </c>
+      <c r="AK127">
+        <v>3.8</v>
+      </c>
+      <c r="AL127">
+        <v>1.11</v>
+      </c>
+      <c r="AM127">
+        <v>1.05</v>
+      </c>
+      <c r="AN127">
+        <v>1.67</v>
+      </c>
+      <c r="AO127">
+        <v>1.83</v>
+      </c>
+      <c r="AP127">
+        <v>1.43</v>
+      </c>
+      <c r="AQ127">
+        <v>2</v>
+      </c>
+      <c r="AR127">
+        <v>1.37</v>
+      </c>
+      <c r="AS127">
+        <v>1.7</v>
+      </c>
+      <c r="AT127">
+        <v>3.07</v>
+      </c>
+      <c r="AU127">
+        <v>2</v>
+      </c>
+      <c r="AV127">
+        <v>8</v>
+      </c>
+      <c r="AW127">
+        <v>0</v>
+      </c>
+      <c r="AX127">
+        <v>5</v>
+      </c>
+      <c r="AY127">
+        <v>6</v>
+      </c>
+      <c r="AZ127">
+        <v>17</v>
+      </c>
+      <c r="BA127">
+        <v>4</v>
+      </c>
+      <c r="BB127">
+        <v>11</v>
+      </c>
+      <c r="BC127">
+        <v>15</v>
+      </c>
+      <c r="BD127">
+        <v>5.6</v>
+      </c>
+      <c r="BE127">
+        <v>11</v>
+      </c>
+      <c r="BF127">
+        <v>1.21</v>
+      </c>
+      <c r="BG127">
+        <v>1.18</v>
+      </c>
+      <c r="BH127">
+        <v>4.5</v>
+      </c>
+      <c r="BI127">
+        <v>1.35</v>
+      </c>
+      <c r="BJ127">
+        <v>3.1</v>
+      </c>
+      <c r="BK127">
+        <v>1.6</v>
+      </c>
+      <c r="BL127">
+        <v>2.25</v>
+      </c>
+      <c r="BM127">
+        <v>1.91</v>
+      </c>
+      <c r="BN127">
+        <v>1.8</v>
+      </c>
+      <c r="BO127">
+        <v>2.6</v>
+      </c>
+      <c r="BP127">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,9 @@
     <t>['6', '38']</t>
   </si>
   <si>
+    <t>['19', '20', '88']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -713,6 +716,9 @@
   </si>
   <si>
     <t>['59', '74']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1539,7 +1545,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1745,7 +1751,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -1823,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.13</v>
@@ -2157,7 +2163,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2569,7 +2575,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3187,7 +3193,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3393,7 +3399,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3805,7 +3811,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4217,7 +4223,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4298,7 +4304,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4629,7 +4635,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4835,7 +4841,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5041,7 +5047,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5247,7 +5253,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5325,7 +5331,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>1.29</v>
@@ -6895,7 +6901,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7101,7 +7107,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7307,7 +7313,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8212,7 +8218,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ35">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
         <v>1.11</v>
@@ -8337,7 +8343,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8749,7 +8755,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8955,7 +8961,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9033,7 +9039,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>0.75</v>
@@ -9367,7 +9373,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9573,7 +9579,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9779,7 +9785,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10191,7 +10197,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10397,7 +10403,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10603,7 +10609,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10809,7 +10815,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11221,7 +11227,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11633,7 +11639,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11839,7 +11845,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11920,7 +11926,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ53">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>1</v>
@@ -12251,7 +12257,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12457,7 +12463,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12663,7 +12669,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12869,7 +12875,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12947,7 +12953,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.13</v>
@@ -13075,7 +13081,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13568,7 +13574,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>2.38</v>
@@ -14311,7 +14317,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14929,7 +14935,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15547,7 +15553,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15753,7 +15759,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16037,7 +16043,7 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>0.29</v>
@@ -16165,7 +16171,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16371,7 +16377,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16452,7 +16458,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ75">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR75">
         <v>0.89</v>
@@ -16577,7 +16583,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16783,7 +16789,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17401,7 +17407,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17607,7 +17613,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17813,7 +17819,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18019,7 +18025,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18225,7 +18231,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18431,7 +18437,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18637,7 +18643,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19049,7 +19055,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19667,7 +19673,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19873,7 +19879,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -19951,7 +19957,7 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
         <v>0.43</v>
@@ -20366,7 +20372,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ94">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR94">
         <v>1.13</v>
@@ -20491,7 +20497,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21109,7 +21115,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21727,7 +21733,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22139,7 +22145,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22345,7 +22351,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22551,7 +22557,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22757,7 +22763,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23581,7 +23587,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23787,7 +23793,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24405,7 +24411,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q114">
         <v>6.5</v>
@@ -24611,7 +24617,7 @@
         <v>131</v>
       </c>
       <c r="P115" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q115">
         <v>3.25</v>
@@ -24895,7 +24901,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
         <v>0.5</v>
@@ -25023,7 +25029,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25104,7 +25110,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ117">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>1.23</v>
@@ -25229,7 +25235,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -25641,7 +25647,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26053,7 +26059,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -26259,7 +26265,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26465,7 +26471,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26877,7 +26883,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27083,7 +27089,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27240,6 +27246,212 @@
       </c>
       <c r="BP127">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7574691</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45646.71875</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>72</v>
+      </c>
+      <c r="H128" t="s">
+        <v>78</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>171</v>
+      </c>
+      <c r="P128" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q128">
+        <v>2.9</v>
+      </c>
+      <c r="R128">
+        <v>1.95</v>
+      </c>
+      <c r="S128">
+        <v>3.75</v>
+      </c>
+      <c r="T128">
+        <v>1.48</v>
+      </c>
+      <c r="U128">
+        <v>2.5</v>
+      </c>
+      <c r="V128">
+        <v>3.1</v>
+      </c>
+      <c r="W128">
+        <v>1.33</v>
+      </c>
+      <c r="X128">
+        <v>7.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.06</v>
+      </c>
+      <c r="Z128">
+        <v>2.4</v>
+      </c>
+      <c r="AA128">
+        <v>3.1</v>
+      </c>
+      <c r="AB128">
+        <v>3.1</v>
+      </c>
+      <c r="AC128">
+        <v>1.08</v>
+      </c>
+      <c r="AD128">
+        <v>7.5</v>
+      </c>
+      <c r="AE128">
+        <v>1.4</v>
+      </c>
+      <c r="AF128">
+        <v>2.9</v>
+      </c>
+      <c r="AG128">
+        <v>2.4</v>
+      </c>
+      <c r="AH128">
+        <v>1.57</v>
+      </c>
+      <c r="AI128">
+        <v>1.85</v>
+      </c>
+      <c r="AJ128">
+        <v>1.85</v>
+      </c>
+      <c r="AK128">
+        <v>1.33</v>
+      </c>
+      <c r="AL128">
+        <v>1.3</v>
+      </c>
+      <c r="AM128">
+        <v>1.6</v>
+      </c>
+      <c r="AN128">
+        <v>1.29</v>
+      </c>
+      <c r="AO128">
+        <v>0.57</v>
+      </c>
+      <c r="AP128">
+        <v>1.5</v>
+      </c>
+      <c r="AQ128">
+        <v>0.5</v>
+      </c>
+      <c r="AR128">
+        <v>1.24</v>
+      </c>
+      <c r="AS128">
+        <v>1.04</v>
+      </c>
+      <c r="AT128">
+        <v>2.28</v>
+      </c>
+      <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>2</v>
+      </c>
+      <c r="AX128">
+        <v>2</v>
+      </c>
+      <c r="AY128">
+        <v>11</v>
+      </c>
+      <c r="AZ128">
+        <v>10</v>
+      </c>
+      <c r="BA128">
+        <v>3</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>7</v>
+      </c>
+      <c r="BD128">
+        <v>1.79</v>
+      </c>
+      <c r="BE128">
+        <v>6.5</v>
+      </c>
+      <c r="BF128">
+        <v>2.2</v>
+      </c>
+      <c r="BG128">
+        <v>1.29</v>
+      </c>
+      <c r="BH128">
+        <v>3.15</v>
+      </c>
+      <c r="BI128">
+        <v>1.5</v>
+      </c>
+      <c r="BJ128">
+        <v>2.33</v>
+      </c>
+      <c r="BK128">
+        <v>1.82</v>
+      </c>
+      <c r="BL128">
+        <v>1.84</v>
+      </c>
+      <c r="BM128">
+        <v>2.28</v>
+      </c>
+      <c r="BN128">
+        <v>1.53</v>
+      </c>
+      <c r="BO128">
+        <v>2.95</v>
+      </c>
+      <c r="BP128">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -720,6 +720,12 @@
   <si>
     <t>['63']</t>
   </si>
+  <si>
+    <t>['16', '66', '88']</t>
+  </si>
+  <si>
+    <t>['30', '47']</t>
+  </si>
 </sst>
 </file>
 
@@ -1080,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2447,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -3274,7 +3280,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ11">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3480,7 +3486,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3686,7 +3692,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ13">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4301,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
@@ -4713,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ18">
         <v>2.17</v>
@@ -5743,7 +5749,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
         <v>1.13</v>
@@ -6979,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7188,7 +7194,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR30">
         <v>0.55</v>
@@ -7597,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -7806,7 +7812,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR33">
         <v>2.25</v>
@@ -8012,7 +8018,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ34">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>1.18</v>
@@ -9451,7 +9457,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
         <v>0.63</v>
@@ -9866,7 +9872,7 @@
         <v>3</v>
       </c>
       <c r="AQ43">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>2.13</v>
@@ -11308,7 +11314,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ50">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11511,7 +11517,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.29</v>
@@ -12132,7 +12138,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ54">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR54">
         <v>1.92</v>
@@ -12335,7 +12341,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -13365,7 +13371,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
         <v>0.29</v>
@@ -14192,7 +14198,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ64">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.27</v>
@@ -14807,7 +14813,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>1.29</v>
@@ -15016,7 +15022,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR68">
         <v>0.83</v>
@@ -16661,7 +16667,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ76">
         <v>0.75</v>
@@ -16867,7 +16873,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
         <v>2.57</v>
@@ -17076,7 +17082,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
         <v>1.68</v>
@@ -17694,7 +17700,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ81">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -19751,7 +19757,7 @@
         <v>0.4</v>
       </c>
       <c r="AP91">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>0.63</v>
@@ -19960,7 +19966,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR92">
         <v>1.25</v>
@@ -20166,7 +20172,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR93">
         <v>0.99</v>
@@ -20369,7 +20375,7 @@
         <v>0.6</v>
       </c>
       <c r="AP94">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ94">
         <v>0.5</v>
@@ -20575,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ95">
         <v>0.43</v>
@@ -21402,7 +21408,7 @@
         <v>3</v>
       </c>
       <c r="AQ99">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR99">
         <v>2.36</v>
@@ -23459,7 +23465,7 @@
         <v>3</v>
       </c>
       <c r="AP109">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>2.57</v>
@@ -24489,10 +24495,10 @@
         <v>1.8</v>
       </c>
       <c r="AP114">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ114">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR114">
         <v>1.09</v>
@@ -24695,10 +24701,10 @@
         <v>0.33</v>
       </c>
       <c r="AP115">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ115">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -24904,7 +24910,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR116">
         <v>1.23</v>
@@ -27452,6 +27458,624 @@
       </c>
       <c r="BP128">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7574693</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45646.875</v>
+      </c>
+      <c r="F129">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>84</v>
+      </c>
+      <c r="H129" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>90</v>
+      </c>
+      <c r="P129" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q129">
+        <v>7.08</v>
+      </c>
+      <c r="R129">
+        <v>2.35</v>
+      </c>
+      <c r="S129">
+        <v>2.03</v>
+      </c>
+      <c r="T129">
+        <v>1.39</v>
+      </c>
+      <c r="U129">
+        <v>2.92</v>
+      </c>
+      <c r="V129">
+        <v>2.95</v>
+      </c>
+      <c r="W129">
+        <v>1.38</v>
+      </c>
+      <c r="X129">
+        <v>7.1</v>
+      </c>
+      <c r="Y129">
+        <v>1.06</v>
+      </c>
+      <c r="Z129">
+        <v>4.48</v>
+      </c>
+      <c r="AA129">
+        <v>4.1</v>
+      </c>
+      <c r="AB129">
+        <v>1.56</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>9.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.3</v>
+      </c>
+      <c r="AF129">
+        <v>3.35</v>
+      </c>
+      <c r="AG129">
+        <v>2.03</v>
+      </c>
+      <c r="AH129">
+        <v>1.85</v>
+      </c>
+      <c r="AI129">
+        <v>2.08</v>
+      </c>
+      <c r="AJ129">
+        <v>1.71</v>
+      </c>
+      <c r="AK129">
+        <v>2.61</v>
+      </c>
+      <c r="AL129">
+        <v>1.23</v>
+      </c>
+      <c r="AM129">
+        <v>1.1</v>
+      </c>
+      <c r="AN129">
+        <v>2.33</v>
+      </c>
+      <c r="AO129">
+        <v>1.67</v>
+      </c>
+      <c r="AP129">
+        <v>2</v>
+      </c>
+      <c r="AQ129">
+        <v>1.86</v>
+      </c>
+      <c r="AR129">
+        <v>1.14</v>
+      </c>
+      <c r="AS129">
+        <v>1.21</v>
+      </c>
+      <c r="AT129">
+        <v>2.35</v>
+      </c>
+      <c r="AU129">
+        <v>3</v>
+      </c>
+      <c r="AV129">
+        <v>8</v>
+      </c>
+      <c r="AW129">
+        <v>5</v>
+      </c>
+      <c r="AX129">
+        <v>3</v>
+      </c>
+      <c r="AY129">
+        <v>9</v>
+      </c>
+      <c r="AZ129">
+        <v>13</v>
+      </c>
+      <c r="BA129">
+        <v>2</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>6</v>
+      </c>
+      <c r="BD129">
+        <v>4.3</v>
+      </c>
+      <c r="BE129">
+        <v>7.5</v>
+      </c>
+      <c r="BF129">
+        <v>1.25</v>
+      </c>
+      <c r="BG129">
+        <v>1.4</v>
+      </c>
+      <c r="BH129">
+        <v>2.65</v>
+      </c>
+      <c r="BI129">
+        <v>1.67</v>
+      </c>
+      <c r="BJ129">
+        <v>2.02</v>
+      </c>
+      <c r="BK129">
+        <v>2.07</v>
+      </c>
+      <c r="BL129">
+        <v>1.64</v>
+      </c>
+      <c r="BM129">
+        <v>2.65</v>
+      </c>
+      <c r="BN129">
+        <v>1.4</v>
+      </c>
+      <c r="BO129">
+        <v>3.55</v>
+      </c>
+      <c r="BP129">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7574689</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45647.52083333334</v>
+      </c>
+      <c r="F130">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" t="s">
+        <v>76</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>149</v>
+      </c>
+      <c r="P130" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q130">
+        <v>2.4</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
+        <v>5</v>
+      </c>
+      <c r="T130">
+        <v>1.48</v>
+      </c>
+      <c r="U130">
+        <v>2.45</v>
+      </c>
+      <c r="V130">
+        <v>3.2</v>
+      </c>
+      <c r="W130">
+        <v>1.3</v>
+      </c>
+      <c r="X130">
+        <v>8</v>
+      </c>
+      <c r="Y130">
+        <v>1.05</v>
+      </c>
+      <c r="Z130">
+        <v>1.79</v>
+      </c>
+      <c r="AA130">
+        <v>2.21</v>
+      </c>
+      <c r="AB130">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AC130">
+        <v>1.09</v>
+      </c>
+      <c r="AD130">
+        <v>7</v>
+      </c>
+      <c r="AE130">
+        <v>1.42</v>
+      </c>
+      <c r="AF130">
+        <v>2.8</v>
+      </c>
+      <c r="AG130">
+        <v>2.32</v>
+      </c>
+      <c r="AH130">
+        <v>1.61</v>
+      </c>
+      <c r="AI130">
+        <v>2.05</v>
+      </c>
+      <c r="AJ130">
+        <v>1.7</v>
+      </c>
+      <c r="AK130">
+        <v>1.18</v>
+      </c>
+      <c r="AL130">
+        <v>1.25</v>
+      </c>
+      <c r="AM130">
+        <v>1.95</v>
+      </c>
+      <c r="AN130">
+        <v>1.43</v>
+      </c>
+      <c r="AO130">
+        <v>0.43</v>
+      </c>
+      <c r="AP130">
+        <v>1.25</v>
+      </c>
+      <c r="AQ130">
+        <v>0.75</v>
+      </c>
+      <c r="AR130">
+        <v>1.02</v>
+      </c>
+      <c r="AS130">
+        <v>1.08</v>
+      </c>
+      <c r="AT130">
+        <v>2.1</v>
+      </c>
+      <c r="AU130">
+        <v>2</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>8</v>
+      </c>
+      <c r="AX130">
+        <v>1</v>
+      </c>
+      <c r="AY130">
+        <v>12</v>
+      </c>
+      <c r="AZ130">
+        <v>8</v>
+      </c>
+      <c r="BA130">
+        <v>7</v>
+      </c>
+      <c r="BB130">
+        <v>4</v>
+      </c>
+      <c r="BC130">
+        <v>11</v>
+      </c>
+      <c r="BD130">
+        <v>1.3</v>
+      </c>
+      <c r="BE130">
+        <v>7.5</v>
+      </c>
+      <c r="BF130">
+        <v>3.8</v>
+      </c>
+      <c r="BG130">
+        <v>1.25</v>
+      </c>
+      <c r="BH130">
+        <v>3.4</v>
+      </c>
+      <c r="BI130">
+        <v>1.43</v>
+      </c>
+      <c r="BJ130">
+        <v>2.55</v>
+      </c>
+      <c r="BK130">
+        <v>1.7</v>
+      </c>
+      <c r="BL130">
+        <v>1.98</v>
+      </c>
+      <c r="BM130">
+        <v>2.06</v>
+      </c>
+      <c r="BN130">
+        <v>1.64</v>
+      </c>
+      <c r="BO130">
+        <v>2.6</v>
+      </c>
+      <c r="BP130">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7574692</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45647.625</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>86</v>
+      </c>
+      <c r="H131" t="s">
+        <v>71</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131" t="s">
+        <v>90</v>
+      </c>
+      <c r="P131" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q131">
+        <v>2.9</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
+        <v>3.8</v>
+      </c>
+      <c r="T131">
+        <v>1.48</v>
+      </c>
+      <c r="U131">
+        <v>2.45</v>
+      </c>
+      <c r="V131">
+        <v>3.2</v>
+      </c>
+      <c r="W131">
+        <v>1.3</v>
+      </c>
+      <c r="X131">
+        <v>8</v>
+      </c>
+      <c r="Y131">
+        <v>1.05</v>
+      </c>
+      <c r="Z131">
+        <v>1.9</v>
+      </c>
+      <c r="AA131">
+        <v>3.86</v>
+      </c>
+      <c r="AB131">
+        <v>3.09</v>
+      </c>
+      <c r="AC131">
+        <v>1.08</v>
+      </c>
+      <c r="AD131">
+        <v>7.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.42</v>
+      </c>
+      <c r="AF131">
+        <v>2.8</v>
+      </c>
+      <c r="AG131">
+        <v>2.25</v>
+      </c>
+      <c r="AH131">
+        <v>1.63</v>
+      </c>
+      <c r="AI131">
+        <v>1.91</v>
+      </c>
+      <c r="AJ131">
+        <v>1.8</v>
+      </c>
+      <c r="AK131">
+        <v>1.3</v>
+      </c>
+      <c r="AL131">
+        <v>1.3</v>
+      </c>
+      <c r="AM131">
+        <v>1.62</v>
+      </c>
+      <c r="AN131">
+        <v>0.33</v>
+      </c>
+      <c r="AO131">
+        <v>0.5</v>
+      </c>
+      <c r="AP131">
+        <v>0.43</v>
+      </c>
+      <c r="AQ131">
+        <v>0.57</v>
+      </c>
+      <c r="AR131">
+        <v>1.33</v>
+      </c>
+      <c r="AS131">
+        <v>1</v>
+      </c>
+      <c r="AT131">
+        <v>2.33</v>
+      </c>
+      <c r="AU131">
+        <v>5</v>
+      </c>
+      <c r="AV131">
+        <v>2</v>
+      </c>
+      <c r="AW131">
+        <v>8</v>
+      </c>
+      <c r="AX131">
+        <v>4</v>
+      </c>
+      <c r="AY131">
+        <v>16</v>
+      </c>
+      <c r="AZ131">
+        <v>8</v>
+      </c>
+      <c r="BA131">
+        <v>5</v>
+      </c>
+      <c r="BB131">
+        <v>1</v>
+      </c>
+      <c r="BC131">
+        <v>6</v>
+      </c>
+      <c r="BD131">
+        <v>1.74</v>
+      </c>
+      <c r="BE131">
+        <v>6.5</v>
+      </c>
+      <c r="BF131">
+        <v>2.3</v>
+      </c>
+      <c r="BG131">
+        <v>1.3</v>
+      </c>
+      <c r="BH131">
+        <v>3.05</v>
+      </c>
+      <c r="BI131">
+        <v>1.53</v>
+      </c>
+      <c r="BJ131">
+        <v>2.28</v>
+      </c>
+      <c r="BK131">
+        <v>1.87</v>
+      </c>
+      <c r="BL131">
+        <v>1.8</v>
+      </c>
+      <c r="BM131">
+        <v>2.35</v>
+      </c>
+      <c r="BN131">
+        <v>1.5</v>
+      </c>
+      <c r="BO131">
+        <v>3.05</v>
+      </c>
+      <c r="BP131">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,10 +721,13 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['30', '47']</t>
+  </si>
+  <si>
     <t>['16', '66', '88']</t>
   </si>
   <si>
-    <t>['30', '47']</t>
+    <t>['51', '77']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3277,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
         <v>1.86</v>
@@ -3483,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ12">
         <v>0.57</v>
@@ -3898,7 +3901,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ14">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4722,7 +4725,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ18">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5134,7 +5137,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ20">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -7191,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30">
         <v>0.57</v>
@@ -8633,10 +8636,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ37">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -8842,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AR38">
         <v>0.93</v>
@@ -10696,7 +10699,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR47">
         <v>1.27</v>
@@ -11105,7 +11108,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ49">
         <v>0.14</v>
@@ -11723,7 +11726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ52">
         <v>1.14</v>
@@ -12550,7 +12553,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ56">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AR56">
         <v>0.98</v>
@@ -13989,7 +13992,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ63">
         <v>1.13</v>
@@ -14607,7 +14610,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ66">
         <v>0.14</v>
@@ -15846,7 +15849,7 @@
         <v>3</v>
       </c>
       <c r="AQ72">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR72">
         <v>2.36</v>
@@ -16255,7 +16258,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ74">
         <v>0.63</v>
@@ -16876,7 +16879,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -18521,7 +18524,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
         <v>1.13</v>
@@ -19142,7 +19145,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR88">
         <v>0.89</v>
@@ -20993,7 +20996,7 @@
         <v>1.6</v>
       </c>
       <c r="AP97">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ97">
         <v>1.13</v>
@@ -21202,7 +21205,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AR98">
         <v>1.75</v>
@@ -22850,7 +22853,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ106">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23468,7 +23471,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AR109">
         <v>1.17</v>
@@ -23877,7 +23880,7 @@
         <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ111">
         <v>0.29</v>
@@ -24289,7 +24292,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ113">
         <v>0.43</v>
@@ -27465,7 +27468,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7574693</v>
+        <v>7574689</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27474,16 +27477,16 @@
         <v>69</v>
       </c>
       <c r="E129" s="2">
-        <v>45646.875</v>
+        <v>45647.52083333334</v>
       </c>
       <c r="F129">
         <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H129" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -27495,175 +27498,175 @@
         <v>1</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N129">
         <v>3</v>
       </c>
       <c r="O129" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="P129" t="s">
         <v>235</v>
       </c>
       <c r="Q129">
-        <v>7.08</v>
+        <v>2.4</v>
       </c>
       <c r="R129">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>2.03</v>
+        <v>5</v>
       </c>
       <c r="T129">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="U129">
-        <v>2.92</v>
+        <v>2.45</v>
       </c>
       <c r="V129">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="W129">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="X129">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="Y129">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z129">
-        <v>4.48</v>
+        <v>1.79</v>
       </c>
       <c r="AA129">
-        <v>4.1</v>
+        <v>2.21</v>
       </c>
       <c r="AB129">
-        <v>1.56</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AC129">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AD129">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AE129">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AF129">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="AG129">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="AH129">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="AI129">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AJ129">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AK129">
-        <v>2.61</v>
+        <v>1.18</v>
       </c>
       <c r="AL129">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AM129">
-        <v>1.1</v>
+        <v>1.95</v>
       </c>
       <c r="AN129">
-        <v>2.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO129">
-        <v>1.67</v>
+        <v>0.43</v>
       </c>
       <c r="AP129">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AQ129">
-        <v>1.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR129">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="AS129">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="AT129">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="AU129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV129">
+        <v>6</v>
+      </c>
+      <c r="AW129">
         <v>8</v>
       </c>
-      <c r="AW129">
-        <v>5</v>
-      </c>
       <c r="AX129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY129">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ129">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA129">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB129">
         <v>4</v>
       </c>
       <c r="BC129">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD129">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="BE129">
         <v>7.5</v>
       </c>
       <c r="BF129">
+        <v>3.8</v>
+      </c>
+      <c r="BG129">
         <v>1.25</v>
       </c>
-      <c r="BG129">
-        <v>1.4</v>
-      </c>
       <c r="BH129">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="BI129">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="BJ129">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="BK129">
-        <v>2.07</v>
+        <v>1.7</v>
       </c>
       <c r="BL129">
+        <v>1.98</v>
+      </c>
+      <c r="BM129">
+        <v>2.06</v>
+      </c>
+      <c r="BN129">
         <v>1.64</v>
       </c>
-      <c r="BM129">
-        <v>2.65</v>
-      </c>
-      <c r="BN129">
-        <v>1.4</v>
-      </c>
       <c r="BO129">
-        <v>3.55</v>
+        <v>2.6</v>
       </c>
       <c r="BP129">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27671,7 +27674,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7574689</v>
+        <v>7574692</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27680,49 +27683,49 @@
         <v>69</v>
       </c>
       <c r="E130" s="2">
-        <v>45647.52083333334</v>
+        <v>45647.625</v>
       </c>
       <c r="F130">
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H130" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O130" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="Q130">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="T130">
         <v>1.48</v>
@@ -27743,19 +27746,19 @@
         <v>1.05</v>
       </c>
       <c r="Z130">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="AA130">
-        <v>2.21</v>
+        <v>3.86</v>
       </c>
       <c r="AB130">
-        <v>9.779999999999999</v>
+        <v>3.09</v>
       </c>
       <c r="AC130">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AD130">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE130">
         <v>1.42</v>
@@ -27764,112 +27767,112 @@
         <v>2.8</v>
       </c>
       <c r="AG130">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="AH130">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AI130">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AJ130">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AK130">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AL130">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM130">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AN130">
-        <v>1.43</v>
+        <v>0.33</v>
       </c>
       <c r="AO130">
+        <v>0.5</v>
+      </c>
+      <c r="AP130">
         <v>0.43</v>
       </c>
-      <c r="AP130">
-        <v>1.25</v>
-      </c>
       <c r="AQ130">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="AR130">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="AS130">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT130">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="AU130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV130">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW130">
         <v>8</v>
       </c>
       <c r="AX130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY130">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ130">
         <v>8</v>
       </c>
       <c r="BA130">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC130">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD130">
+        <v>1.74</v>
+      </c>
+      <c r="BE130">
+        <v>6.5</v>
+      </c>
+      <c r="BF130">
+        <v>2.3</v>
+      </c>
+      <c r="BG130">
         <v>1.3</v>
       </c>
-      <c r="BE130">
-        <v>7.5</v>
-      </c>
-      <c r="BF130">
-        <v>3.8</v>
-      </c>
-      <c r="BG130">
-        <v>1.25</v>
-      </c>
       <c r="BH130">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BI130">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="BJ130">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="BK130">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="BL130">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="BM130">
-        <v>2.06</v>
+        <v>2.35</v>
       </c>
       <c r="BN130">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="BO130">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="BP130">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27877,7 +27880,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7574692</v>
+        <v>7574693</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27886,196 +27889,608 @@
         <v>69</v>
       </c>
       <c r="E131" s="2">
-        <v>45647.625</v>
+        <v>45647.72916666666</v>
       </c>
       <c r="F131">
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H131" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O131" t="s">
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="Q131">
-        <v>2.9</v>
+        <v>7.08</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="S131">
-        <v>3.8</v>
+        <v>2.03</v>
       </c>
       <c r="T131">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="U131">
-        <v>2.45</v>
+        <v>2.92</v>
       </c>
       <c r="V131">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="W131">
+        <v>1.38</v>
+      </c>
+      <c r="X131">
+        <v>7.1</v>
+      </c>
+      <c r="Y131">
+        <v>1.06</v>
+      </c>
+      <c r="Z131">
+        <v>4.48</v>
+      </c>
+      <c r="AA131">
+        <v>4.1</v>
+      </c>
+      <c r="AB131">
+        <v>1.56</v>
+      </c>
+      <c r="AC131">
+        <v>1.05</v>
+      </c>
+      <c r="AD131">
+        <v>9.5</v>
+      </c>
+      <c r="AE131">
         <v>1.3</v>
       </c>
-      <c r="X131">
+      <c r="AF131">
+        <v>3.35</v>
+      </c>
+      <c r="AG131">
+        <v>2.03</v>
+      </c>
+      <c r="AH131">
+        <v>1.85</v>
+      </c>
+      <c r="AI131">
+        <v>2.08</v>
+      </c>
+      <c r="AJ131">
+        <v>1.71</v>
+      </c>
+      <c r="AK131">
+        <v>2.61</v>
+      </c>
+      <c r="AL131">
+        <v>1.23</v>
+      </c>
+      <c r="AM131">
+        <v>1.1</v>
+      </c>
+      <c r="AN131">
+        <v>2.33</v>
+      </c>
+      <c r="AO131">
+        <v>1.67</v>
+      </c>
+      <c r="AP131">
+        <v>2</v>
+      </c>
+      <c r="AQ131">
+        <v>1.86</v>
+      </c>
+      <c r="AR131">
+        <v>1.14</v>
+      </c>
+      <c r="AS131">
+        <v>1.21</v>
+      </c>
+      <c r="AT131">
+        <v>2.35</v>
+      </c>
+      <c r="AU131">
+        <v>3</v>
+      </c>
+      <c r="AV131">
         <v>8</v>
       </c>
-      <c r="Y131">
-        <v>1.05</v>
-      </c>
-      <c r="Z131">
-        <v>1.9</v>
-      </c>
-      <c r="AA131">
-        <v>3.86</v>
-      </c>
-      <c r="AB131">
-        <v>3.09</v>
-      </c>
-      <c r="AC131">
-        <v>1.08</v>
-      </c>
-      <c r="AD131">
-        <v>7.5</v>
-      </c>
-      <c r="AE131">
-        <v>1.42</v>
-      </c>
-      <c r="AF131">
-        <v>2.8</v>
-      </c>
-      <c r="AG131">
-        <v>2.25</v>
-      </c>
-      <c r="AH131">
-        <v>1.63</v>
-      </c>
-      <c r="AI131">
-        <v>1.91</v>
-      </c>
-      <c r="AJ131">
-        <v>1.8</v>
-      </c>
-      <c r="AK131">
-        <v>1.3</v>
-      </c>
-      <c r="AL131">
-        <v>1.3</v>
-      </c>
-      <c r="AM131">
-        <v>1.62</v>
-      </c>
-      <c r="AN131">
-        <v>0.33</v>
-      </c>
-      <c r="AO131">
-        <v>0.5</v>
-      </c>
-      <c r="AP131">
-        <v>0.43</v>
-      </c>
-      <c r="AQ131">
-        <v>0.57</v>
-      </c>
-      <c r="AR131">
-        <v>1.33</v>
-      </c>
-      <c r="AS131">
-        <v>1</v>
-      </c>
-      <c r="AT131">
-        <v>2.33</v>
-      </c>
-      <c r="AU131">
+      <c r="AW131">
         <v>5</v>
       </c>
-      <c r="AV131">
-        <v>2</v>
-      </c>
-      <c r="AW131">
-        <v>8</v>
-      </c>
       <c r="AX131">
+        <v>3</v>
+      </c>
+      <c r="AY131">
+        <v>9</v>
+      </c>
+      <c r="AZ131">
+        <v>13</v>
+      </c>
+      <c r="BA131">
+        <v>2</v>
+      </c>
+      <c r="BB131">
         <v>4</v>
-      </c>
-      <c r="AY131">
-        <v>16</v>
-      </c>
-      <c r="AZ131">
-        <v>8</v>
-      </c>
-      <c r="BA131">
-        <v>5</v>
-      </c>
-      <c r="BB131">
-        <v>1</v>
       </c>
       <c r="BC131">
         <v>6</v>
       </c>
       <c r="BD131">
+        <v>4.3</v>
+      </c>
+      <c r="BE131">
+        <v>7.5</v>
+      </c>
+      <c r="BF131">
+        <v>1.25</v>
+      </c>
+      <c r="BG131">
+        <v>1.4</v>
+      </c>
+      <c r="BH131">
+        <v>2.65</v>
+      </c>
+      <c r="BI131">
+        <v>1.67</v>
+      </c>
+      <c r="BJ131">
+        <v>2.02</v>
+      </c>
+      <c r="BK131">
+        <v>2.07</v>
+      </c>
+      <c r="BL131">
+        <v>1.64</v>
+      </c>
+      <c r="BM131">
+        <v>2.65</v>
+      </c>
+      <c r="BN131">
+        <v>1.4</v>
+      </c>
+      <c r="BO131">
+        <v>3.55</v>
+      </c>
+      <c r="BP131">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7574690</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45648.58333333334</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>79</v>
+      </c>
+      <c r="H132" t="s">
+        <v>77</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>90</v>
+      </c>
+      <c r="P132" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q132">
+        <v>3.7</v>
+      </c>
+      <c r="R132">
+        <v>1.95</v>
+      </c>
+      <c r="S132">
+        <v>2.95</v>
+      </c>
+      <c r="T132">
+        <v>1.48</v>
+      </c>
+      <c r="U132">
+        <v>2.45</v>
+      </c>
+      <c r="V132">
+        <v>3.1</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>7.5</v>
+      </c>
+      <c r="Y132">
+        <v>1.06</v>
+      </c>
+      <c r="Z132">
+        <v>3.17</v>
+      </c>
+      <c r="AA132">
+        <v>3.3</v>
+      </c>
+      <c r="AB132">
+        <v>2.31</v>
+      </c>
+      <c r="AC132">
+        <v>1.08</v>
+      </c>
+      <c r="AD132">
+        <v>7.5</v>
+      </c>
+      <c r="AE132">
+        <v>1.4</v>
+      </c>
+      <c r="AF132">
+        <v>2.88</v>
+      </c>
+      <c r="AG132">
+        <v>2.15</v>
+      </c>
+      <c r="AH132">
+        <v>1.65</v>
+      </c>
+      <c r="AI132">
+        <v>1.85</v>
+      </c>
+      <c r="AJ132">
+        <v>1.85</v>
+      </c>
+      <c r="AK132">
+        <v>1.6</v>
+      </c>
+      <c r="AL132">
+        <v>1.3</v>
+      </c>
+      <c r="AM132">
+        <v>1.33</v>
+      </c>
+      <c r="AN132">
+        <v>2.57</v>
+      </c>
+      <c r="AO132">
+        <v>2.17</v>
+      </c>
+      <c r="AP132">
+        <v>2.25</v>
+      </c>
+      <c r="AQ132">
+        <v>2.29</v>
+      </c>
+      <c r="AR132">
+        <v>1.35</v>
+      </c>
+      <c r="AS132">
+        <v>1.55</v>
+      </c>
+      <c r="AT132">
+        <v>2.9</v>
+      </c>
+      <c r="AU132">
+        <v>7</v>
+      </c>
+      <c r="AV132">
+        <v>6</v>
+      </c>
+      <c r="AW132">
+        <v>3</v>
+      </c>
+      <c r="AX132">
+        <v>5</v>
+      </c>
+      <c r="AY132">
+        <v>13</v>
+      </c>
+      <c r="AZ132">
+        <v>13</v>
+      </c>
+      <c r="BA132">
+        <v>2</v>
+      </c>
+      <c r="BB132">
+        <v>2</v>
+      </c>
+      <c r="BC132">
+        <v>4</v>
+      </c>
+      <c r="BD132">
+        <v>2.32</v>
+      </c>
+      <c r="BE132">
+        <v>6.4</v>
+      </c>
+      <c r="BF132">
         <v>1.74</v>
       </c>
-      <c r="BE131">
-        <v>6.5</v>
-      </c>
-      <c r="BF131">
+      <c r="BG132">
+        <v>1.37</v>
+      </c>
+      <c r="BH132">
+        <v>2.75</v>
+      </c>
+      <c r="BI132">
+        <v>1.63</v>
+      </c>
+      <c r="BJ132">
+        <v>2.1</v>
+      </c>
+      <c r="BK132">
+        <v>2.02</v>
+      </c>
+      <c r="BL132">
+        <v>1.67</v>
+      </c>
+      <c r="BM132">
+        <v>2.6</v>
+      </c>
+      <c r="BN132">
+        <v>1.41</v>
+      </c>
+      <c r="BO132">
+        <v>3.4</v>
+      </c>
+      <c r="BP132">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7574697</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45648.72916666666</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+      <c r="H133" t="s">
+        <v>70</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>90</v>
+      </c>
+      <c r="P133" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q133">
+        <v>7</v>
+      </c>
+      <c r="R133">
+        <v>2.75</v>
+      </c>
+      <c r="S133">
+        <v>1.75</v>
+      </c>
+      <c r="T133">
+        <v>1.24</v>
+      </c>
+      <c r="U133">
+        <v>3.7</v>
+      </c>
+      <c r="V133">
+        <v>2.22</v>
+      </c>
+      <c r="W133">
+        <v>1.6</v>
+      </c>
+      <c r="X133">
+        <v>4.95</v>
+      </c>
+      <c r="Y133">
+        <v>1.14</v>
+      </c>
+      <c r="Z133">
+        <v>11</v>
+      </c>
+      <c r="AA133">
+        <v>6</v>
+      </c>
+      <c r="AB133">
+        <v>1.25</v>
+      </c>
+      <c r="AC133">
+        <v>1.01</v>
+      </c>
+      <c r="AD133">
+        <v>17</v>
+      </c>
+      <c r="AE133">
+        <v>1.16</v>
+      </c>
+      <c r="AF133">
+        <v>5</v>
+      </c>
+      <c r="AG133">
+        <v>1.62</v>
+      </c>
+      <c r="AH133">
         <v>2.3</v>
       </c>
-      <c r="BG131">
-        <v>1.3</v>
-      </c>
-      <c r="BH131">
-        <v>3.05</v>
-      </c>
-      <c r="BI131">
-        <v>1.53</v>
-      </c>
-      <c r="BJ131">
-        <v>2.28</v>
-      </c>
-      <c r="BK131">
+      <c r="AI133">
         <v>1.87</v>
       </c>
-      <c r="BL131">
-        <v>1.8</v>
-      </c>
-      <c r="BM131">
-        <v>2.35</v>
-      </c>
-      <c r="BN131">
-        <v>1.5</v>
-      </c>
-      <c r="BO131">
-        <v>3.05</v>
-      </c>
-      <c r="BP131">
-        <v>1.3</v>
+      <c r="AJ133">
+        <v>1.9</v>
+      </c>
+      <c r="AK133">
+        <v>3.5</v>
+      </c>
+      <c r="AL133">
+        <v>1.11</v>
+      </c>
+      <c r="AM133">
+        <v>1.03</v>
+      </c>
+      <c r="AN133">
+        <v>1.83</v>
+      </c>
+      <c r="AO133">
+        <v>2.57</v>
+      </c>
+      <c r="AP133">
+        <v>1.71</v>
+      </c>
+      <c r="AQ133">
+        <v>2.38</v>
+      </c>
+      <c r="AR133">
+        <v>1.29</v>
+      </c>
+      <c r="AS133">
+        <v>2.03</v>
+      </c>
+      <c r="AT133">
+        <v>3.32</v>
+      </c>
+      <c r="AU133">
+        <v>2</v>
+      </c>
+      <c r="AV133">
+        <v>8</v>
+      </c>
+      <c r="AW133">
+        <v>2</v>
+      </c>
+      <c r="AX133">
+        <v>4</v>
+      </c>
+      <c r="AY133">
+        <v>4</v>
+      </c>
+      <c r="AZ133">
+        <v>15</v>
+      </c>
+      <c r="BA133">
+        <v>3</v>
+      </c>
+      <c r="BB133">
+        <v>8</v>
+      </c>
+      <c r="BC133">
+        <v>11</v>
+      </c>
+      <c r="BD133">
+        <v>4.1</v>
+      </c>
+      <c r="BE133">
+        <v>7.5</v>
+      </c>
+      <c r="BF133">
+        <v>1.27</v>
+      </c>
+      <c r="BG133">
+        <v>1.4</v>
+      </c>
+      <c r="BH133">
+        <v>2.65</v>
+      </c>
+      <c r="BI133">
+        <v>1.66</v>
+      </c>
+      <c r="BJ133">
+        <v>2.04</v>
+      </c>
+      <c r="BK133">
+        <v>2.06</v>
+      </c>
+      <c r="BL133">
+        <v>1.64</v>
+      </c>
+      <c r="BM133">
+        <v>2.63</v>
+      </c>
+      <c r="BN133">
+        <v>1.4</v>
+      </c>
+      <c r="BO133">
+        <v>3.45</v>
+      </c>
+      <c r="BP133">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,12 @@
     <t>['19', '20', '88']</t>
   </si>
   <si>
+    <t>['24', '49']</t>
+  </si>
+  <si>
+    <t>['28', '73', '90+4']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -728,6 +734,9 @@
   </si>
   <si>
     <t>['51', '77']</t>
+  </si>
+  <si>
+    <t>['9', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1438,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ2">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1554,7 +1563,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1635,7 +1644,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ3">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1760,7 +1769,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -2172,7 +2181,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2584,7 +2593,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3202,7 +3211,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3408,7 +3417,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3820,7 +3829,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4232,7 +4241,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4516,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4644,7 +4653,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4850,7 +4859,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4928,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>1.29</v>
@@ -5056,7 +5065,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5262,7 +5271,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5549,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="AQ22">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -6167,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR25">
         <v>0.7</v>
@@ -6910,7 +6919,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7116,7 +7125,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7322,7 +7331,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7400,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>1.14</v>
@@ -7609,7 +7618,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR32">
         <v>0.64</v>
@@ -8352,7 +8361,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8430,7 +8439,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.29</v>
@@ -8764,7 +8773,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8970,7 +8979,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9257,7 +9266,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ40">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9382,7 +9391,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9588,7 +9597,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9794,7 +9803,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10081,7 +10090,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR44">
         <v>0.8100000000000001</v>
@@ -10206,7 +10215,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10412,7 +10421,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10490,7 +10499,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>1.13</v>
@@ -10618,7 +10627,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10824,7 +10833,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -10905,7 +10914,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11236,7 +11245,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11314,7 +11323,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1.86</v>
@@ -11648,7 +11657,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11854,7 +11863,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12266,7 +12275,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12472,7 +12481,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12678,7 +12687,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12756,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
         <v>0.75</v>
@@ -12884,7 +12893,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13090,7 +13099,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13377,7 +13386,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR60">
         <v>1.14</v>
@@ -13789,7 +13798,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR62">
         <v>1.53</v>
@@ -14326,7 +14335,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14944,7 +14953,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15437,7 +15446,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ70">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15562,7 +15571,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15640,7 +15649,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -15768,7 +15777,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16055,7 +16064,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR73">
         <v>1.21</v>
@@ -16180,7 +16189,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16386,7 +16395,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16592,7 +16601,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16798,7 +16807,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17291,7 +17300,7 @@
         <v>3</v>
       </c>
       <c r="AQ79">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR79">
         <v>2.16</v>
@@ -17416,7 +17425,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17494,7 +17503,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80">
         <v>1.13</v>
@@ -17622,7 +17631,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17828,7 +17837,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18034,7 +18043,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18240,7 +18249,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18446,7 +18455,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18652,7 +18661,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18936,7 +18945,7 @@
         <v>1.2</v>
       </c>
       <c r="AP87">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>0.75</v>
@@ -19064,7 +19073,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19351,7 +19360,7 @@
         <v>3</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR89">
         <v>2.03</v>
@@ -19682,7 +19691,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19888,7 +19897,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20506,7 +20515,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -20587,7 +20596,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ95">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR95">
         <v>1.16</v>
@@ -20790,10 +20799,10 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR96">
         <v>1.15</v>
@@ -21124,7 +21133,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21742,7 +21751,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22154,7 +22163,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22360,7 +22369,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22566,7 +22575,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22772,7 +22781,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23056,7 +23065,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>0.63</v>
@@ -23596,7 +23605,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23677,7 +23686,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR110">
         <v>1.54</v>
@@ -23802,7 +23811,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -23883,7 +23892,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ111">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR111">
         <v>1.27</v>
@@ -24295,7 +24304,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ113">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR113">
         <v>1.38</v>
@@ -24420,7 +24429,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q114">
         <v>6.5</v>
@@ -24626,7 +24635,7 @@
         <v>131</v>
       </c>
       <c r="P115" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q115">
         <v>3.25</v>
@@ -25038,7 +25047,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25116,7 +25125,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -25244,7 +25253,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -25656,7 +25665,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26068,7 +26077,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -26274,7 +26283,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26480,7 +26489,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26892,7 +26901,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27098,7 +27107,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27304,7 +27313,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27510,7 +27519,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27922,7 +27931,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28128,7 +28137,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28491,6 +28500,624 @@
       </c>
       <c r="BP133">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7574694</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45648.875</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>87</v>
+      </c>
+      <c r="H134" t="s">
+        <v>81</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>98</v>
+      </c>
+      <c r="P134" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>3.55</v>
+      </c>
+      <c r="T134">
+        <v>1.45</v>
+      </c>
+      <c r="U134">
+        <v>2.55</v>
+      </c>
+      <c r="V134">
+        <v>3</v>
+      </c>
+      <c r="W134">
+        <v>1.33</v>
+      </c>
+      <c r="X134">
+        <v>7.5</v>
+      </c>
+      <c r="Y134">
+        <v>1.06</v>
+      </c>
+      <c r="Z134">
+        <v>2.45</v>
+      </c>
+      <c r="AA134">
+        <v>3.05</v>
+      </c>
+      <c r="AB134">
+        <v>2.85</v>
+      </c>
+      <c r="AC134">
+        <v>1.07</v>
+      </c>
+      <c r="AD134">
+        <v>8</v>
+      </c>
+      <c r="AE134">
+        <v>1.38</v>
+      </c>
+      <c r="AF134">
+        <v>3</v>
+      </c>
+      <c r="AG134">
+        <v>2.1</v>
+      </c>
+      <c r="AH134">
+        <v>1.65</v>
+      </c>
+      <c r="AI134">
+        <v>1.8</v>
+      </c>
+      <c r="AJ134">
+        <v>1.91</v>
+      </c>
+      <c r="AK134">
+        <v>1.38</v>
+      </c>
+      <c r="AL134">
+        <v>1.28</v>
+      </c>
+      <c r="AM134">
+        <v>1.55</v>
+      </c>
+      <c r="AN134">
+        <v>1.57</v>
+      </c>
+      <c r="AO134">
+        <v>0.43</v>
+      </c>
+      <c r="AP134">
+        <v>1.75</v>
+      </c>
+      <c r="AQ134">
+        <v>0.38</v>
+      </c>
+      <c r="AR134">
+        <v>1.19</v>
+      </c>
+      <c r="AS134">
+        <v>0.76</v>
+      </c>
+      <c r="AT134">
+        <v>1.95</v>
+      </c>
+      <c r="AU134">
+        <v>6</v>
+      </c>
+      <c r="AV134">
+        <v>7</v>
+      </c>
+      <c r="AW134">
+        <v>4</v>
+      </c>
+      <c r="AX134">
+        <v>13</v>
+      </c>
+      <c r="AY134">
+        <v>11</v>
+      </c>
+      <c r="AZ134">
+        <v>27</v>
+      </c>
+      <c r="BA134">
+        <v>5</v>
+      </c>
+      <c r="BB134">
+        <v>6</v>
+      </c>
+      <c r="BC134">
+        <v>11</v>
+      </c>
+      <c r="BD134">
+        <v>1.55</v>
+      </c>
+      <c r="BE134">
+        <v>7</v>
+      </c>
+      <c r="BF134">
+        <v>2.65</v>
+      </c>
+      <c r="BG134">
+        <v>1.18</v>
+      </c>
+      <c r="BH134">
+        <v>4.1</v>
+      </c>
+      <c r="BI134">
+        <v>1.34</v>
+      </c>
+      <c r="BJ134">
+        <v>2.9</v>
+      </c>
+      <c r="BK134">
+        <v>1.56</v>
+      </c>
+      <c r="BL134">
+        <v>2.23</v>
+      </c>
+      <c r="BM134">
+        <v>1.87</v>
+      </c>
+      <c r="BN134">
+        <v>1.79</v>
+      </c>
+      <c r="BO134">
+        <v>2.33</v>
+      </c>
+      <c r="BP134">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7574695</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45648.875</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>85</v>
+      </c>
+      <c r="H135" t="s">
+        <v>82</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135" t="s">
+        <v>172</v>
+      </c>
+      <c r="P135" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q135">
+        <v>2</v>
+      </c>
+      <c r="R135">
+        <v>2.2</v>
+      </c>
+      <c r="S135">
+        <v>6</v>
+      </c>
+      <c r="T135">
+        <v>1.38</v>
+      </c>
+      <c r="U135">
+        <v>2.8</v>
+      </c>
+      <c r="V135">
+        <v>2.8</v>
+      </c>
+      <c r="W135">
+        <v>1.38</v>
+      </c>
+      <c r="X135">
+        <v>7</v>
+      </c>
+      <c r="Y135">
+        <v>1.07</v>
+      </c>
+      <c r="Z135">
+        <v>1.5</v>
+      </c>
+      <c r="AA135">
+        <v>4</v>
+      </c>
+      <c r="AB135">
+        <v>6.25</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+      <c r="AD135">
+        <v>9</v>
+      </c>
+      <c r="AE135">
+        <v>1.3</v>
+      </c>
+      <c r="AF135">
+        <v>3.4</v>
+      </c>
+      <c r="AG135">
+        <v>1.9</v>
+      </c>
+      <c r="AH135">
+        <v>1.8</v>
+      </c>
+      <c r="AI135">
+        <v>2.05</v>
+      </c>
+      <c r="AJ135">
+        <v>1.7</v>
+      </c>
+      <c r="AK135">
+        <v>1.11</v>
+      </c>
+      <c r="AL135">
+        <v>1.18</v>
+      </c>
+      <c r="AM135">
+        <v>2.5</v>
+      </c>
+      <c r="AN135">
+        <v>2.17</v>
+      </c>
+      <c r="AO135">
+        <v>0.29</v>
+      </c>
+      <c r="AP135">
+        <v>2</v>
+      </c>
+      <c r="AQ135">
+        <v>0.38</v>
+      </c>
+      <c r="AR135">
+        <v>1.28</v>
+      </c>
+      <c r="AS135">
+        <v>1.4</v>
+      </c>
+      <c r="AT135">
+        <v>2.68</v>
+      </c>
+      <c r="AU135">
+        <v>4</v>
+      </c>
+      <c r="AV135">
+        <v>3</v>
+      </c>
+      <c r="AW135">
+        <v>6</v>
+      </c>
+      <c r="AX135">
+        <v>5</v>
+      </c>
+      <c r="AY135">
+        <v>17</v>
+      </c>
+      <c r="AZ135">
+        <v>9</v>
+      </c>
+      <c r="BA135">
+        <v>7</v>
+      </c>
+      <c r="BB135">
+        <v>1</v>
+      </c>
+      <c r="BC135">
+        <v>8</v>
+      </c>
+      <c r="BD135">
+        <v>1.13</v>
+      </c>
+      <c r="BE135">
+        <v>10.5</v>
+      </c>
+      <c r="BF135">
+        <v>6.5</v>
+      </c>
+      <c r="BG135">
+        <v>1.13</v>
+      </c>
+      <c r="BH135">
+        <v>4.55</v>
+      </c>
+      <c r="BI135">
+        <v>1.28</v>
+      </c>
+      <c r="BJ135">
+        <v>3.3</v>
+      </c>
+      <c r="BK135">
+        <v>1.5</v>
+      </c>
+      <c r="BL135">
+        <v>2.35</v>
+      </c>
+      <c r="BM135">
+        <v>1.88</v>
+      </c>
+      <c r="BN135">
+        <v>1.8</v>
+      </c>
+      <c r="BO135">
+        <v>2.48</v>
+      </c>
+      <c r="BP135">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7574696</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45648.875</v>
+      </c>
+      <c r="F136">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>83</v>
+      </c>
+      <c r="H136" t="s">
+        <v>74</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>173</v>
+      </c>
+      <c r="P136" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q136">
+        <v>1.4</v>
+      </c>
+      <c r="R136">
+        <v>3.1</v>
+      </c>
+      <c r="S136">
+        <v>13</v>
+      </c>
+      <c r="T136">
+        <v>1.2</v>
+      </c>
+      <c r="U136">
+        <v>4</v>
+      </c>
+      <c r="V136">
+        <v>1.91</v>
+      </c>
+      <c r="W136">
+        <v>1.8</v>
+      </c>
+      <c r="X136">
+        <v>3.8</v>
+      </c>
+      <c r="Y136">
+        <v>1.22</v>
+      </c>
+      <c r="Z136">
+        <v>1.06</v>
+      </c>
+      <c r="AA136">
+        <v>10</v>
+      </c>
+      <c r="AB136">
+        <v>21</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>14</v>
+      </c>
+      <c r="AE136">
+        <v>1.09</v>
+      </c>
+      <c r="AF136">
+        <v>7</v>
+      </c>
+      <c r="AG136">
+        <v>1.33</v>
+      </c>
+      <c r="AH136">
+        <v>3</v>
+      </c>
+      <c r="AI136">
+        <v>2.35</v>
+      </c>
+      <c r="AJ136">
+        <v>1.53</v>
+      </c>
+      <c r="AK136">
+        <v>1.01</v>
+      </c>
+      <c r="AL136">
+        <v>1.05</v>
+      </c>
+      <c r="AM136">
+        <v>7</v>
+      </c>
+      <c r="AN136">
+        <v>3</v>
+      </c>
+      <c r="AO136">
+        <v>0.5</v>
+      </c>
+      <c r="AP136">
+        <v>3</v>
+      </c>
+      <c r="AQ136">
+        <v>0.43</v>
+      </c>
+      <c r="AR136">
+        <v>2.03</v>
+      </c>
+      <c r="AS136">
+        <v>0.98</v>
+      </c>
+      <c r="AT136">
+        <v>3.01</v>
+      </c>
+      <c r="AU136">
+        <v>7</v>
+      </c>
+      <c r="AV136">
+        <v>3</v>
+      </c>
+      <c r="AW136">
+        <v>7</v>
+      </c>
+      <c r="AX136">
+        <v>8</v>
+      </c>
+      <c r="AY136">
+        <v>17</v>
+      </c>
+      <c r="AZ136">
+        <v>12</v>
+      </c>
+      <c r="BA136">
+        <v>4</v>
+      </c>
+      <c r="BB136">
+        <v>1</v>
+      </c>
+      <c r="BC136">
+        <v>5</v>
+      </c>
+      <c r="BD136">
+        <v>1.08</v>
+      </c>
+      <c r="BE136">
+        <v>12.5</v>
+      </c>
+      <c r="BF136">
+        <v>8</v>
+      </c>
+      <c r="BG136">
+        <v>1.21</v>
+      </c>
+      <c r="BH136">
+        <v>3.65</v>
+      </c>
+      <c r="BI136">
+        <v>1.38</v>
+      </c>
+      <c r="BJ136">
+        <v>2.7</v>
+      </c>
+      <c r="BK136">
+        <v>1.63</v>
+      </c>
+      <c r="BL136">
+        <v>2.08</v>
+      </c>
+      <c r="BM136">
+        <v>1.97</v>
+      </c>
+      <c r="BN136">
+        <v>1.71</v>
+      </c>
+      <c r="BO136">
+        <v>2.48</v>
+      </c>
+      <c r="BP136">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -28507,7 +28507,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7574694</v>
+        <v>7574695</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28516,196 +28516,196 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45648.875</v>
+        <v>45649.65625</v>
       </c>
       <c r="F134">
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H134" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O134" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="Q134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S134">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="T134">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="U134">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="V134">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="W134">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X134">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y134">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z134">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="AA134">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="AB134">
-        <v>2.85</v>
+        <v>6.25</v>
       </c>
       <c r="AC134">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD134">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE134">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AF134">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AG134">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AH134">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AI134">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AJ134">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AK134">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="AL134">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AM134">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="AN134">
-        <v>1.57</v>
+        <v>2.17</v>
       </c>
       <c r="AO134">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
       <c r="AP134">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>0.38</v>
       </c>
       <c r="AR134">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AS134">
-        <v>0.76</v>
+        <v>1.4</v>
       </c>
       <c r="AT134">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="AU134">
+        <v>4</v>
+      </c>
+      <c r="AV134">
+        <v>3</v>
+      </c>
+      <c r="AW134">
         <v>6</v>
       </c>
-      <c r="AV134">
+      <c r="AX134">
+        <v>5</v>
+      </c>
+      <c r="AY134">
+        <v>17</v>
+      </c>
+      <c r="AZ134">
+        <v>9</v>
+      </c>
+      <c r="BA134">
         <v>7</v>
       </c>
-      <c r="AW134">
-        <v>4</v>
-      </c>
-      <c r="AX134">
-        <v>13</v>
-      </c>
-      <c r="AY134">
-        <v>11</v>
-      </c>
-      <c r="AZ134">
-        <v>27</v>
-      </c>
-      <c r="BA134">
-        <v>5</v>
-      </c>
       <c r="BB134">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC134">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD134">
-        <v>1.55</v>
+        <v>1.13</v>
       </c>
       <c r="BE134">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="BF134">
-        <v>2.65</v>
+        <v>6.5</v>
       </c>
       <c r="BG134">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="BH134">
-        <v>4.1</v>
+        <v>4.55</v>
       </c>
       <c r="BI134">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="BJ134">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BK134">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="BL134">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="BM134">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="BN134">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="BO134">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="BP134">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28713,7 +28713,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7574695</v>
+        <v>7574696</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28722,196 +28722,196 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45648.875</v>
+        <v>45649.65625</v>
       </c>
       <c r="F135">
         <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H135" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>173</v>
+      </c>
+      <c r="P135" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q135">
+        <v>1.4</v>
+      </c>
+      <c r="R135">
+        <v>3.1</v>
+      </c>
+      <c r="S135">
+        <v>13</v>
+      </c>
+      <c r="T135">
+        <v>1.2</v>
+      </c>
+      <c r="U135">
         <v>4</v>
       </c>
-      <c r="O135" t="s">
-        <v>172</v>
-      </c>
-      <c r="P135" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q135">
-        <v>2</v>
-      </c>
-      <c r="R135">
-        <v>2.2</v>
-      </c>
-      <c r="S135">
-        <v>6</v>
-      </c>
-      <c r="T135">
-        <v>1.38</v>
-      </c>
-      <c r="U135">
-        <v>2.8</v>
-      </c>
       <c r="V135">
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="W135">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="X135">
+        <v>3.8</v>
+      </c>
+      <c r="Y135">
+        <v>1.22</v>
+      </c>
+      <c r="Z135">
+        <v>1.06</v>
+      </c>
+      <c r="AA135">
+        <v>10</v>
+      </c>
+      <c r="AB135">
+        <v>21</v>
+      </c>
+      <c r="AC135">
+        <v>1.01</v>
+      </c>
+      <c r="AD135">
+        <v>14</v>
+      </c>
+      <c r="AE135">
+        <v>1.09</v>
+      </c>
+      <c r="AF135">
         <v>7</v>
       </c>
-      <c r="Y135">
-        <v>1.07</v>
-      </c>
-      <c r="Z135">
-        <v>1.5</v>
-      </c>
-      <c r="AA135">
-        <v>4</v>
-      </c>
-      <c r="AB135">
-        <v>6.25</v>
-      </c>
-      <c r="AC135">
+      <c r="AG135">
+        <v>1.33</v>
+      </c>
+      <c r="AH135">
+        <v>3</v>
+      </c>
+      <c r="AI135">
+        <v>2.35</v>
+      </c>
+      <c r="AJ135">
+        <v>1.53</v>
+      </c>
+      <c r="AK135">
+        <v>1.01</v>
+      </c>
+      <c r="AL135">
         <v>1.05</v>
       </c>
-      <c r="AD135">
-        <v>9</v>
-      </c>
-      <c r="AE135">
-        <v>1.3</v>
-      </c>
-      <c r="AF135">
-        <v>3.4</v>
-      </c>
-      <c r="AG135">
-        <v>1.9</v>
-      </c>
-      <c r="AH135">
-        <v>1.8</v>
-      </c>
-      <c r="AI135">
-        <v>2.05</v>
-      </c>
-      <c r="AJ135">
-        <v>1.7</v>
-      </c>
-      <c r="AK135">
-        <v>1.11</v>
-      </c>
-      <c r="AL135">
-        <v>1.18</v>
-      </c>
       <c r="AM135">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="AN135">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="AO135">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="AP135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ135">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR135">
-        <v>1.28</v>
+        <v>2.03</v>
       </c>
       <c r="AS135">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="AT135">
-        <v>2.68</v>
+        <v>3.01</v>
       </c>
       <c r="AU135">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV135">
         <v>3</v>
       </c>
       <c r="AW135">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX135">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY135">
         <v>17</v>
       </c>
       <c r="AZ135">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA135">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB135">
         <v>1</v>
       </c>
       <c r="BC135">
+        <v>5</v>
+      </c>
+      <c r="BD135">
+        <v>1.08</v>
+      </c>
+      <c r="BE135">
+        <v>12.5</v>
+      </c>
+      <c r="BF135">
         <v>8</v>
       </c>
-      <c r="BD135">
-        <v>1.13</v>
-      </c>
-      <c r="BE135">
-        <v>10.5</v>
-      </c>
-      <c r="BF135">
-        <v>6.5</v>
-      </c>
       <c r="BG135">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="BH135">
-        <v>4.55</v>
+        <v>3.65</v>
       </c>
       <c r="BI135">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="BJ135">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="BK135">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="BL135">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="BM135">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="BN135">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="BO135">
         <v>2.48</v>
       </c>
       <c r="BP135">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -28919,7 +28919,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7574696</v>
+        <v>7574694</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28928,16 +28928,16 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45648.875</v>
+        <v>45649.73958333334</v>
       </c>
       <c r="F136">
         <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H136" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -28949,175 +28949,175 @@
         <v>1</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M136">
         <v>0</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="P136" t="s">
         <v>90</v>
       </c>
       <c r="Q136">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="R136">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>13</v>
+        <v>3.55</v>
       </c>
       <c r="T136">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="U136">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="V136">
+        <v>3</v>
+      </c>
+      <c r="W136">
+        <v>1.33</v>
+      </c>
+      <c r="X136">
+        <v>7.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>2.45</v>
+      </c>
+      <c r="AA136">
+        <v>3.05</v>
+      </c>
+      <c r="AB136">
+        <v>2.85</v>
+      </c>
+      <c r="AC136">
+        <v>1.07</v>
+      </c>
+      <c r="AD136">
+        <v>8</v>
+      </c>
+      <c r="AE136">
+        <v>1.38</v>
+      </c>
+      <c r="AF136">
+        <v>3</v>
+      </c>
+      <c r="AG136">
+        <v>2.1</v>
+      </c>
+      <c r="AH136">
+        <v>1.65</v>
+      </c>
+      <c r="AI136">
+        <v>1.8</v>
+      </c>
+      <c r="AJ136">
         <v>1.91</v>
       </c>
-      <c r="W136">
-        <v>1.8</v>
-      </c>
-      <c r="X136">
-        <v>3.8</v>
-      </c>
-      <c r="Y136">
-        <v>1.22</v>
-      </c>
-      <c r="Z136">
-        <v>1.06</v>
-      </c>
-      <c r="AA136">
-        <v>10</v>
-      </c>
-      <c r="AB136">
-        <v>21</v>
-      </c>
-      <c r="AC136">
-        <v>1.01</v>
-      </c>
-      <c r="AD136">
-        <v>14</v>
-      </c>
-      <c r="AE136">
-        <v>1.09</v>
-      </c>
-      <c r="AF136">
+      <c r="AK136">
+        <v>1.38</v>
+      </c>
+      <c r="AL136">
+        <v>1.28</v>
+      </c>
+      <c r="AM136">
+        <v>1.55</v>
+      </c>
+      <c r="AN136">
+        <v>1.57</v>
+      </c>
+      <c r="AO136">
+        <v>0.43</v>
+      </c>
+      <c r="AP136">
+        <v>1.75</v>
+      </c>
+      <c r="AQ136">
+        <v>0.38</v>
+      </c>
+      <c r="AR136">
+        <v>1.19</v>
+      </c>
+      <c r="AS136">
+        <v>0.76</v>
+      </c>
+      <c r="AT136">
+        <v>1.95</v>
+      </c>
+      <c r="AU136">
+        <v>5</v>
+      </c>
+      <c r="AV136">
         <v>7</v>
       </c>
-      <c r="AG136">
-        <v>1.33</v>
-      </c>
-      <c r="AH136">
-        <v>3</v>
-      </c>
-      <c r="AI136">
-        <v>2.35</v>
-      </c>
-      <c r="AJ136">
-        <v>1.53</v>
-      </c>
-      <c r="AK136">
-        <v>1.01</v>
-      </c>
-      <c r="AL136">
-        <v>1.05</v>
-      </c>
-      <c r="AM136">
+      <c r="AW136">
+        <v>2</v>
+      </c>
+      <c r="AX136">
+        <v>3</v>
+      </c>
+      <c r="AY136">
+        <v>9</v>
+      </c>
+      <c r="AZ136">
+        <v>20</v>
+      </c>
+      <c r="BA136">
+        <v>5</v>
+      </c>
+      <c r="BB136">
+        <v>6</v>
+      </c>
+      <c r="BC136">
+        <v>11</v>
+      </c>
+      <c r="BD136">
+        <v>1.55</v>
+      </c>
+      <c r="BE136">
         <v>7</v>
       </c>
-      <c r="AN136">
-        <v>3</v>
-      </c>
-      <c r="AO136">
-        <v>0.5</v>
-      </c>
-      <c r="AP136">
-        <v>3</v>
-      </c>
-      <c r="AQ136">
-        <v>0.43</v>
-      </c>
-      <c r="AR136">
-        <v>2.03</v>
-      </c>
-      <c r="AS136">
-        <v>0.98</v>
-      </c>
-      <c r="AT136">
-        <v>3.01</v>
-      </c>
-      <c r="AU136">
-        <v>7</v>
-      </c>
-      <c r="AV136">
-        <v>3</v>
-      </c>
-      <c r="AW136">
-        <v>7</v>
-      </c>
-      <c r="AX136">
-        <v>8</v>
-      </c>
-      <c r="AY136">
-        <v>17</v>
-      </c>
-      <c r="AZ136">
-        <v>12</v>
-      </c>
-      <c r="BA136">
-        <v>4</v>
-      </c>
-      <c r="BB136">
-        <v>1</v>
-      </c>
-      <c r="BC136">
-        <v>5</v>
-      </c>
-      <c r="BD136">
-        <v>1.08</v>
-      </c>
-      <c r="BE136">
-        <v>12.5</v>
-      </c>
       <c r="BF136">
-        <v>8</v>
+        <v>2.65</v>
       </c>
       <c r="BG136">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BH136">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="BI136">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BJ136">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BK136">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="BL136">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="BM136">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="BN136">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="BO136">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="BP136">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,15 @@
     <t>['28', '73', '90+4']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['22', '45+3']</t>
+  </si>
+  <si>
+    <t>['31', '55', '59', '88']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -629,9 +638,6 @@
   </si>
   <si>
     <t>['8']</t>
-  </si>
-  <si>
-    <t>['52']</t>
   </si>
   <si>
     <t>['90+5', '90+15']</t>
@@ -737,6 +743,9 @@
   </si>
   <si>
     <t>['9', '90+3']</t>
+  </si>
+  <si>
+    <t>['2', '57']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1563,7 +1572,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1641,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ3">
         <v>0.38</v>
@@ -1769,7 +1778,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -1850,7 +1859,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2056,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2181,7 +2190,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2259,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
         <v>1.29</v>
@@ -2593,7 +2602,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -2674,7 +2683,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2880,7 +2889,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3211,7 +3220,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3417,7 +3426,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3829,7 +3838,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4241,7 +4250,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4653,7 +4662,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4859,7 +4868,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5065,7 +5074,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5271,7 +5280,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5764,7 +5773,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.27</v>
@@ -5970,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR24">
         <v>2.62</v>
@@ -6379,10 +6388,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>0.6</v>
@@ -6585,7 +6594,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27">
         <v>1.13</v>
@@ -6794,7 +6803,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR28">
         <v>1.72</v>
@@ -6919,7 +6928,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7125,7 +7134,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7331,7 +7340,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8361,7 +8370,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8773,7 +8782,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8979,7 +8988,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9060,7 +9069,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR39">
         <v>1.27</v>
@@ -9263,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ40">
         <v>0.38</v>
@@ -9391,7 +9400,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9472,7 +9481,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ41">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9597,7 +9606,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9803,7 +9812,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10087,7 +10096,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44">
         <v>0.38</v>
@@ -10215,7 +10224,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10421,7 +10430,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10502,7 +10511,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.1</v>
@@ -10627,7 +10636,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10833,7 +10842,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11120,7 +11129,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ49">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR49">
         <v>1.09</v>
@@ -11245,7 +11254,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11657,7 +11666,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11863,7 +11872,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12275,7 +12284,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12481,7 +12490,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12559,7 +12568,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
         <v>2.38</v>
@@ -12687,7 +12696,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12768,7 +12777,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -12893,7 +12902,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13099,7 +13108,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13180,7 +13189,7 @@
         <v>3</v>
       </c>
       <c r="AQ59">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
         <v>2.26</v>
@@ -14004,7 +14013,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ63">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.11</v>
@@ -14207,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ64">
         <v>0.75</v>
@@ -14335,7 +14344,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="Q65">
         <v>3.5</v>
@@ -14622,7 +14631,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ66">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -14953,7 +14962,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15571,7 +15580,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15652,7 +15661,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.19</v>
@@ -15777,7 +15786,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16189,7 +16198,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16270,7 +16279,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ74">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.21</v>
@@ -16395,7 +16404,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16473,7 +16482,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
         <v>0.5</v>
@@ -16601,7 +16610,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16682,7 +16691,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ76">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR76">
         <v>1.15</v>
@@ -16807,7 +16816,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17425,7 +17434,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17631,7 +17640,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17709,7 +17718,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ81">
         <v>1.86</v>
@@ -17837,7 +17846,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17918,7 +17927,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ82">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR82">
         <v>2.06</v>
@@ -18043,7 +18052,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18249,7 +18258,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18455,7 +18464,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18536,7 +18545,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ85">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.21</v>
@@ -18661,7 +18670,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18739,7 +18748,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ86">
         <v>1.29</v>
@@ -18948,7 +18957,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19073,7 +19082,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19691,7 +19700,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19772,7 +19781,7 @@
         <v>2</v>
       </c>
       <c r="AQ91">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
         <v>1.03</v>
@@ -19897,7 +19906,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20181,7 +20190,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93">
         <v>0.57</v>
@@ -20515,7 +20524,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21133,7 +21142,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21626,7 +21635,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ100">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR100">
         <v>1.15</v>
@@ -21751,7 +21760,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -21832,7 +21841,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ101">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22038,7 +22047,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ102">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>1.15</v>
@@ -22163,7 +22172,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22369,7 +22378,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22447,7 +22456,7 @@
         <v>1.6</v>
       </c>
       <c r="AP104">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
         <v>1.29</v>
@@ -22575,7 +22584,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22781,7 +22790,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -22859,7 +22868,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ106">
         <v>2.29</v>
@@ -23068,7 +23077,7 @@
         <v>2</v>
       </c>
       <c r="AQ107">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
@@ -23605,7 +23614,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23811,7 +23820,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24429,7 +24438,7 @@
         <v>161</v>
       </c>
       <c r="P114" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="Q114">
         <v>6.5</v>
@@ -24635,7 +24644,7 @@
         <v>131</v>
       </c>
       <c r="P115" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="Q115">
         <v>3.25</v>
@@ -25047,7 +25056,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25253,7 +25262,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -25334,7 +25343,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ118">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR118">
         <v>1.14</v>
@@ -25540,7 +25549,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ119">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -25665,7 +25674,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -25746,7 +25755,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ120">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>2.02</v>
@@ -26077,7 +26086,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -26155,7 +26164,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ122">
         <v>2</v>
@@ -26283,7 +26292,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26361,7 +26370,7 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ123">
         <v>1.14</v>
@@ -26489,7 +26498,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26776,7 +26785,7 @@
         <v>3</v>
       </c>
       <c r="AQ125">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR125">
         <v>2.03</v>
@@ -26901,7 +26910,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27107,7 +27116,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27313,7 +27322,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27519,7 +27528,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27931,7 +27940,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28137,7 +28146,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28549,7 +28558,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29118,6 +29127,830 @@
       </c>
       <c r="BP136">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7574704</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45653.71875</v>
+      </c>
+      <c r="F137">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>78</v>
+      </c>
+      <c r="H137" t="s">
+        <v>80</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>119</v>
+      </c>
+      <c r="P137" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q137">
+        <v>3</v>
+      </c>
+      <c r="R137">
+        <v>1.93</v>
+      </c>
+      <c r="S137">
+        <v>3.65</v>
+      </c>
+      <c r="T137">
+        <v>1.5</v>
+      </c>
+      <c r="U137">
+        <v>2.4</v>
+      </c>
+      <c r="V137">
+        <v>3.3</v>
+      </c>
+      <c r="W137">
+        <v>1.28</v>
+      </c>
+      <c r="X137">
+        <v>8</v>
+      </c>
+      <c r="Y137">
+        <v>1.05</v>
+      </c>
+      <c r="Z137">
+        <v>2.3</v>
+      </c>
+      <c r="AA137">
+        <v>3.1</v>
+      </c>
+      <c r="AB137">
+        <v>3.25</v>
+      </c>
+      <c r="AC137">
+        <v>1.08</v>
+      </c>
+      <c r="AD137">
+        <v>7.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.42</v>
+      </c>
+      <c r="AF137">
+        <v>2.8</v>
+      </c>
+      <c r="AG137">
+        <v>2.3</v>
+      </c>
+      <c r="AH137">
+        <v>1.6</v>
+      </c>
+      <c r="AI137">
+        <v>1.91</v>
+      </c>
+      <c r="AJ137">
+        <v>1.8</v>
+      </c>
+      <c r="AK137">
+        <v>1.36</v>
+      </c>
+      <c r="AL137">
+        <v>1.3</v>
+      </c>
+      <c r="AM137">
+        <v>1.57</v>
+      </c>
+      <c r="AN137">
+        <v>1</v>
+      </c>
+      <c r="AO137">
+        <v>0.63</v>
+      </c>
+      <c r="AP137">
+        <v>1</v>
+      </c>
+      <c r="AQ137">
+        <v>0.67</v>
+      </c>
+      <c r="AR137">
+        <v>1.07</v>
+      </c>
+      <c r="AS137">
+        <v>0.9</v>
+      </c>
+      <c r="AT137">
+        <v>1.97</v>
+      </c>
+      <c r="AU137">
+        <v>6</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>3</v>
+      </c>
+      <c r="AX137">
+        <v>2</v>
+      </c>
+      <c r="AY137">
+        <v>11</v>
+      </c>
+      <c r="AZ137">
+        <v>8</v>
+      </c>
+      <c r="BA137">
+        <v>5</v>
+      </c>
+      <c r="BB137">
+        <v>7</v>
+      </c>
+      <c r="BC137">
+        <v>12</v>
+      </c>
+      <c r="BD137">
+        <v>1.7</v>
+      </c>
+      <c r="BE137">
+        <v>6.75</v>
+      </c>
+      <c r="BF137">
+        <v>2.4</v>
+      </c>
+      <c r="BG137">
+        <v>1.29</v>
+      </c>
+      <c r="BH137">
+        <v>3.15</v>
+      </c>
+      <c r="BI137">
+        <v>1.52</v>
+      </c>
+      <c r="BJ137">
+        <v>2.32</v>
+      </c>
+      <c r="BK137">
+        <v>1.84</v>
+      </c>
+      <c r="BL137">
+        <v>1.83</v>
+      </c>
+      <c r="BM137">
+        <v>2.3</v>
+      </c>
+      <c r="BN137">
+        <v>1.52</v>
+      </c>
+      <c r="BO137">
+        <v>2.95</v>
+      </c>
+      <c r="BP137">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7574702</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45654.52083333334</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>71</v>
+      </c>
+      <c r="H138" t="s">
+        <v>87</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>174</v>
+      </c>
+      <c r="P138" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q138">
+        <v>3.2</v>
+      </c>
+      <c r="R138">
+        <v>1.91</v>
+      </c>
+      <c r="S138">
+        <v>3.6</v>
+      </c>
+      <c r="T138">
+        <v>1.5</v>
+      </c>
+      <c r="U138">
+        <v>2.4</v>
+      </c>
+      <c r="V138">
+        <v>3.3</v>
+      </c>
+      <c r="W138">
+        <v>1.28</v>
+      </c>
+      <c r="X138">
+        <v>8</v>
+      </c>
+      <c r="Y138">
+        <v>1.05</v>
+      </c>
+      <c r="Z138">
+        <v>2.45</v>
+      </c>
+      <c r="AA138">
+        <v>3</v>
+      </c>
+      <c r="AB138">
+        <v>3</v>
+      </c>
+      <c r="AC138">
+        <v>1.1</v>
+      </c>
+      <c r="AD138">
+        <v>6.5</v>
+      </c>
+      <c r="AE138">
+        <v>1.45</v>
+      </c>
+      <c r="AF138">
+        <v>2.7</v>
+      </c>
+      <c r="AG138">
+        <v>2.25</v>
+      </c>
+      <c r="AH138">
+        <v>1.63</v>
+      </c>
+      <c r="AI138">
+        <v>1.95</v>
+      </c>
+      <c r="AJ138">
+        <v>1.77</v>
+      </c>
+      <c r="AK138">
+        <v>1.38</v>
+      </c>
+      <c r="AL138">
+        <v>1.3</v>
+      </c>
+      <c r="AM138">
+        <v>1.5</v>
+      </c>
+      <c r="AN138">
+        <v>1.13</v>
+      </c>
+      <c r="AO138">
+        <v>0.14</v>
+      </c>
+      <c r="AP138">
+        <v>1.11</v>
+      </c>
+      <c r="AQ138">
+        <v>0.25</v>
+      </c>
+      <c r="AR138">
+        <v>1.22</v>
+      </c>
+      <c r="AS138">
+        <v>0.97</v>
+      </c>
+      <c r="AT138">
+        <v>2.19</v>
+      </c>
+      <c r="AU138">
+        <v>7</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>3</v>
+      </c>
+      <c r="AX138">
+        <v>9</v>
+      </c>
+      <c r="AY138">
+        <v>13</v>
+      </c>
+      <c r="AZ138">
+        <v>18</v>
+      </c>
+      <c r="BA138">
+        <v>7</v>
+      </c>
+      <c r="BB138">
+        <v>6</v>
+      </c>
+      <c r="BC138">
+        <v>13</v>
+      </c>
+      <c r="BD138">
+        <v>1.74</v>
+      </c>
+      <c r="BE138">
+        <v>6.5</v>
+      </c>
+      <c r="BF138">
+        <v>2.3</v>
+      </c>
+      <c r="BG138">
+        <v>1.3</v>
+      </c>
+      <c r="BH138">
+        <v>3.1</v>
+      </c>
+      <c r="BI138">
+        <v>1.52</v>
+      </c>
+      <c r="BJ138">
+        <v>2.3</v>
+      </c>
+      <c r="BK138">
+        <v>1.85</v>
+      </c>
+      <c r="BL138">
+        <v>1.81</v>
+      </c>
+      <c r="BM138">
+        <v>2.3</v>
+      </c>
+      <c r="BN138">
+        <v>1.52</v>
+      </c>
+      <c r="BO138">
+        <v>2.95</v>
+      </c>
+      <c r="BP138">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7574706</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45654.625</v>
+      </c>
+      <c r="F139">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>74</v>
+      </c>
+      <c r="H139" t="s">
+        <v>84</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>175</v>
+      </c>
+      <c r="P139" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q139">
+        <v>3.85</v>
+      </c>
+      <c r="R139">
+        <v>1.9</v>
+      </c>
+      <c r="S139">
+        <v>3</v>
+      </c>
+      <c r="T139">
+        <v>1.53</v>
+      </c>
+      <c r="U139">
+        <v>2.35</v>
+      </c>
+      <c r="V139">
+        <v>3.4</v>
+      </c>
+      <c r="W139">
+        <v>1.28</v>
+      </c>
+      <c r="X139">
+        <v>8</v>
+      </c>
+      <c r="Y139">
+        <v>1.05</v>
+      </c>
+      <c r="Z139">
+        <v>3.25</v>
+      </c>
+      <c r="AA139">
+        <v>3</v>
+      </c>
+      <c r="AB139">
+        <v>2.3</v>
+      </c>
+      <c r="AC139">
+        <v>1.1</v>
+      </c>
+      <c r="AD139">
+        <v>6.5</v>
+      </c>
+      <c r="AE139">
+        <v>1.48</v>
+      </c>
+      <c r="AF139">
+        <v>2.65</v>
+      </c>
+      <c r="AG139">
+        <v>2.4</v>
+      </c>
+      <c r="AH139">
+        <v>1.55</v>
+      </c>
+      <c r="AI139">
+        <v>1.95</v>
+      </c>
+      <c r="AJ139">
+        <v>1.75</v>
+      </c>
+      <c r="AK139">
+        <v>1.57</v>
+      </c>
+      <c r="AL139">
+        <v>1.3</v>
+      </c>
+      <c r="AM139">
+        <v>1.33</v>
+      </c>
+      <c r="AN139">
+        <v>1.38</v>
+      </c>
+      <c r="AO139">
+        <v>0.75</v>
+      </c>
+      <c r="AP139">
+        <v>1.33</v>
+      </c>
+      <c r="AQ139">
+        <v>0.78</v>
+      </c>
+      <c r="AR139">
+        <v>1.09</v>
+      </c>
+      <c r="AS139">
+        <v>1.2</v>
+      </c>
+      <c r="AT139">
+        <v>2.29</v>
+      </c>
+      <c r="AU139">
+        <v>8</v>
+      </c>
+      <c r="AV139">
+        <v>6</v>
+      </c>
+      <c r="AW139">
+        <v>2</v>
+      </c>
+      <c r="AX139">
+        <v>1</v>
+      </c>
+      <c r="AY139">
+        <v>16</v>
+      </c>
+      <c r="AZ139">
+        <v>9</v>
+      </c>
+      <c r="BA139">
+        <v>6</v>
+      </c>
+      <c r="BB139">
+        <v>2</v>
+      </c>
+      <c r="BC139">
+        <v>8</v>
+      </c>
+      <c r="BD139">
+        <v>1.82</v>
+      </c>
+      <c r="BE139">
+        <v>6.4</v>
+      </c>
+      <c r="BF139">
+        <v>2.18</v>
+      </c>
+      <c r="BG139">
+        <v>1.38</v>
+      </c>
+      <c r="BH139">
+        <v>2.7</v>
+      </c>
+      <c r="BI139">
+        <v>1.63</v>
+      </c>
+      <c r="BJ139">
+        <v>2.08</v>
+      </c>
+      <c r="BK139">
+        <v>2.02</v>
+      </c>
+      <c r="BL139">
+        <v>1.68</v>
+      </c>
+      <c r="BM139">
+        <v>2.6</v>
+      </c>
+      <c r="BN139">
+        <v>1.41</v>
+      </c>
+      <c r="BO139">
+        <v>3.4</v>
+      </c>
+      <c r="BP139">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7574699</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45654.72916666666</v>
+      </c>
+      <c r="F140">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>73</v>
+      </c>
+      <c r="H140" t="s">
+        <v>86</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>4</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140" t="s">
+        <v>176</v>
+      </c>
+      <c r="P140" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q140">
+        <v>1.44</v>
+      </c>
+      <c r="R140">
+        <v>2.88</v>
+      </c>
+      <c r="S140">
+        <v>13</v>
+      </c>
+      <c r="T140">
+        <v>1.22</v>
+      </c>
+      <c r="U140">
+        <v>3.75</v>
+      </c>
+      <c r="V140">
+        <v>2.05</v>
+      </c>
+      <c r="W140">
+        <v>1.7</v>
+      </c>
+      <c r="X140">
+        <v>4.33</v>
+      </c>
+      <c r="Y140">
+        <v>1.18</v>
+      </c>
+      <c r="Z140">
+        <v>1.17</v>
+      </c>
+      <c r="AA140">
+        <v>7.5</v>
+      </c>
+      <c r="AB140">
+        <v>13</v>
+      </c>
+      <c r="AC140">
+        <v>1.01</v>
+      </c>
+      <c r="AD140">
+        <v>17</v>
+      </c>
+      <c r="AE140">
+        <v>1.12</v>
+      </c>
+      <c r="AF140">
+        <v>6</v>
+      </c>
+      <c r="AG140">
+        <v>1.4</v>
+      </c>
+      <c r="AH140">
+        <v>2.75</v>
+      </c>
+      <c r="AI140">
+        <v>2.4</v>
+      </c>
+      <c r="AJ140">
+        <v>1.5</v>
+      </c>
+      <c r="AK140">
+        <v>1.02</v>
+      </c>
+      <c r="AL140">
+        <v>1.06</v>
+      </c>
+      <c r="AM140">
+        <v>6</v>
+      </c>
+      <c r="AN140">
+        <v>3</v>
+      </c>
+      <c r="AO140">
+        <v>1.13</v>
+      </c>
+      <c r="AP140">
+        <v>3</v>
+      </c>
+      <c r="AQ140">
+        <v>1</v>
+      </c>
+      <c r="AR140">
+        <v>1.98</v>
+      </c>
+      <c r="AS140">
+        <v>0.98</v>
+      </c>
+      <c r="AT140">
+        <v>2.96</v>
+      </c>
+      <c r="AU140">
+        <v>8</v>
+      </c>
+      <c r="AV140">
+        <v>2</v>
+      </c>
+      <c r="AW140">
+        <v>5</v>
+      </c>
+      <c r="AX140">
+        <v>1</v>
+      </c>
+      <c r="AY140">
+        <v>14</v>
+      </c>
+      <c r="AZ140">
+        <v>5</v>
+      </c>
+      <c r="BA140">
+        <v>4</v>
+      </c>
+      <c r="BB140">
+        <v>1</v>
+      </c>
+      <c r="BC140">
+        <v>5</v>
+      </c>
+      <c r="BD140">
+        <v>1.09</v>
+      </c>
+      <c r="BE140">
+        <v>11</v>
+      </c>
+      <c r="BF140">
+        <v>7.5</v>
+      </c>
+      <c r="BG140">
+        <v>1.29</v>
+      </c>
+      <c r="BH140">
+        <v>3.15</v>
+      </c>
+      <c r="BI140">
+        <v>1.49</v>
+      </c>
+      <c r="BJ140">
+        <v>2.38</v>
+      </c>
+      <c r="BK140">
+        <v>1.79</v>
+      </c>
+      <c r="BL140">
+        <v>1.87</v>
+      </c>
+      <c r="BM140">
+        <v>2.23</v>
+      </c>
+      <c r="BN140">
+        <v>1.56</v>
+      </c>
+      <c r="BO140">
+        <v>2.8</v>
+      </c>
+      <c r="BP140">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,15 @@
     <t>['31', '55', '59', '88']</t>
   </si>
   <si>
+    <t>['36', '90+8']</t>
+  </si>
+  <si>
+    <t>['26', '73']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -746,6 +755,12 @@
   </si>
   <si>
     <t>['2', '57']</t>
+  </si>
+  <si>
+    <t>['49', '90']</t>
+  </si>
+  <si>
+    <t>['40', '70']</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ2">
         <v>0.38</v>
@@ -1572,7 +1587,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1653,7 +1668,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ3">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1778,7 +1793,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -2190,7 +2205,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2477,7 +2492,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2602,7 +2617,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -2680,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ8">
         <v>0.78</v>
@@ -2886,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>0.25</v>
@@ -3095,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3220,7 +3235,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3426,7 +3441,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3710,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0.75</v>
@@ -3838,7 +3853,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4125,7 +4140,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4250,7 +4265,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4662,7 +4677,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4868,7 +4883,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5074,7 +5089,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5152,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ20">
         <v>2.38</v>
@@ -5280,7 +5295,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -6185,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>0.7</v>
@@ -6597,7 +6612,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ27">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
         <v>1.62</v>
@@ -6800,7 +6815,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
         <v>0.78</v>
@@ -6928,7 +6943,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7009,7 +7024,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR29">
         <v>1.3</v>
@@ -7134,7 +7149,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7340,7 +7355,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7421,7 +7436,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7830,7 +7845,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ33">
         <v>1.86</v>
@@ -8242,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>0.5</v>
@@ -8370,7 +8385,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8782,7 +8797,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8988,7 +9003,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9400,7 +9415,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9606,7 +9621,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9812,7 +9827,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10099,7 +10114,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR44">
         <v>0.8100000000000001</v>
@@ -10224,7 +10239,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10302,10 +10317,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR45">
         <v>1.78</v>
@@ -10430,7 +10445,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10636,7 +10651,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10842,7 +10857,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -10920,7 +10935,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>0.43</v>
@@ -11254,7 +11269,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11666,7 +11681,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11747,7 +11762,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ52">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR52">
         <v>1.51</v>
@@ -11872,7 +11887,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11950,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ53">
         <v>0.5</v>
@@ -12156,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ54">
         <v>0.57</v>
@@ -12284,7 +12299,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12365,7 +12380,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR55">
         <v>1.28</v>
@@ -12490,7 +12505,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12696,7 +12711,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12902,7 +12917,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -12983,7 +12998,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR58">
         <v>1.27</v>
@@ -13108,7 +13123,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13395,7 +13410,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR60">
         <v>1.14</v>
@@ -13804,7 +13819,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
         <v>0.38</v>
@@ -14422,7 +14437,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>1.29</v>
@@ -14962,7 +14977,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15246,10 +15261,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ69">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR69">
         <v>2.1</v>
@@ -15452,7 +15467,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ70">
         <v>0.43</v>
@@ -15580,7 +15595,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15786,7 +15801,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16073,7 +16088,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR73">
         <v>1.21</v>
@@ -16198,7 +16213,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16404,7 +16419,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16610,7 +16625,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16816,7 +16831,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17100,7 +17115,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
         <v>0.75</v>
@@ -17434,7 +17449,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17515,7 +17530,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ80">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR80">
         <v>1.2</v>
@@ -17640,7 +17655,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17846,7 +17861,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -17924,7 +17939,7 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ82">
         <v>0.25</v>
@@ -18052,7 +18067,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18130,10 +18145,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR83">
         <v>1.47</v>
@@ -18258,7 +18273,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18336,10 +18351,10 @@
         <v>1.33</v>
       </c>
       <c r="AP84">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR84">
         <v>1.17</v>
@@ -18464,7 +18479,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18670,7 +18685,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19082,7 +19097,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19700,7 +19715,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19906,7 +19921,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20524,7 +20539,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -20811,7 +20826,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ96">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR96">
         <v>1.15</v>
@@ -21017,7 +21032,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ97">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR97">
         <v>1.23</v>
@@ -21142,7 +21157,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21220,7 +21235,7 @@
         <v>3</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ98">
         <v>2.38</v>
@@ -21632,7 +21647,7 @@
         <v>0.2</v>
       </c>
       <c r="AP100">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ100">
         <v>0.25</v>
@@ -21760,7 +21775,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -21838,7 +21853,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>0.78</v>
@@ -22172,7 +22187,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22250,7 +22265,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ103">
         <v>1.29</v>
@@ -22378,7 +22393,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22584,7 +22599,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22665,7 +22680,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR105">
         <v>0.97</v>
@@ -22790,7 +22805,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23283,7 +23298,7 @@
         <v>3</v>
       </c>
       <c r="AQ108">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR108">
         <v>2.03</v>
@@ -23614,7 +23629,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23692,7 +23707,7 @@
         <v>0.4</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ110">
         <v>0.43</v>
@@ -23820,7 +23835,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -23901,7 +23916,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ111">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR111">
         <v>1.27</v>
@@ -24107,7 +24122,7 @@
         <v>3</v>
       </c>
       <c r="AQ112">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR112">
         <v>2.24</v>
@@ -25056,7 +25071,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25262,7 +25277,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -25340,7 +25355,7 @@
         <v>0.29</v>
       </c>
       <c r="AP118">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ118">
         <v>0.67</v>
@@ -25674,7 +25689,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -25752,7 +25767,7 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26086,7 +26101,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -26167,7 +26182,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ122">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR122">
         <v>1.11</v>
@@ -26292,7 +26307,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26373,7 +26388,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ123">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR123">
         <v>1.04</v>
@@ -26498,7 +26513,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26576,7 +26591,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ124">
         <v>1.29</v>
@@ -26910,7 +26925,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -26988,10 +27003,10 @@
         <v>1.14</v>
       </c>
       <c r="AP126">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR126">
         <v>1.4</v>
@@ -27116,7 +27131,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27197,7 +27212,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ127">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR127">
         <v>1.37</v>
@@ -27322,7 +27337,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27528,7 +27543,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27940,7 +27955,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28146,7 +28161,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28558,7 +28573,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -28639,7 +28654,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29382,7 +29397,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q138">
         <v>3.2</v>
@@ -29588,7 +29603,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -29951,6 +29966,830 @@
       </c>
       <c r="BP140">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7574703</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45655.52083333334</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>76</v>
+      </c>
+      <c r="H141" t="s">
+        <v>85</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>4</v>
+      </c>
+      <c r="O141" t="s">
+        <v>177</v>
+      </c>
+      <c r="P141" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q141">
+        <v>4.75</v>
+      </c>
+      <c r="R141">
+        <v>2.05</v>
+      </c>
+      <c r="S141">
+        <v>2.4</v>
+      </c>
+      <c r="T141">
+        <v>1.44</v>
+      </c>
+      <c r="U141">
+        <v>2.6</v>
+      </c>
+      <c r="V141">
+        <v>3</v>
+      </c>
+      <c r="W141">
+        <v>1.33</v>
+      </c>
+      <c r="X141">
+        <v>7.5</v>
+      </c>
+      <c r="Y141">
+        <v>1.06</v>
+      </c>
+      <c r="Z141">
+        <v>4.35</v>
+      </c>
+      <c r="AA141">
+        <v>3.6</v>
+      </c>
+      <c r="AB141">
+        <v>1.74</v>
+      </c>
+      <c r="AC141">
+        <v>1.06</v>
+      </c>
+      <c r="AD141">
+        <v>8.5</v>
+      </c>
+      <c r="AE141">
+        <v>1.36</v>
+      </c>
+      <c r="AF141">
+        <v>3.1</v>
+      </c>
+      <c r="AG141">
+        <v>2.12</v>
+      </c>
+      <c r="AH141">
+        <v>1.68</v>
+      </c>
+      <c r="AI141">
+        <v>1.91</v>
+      </c>
+      <c r="AJ141">
+        <v>1.8</v>
+      </c>
+      <c r="AK141">
+        <v>1.95</v>
+      </c>
+      <c r="AL141">
+        <v>1.25</v>
+      </c>
+      <c r="AM141">
+        <v>1.2</v>
+      </c>
+      <c r="AN141">
+        <v>0.86</v>
+      </c>
+      <c r="AO141">
+        <v>1.13</v>
+      </c>
+      <c r="AP141">
+        <v>0.88</v>
+      </c>
+      <c r="AQ141">
+        <v>1.11</v>
+      </c>
+      <c r="AR141">
+        <v>1.17</v>
+      </c>
+      <c r="AS141">
+        <v>1.34</v>
+      </c>
+      <c r="AT141">
+        <v>2.51</v>
+      </c>
+      <c r="AU141">
+        <v>3</v>
+      </c>
+      <c r="AV141">
+        <v>13</v>
+      </c>
+      <c r="AW141">
+        <v>3</v>
+      </c>
+      <c r="AX141">
+        <v>11</v>
+      </c>
+      <c r="AY141">
+        <v>7</v>
+      </c>
+      <c r="AZ141">
+        <v>28</v>
+      </c>
+      <c r="BA141">
+        <v>6</v>
+      </c>
+      <c r="BB141">
+        <v>9</v>
+      </c>
+      <c r="BC141">
+        <v>15</v>
+      </c>
+      <c r="BD141">
+        <v>2.9</v>
+      </c>
+      <c r="BE141">
+        <v>7.5</v>
+      </c>
+      <c r="BF141">
+        <v>1.47</v>
+      </c>
+      <c r="BG141">
+        <v>1.09</v>
+      </c>
+      <c r="BH141">
+        <v>5.4</v>
+      </c>
+      <c r="BI141">
+        <v>1.19</v>
+      </c>
+      <c r="BJ141">
+        <v>3.9</v>
+      </c>
+      <c r="BK141">
+        <v>1.35</v>
+      </c>
+      <c r="BL141">
+        <v>2.85</v>
+      </c>
+      <c r="BM141">
+        <v>1.56</v>
+      </c>
+      <c r="BN141">
+        <v>2.2</v>
+      </c>
+      <c r="BO141">
+        <v>1.77</v>
+      </c>
+      <c r="BP141">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7574700</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45655.52083333334</v>
+      </c>
+      <c r="F142">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>82</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>178</v>
+      </c>
+      <c r="P142" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q142">
+        <v>2.75</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>3.9</v>
+      </c>
+      <c r="T142">
+        <v>1.45</v>
+      </c>
+      <c r="U142">
+        <v>2.55</v>
+      </c>
+      <c r="V142">
+        <v>2.95</v>
+      </c>
+      <c r="W142">
+        <v>1.35</v>
+      </c>
+      <c r="X142">
+        <v>7</v>
+      </c>
+      <c r="Y142">
+        <v>1.06</v>
+      </c>
+      <c r="Z142">
+        <v>2.04</v>
+      </c>
+      <c r="AA142">
+        <v>3.05</v>
+      </c>
+      <c r="AB142">
+        <v>3.7</v>
+      </c>
+      <c r="AC142">
+        <v>1.07</v>
+      </c>
+      <c r="AD142">
+        <v>8</v>
+      </c>
+      <c r="AE142">
+        <v>1.38</v>
+      </c>
+      <c r="AF142">
+        <v>3</v>
+      </c>
+      <c r="AG142">
+        <v>2.12</v>
+      </c>
+      <c r="AH142">
+        <v>1.67</v>
+      </c>
+      <c r="AI142">
+        <v>1.8</v>
+      </c>
+      <c r="AJ142">
+        <v>1.91</v>
+      </c>
+      <c r="AK142">
+        <v>1.3</v>
+      </c>
+      <c r="AL142">
+        <v>1.3</v>
+      </c>
+      <c r="AM142">
+        <v>1.65</v>
+      </c>
+      <c r="AN142">
+        <v>1.86</v>
+      </c>
+      <c r="AO142">
+        <v>0.38</v>
+      </c>
+      <c r="AP142">
+        <v>2</v>
+      </c>
+      <c r="AQ142">
+        <v>0.33</v>
+      </c>
+      <c r="AR142">
+        <v>1.33</v>
+      </c>
+      <c r="AS142">
+        <v>1.34</v>
+      </c>
+      <c r="AT142">
+        <v>2.67</v>
+      </c>
+      <c r="AU142">
+        <v>9</v>
+      </c>
+      <c r="AV142">
+        <v>3</v>
+      </c>
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>11</v>
+      </c>
+      <c r="AY142">
+        <v>23</v>
+      </c>
+      <c r="AZ142">
+        <v>15</v>
+      </c>
+      <c r="BA142">
+        <v>11</v>
+      </c>
+      <c r="BB142">
+        <v>6</v>
+      </c>
+      <c r="BC142">
+        <v>17</v>
+      </c>
+      <c r="BD142">
+        <v>1.69</v>
+      </c>
+      <c r="BE142">
+        <v>8.5</v>
+      </c>
+      <c r="BF142">
+        <v>2.53</v>
+      </c>
+      <c r="BG142">
+        <v>1.18</v>
+      </c>
+      <c r="BH142">
+        <v>4.5</v>
+      </c>
+      <c r="BI142">
+        <v>1.34</v>
+      </c>
+      <c r="BJ142">
+        <v>3.1</v>
+      </c>
+      <c r="BK142">
+        <v>1.58</v>
+      </c>
+      <c r="BL142">
+        <v>2.29</v>
+      </c>
+      <c r="BM142">
+        <v>1.93</v>
+      </c>
+      <c r="BN142">
+        <v>1.77</v>
+      </c>
+      <c r="BO142">
+        <v>2.44</v>
+      </c>
+      <c r="BP142">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7574705</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45655.625</v>
+      </c>
+      <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>77</v>
+      </c>
+      <c r="H143" t="s">
+        <v>72</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>179</v>
+      </c>
+      <c r="P143" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q143">
+        <v>1.85</v>
+      </c>
+      <c r="R143">
+        <v>2.3</v>
+      </c>
+      <c r="S143">
+        <v>7</v>
+      </c>
+      <c r="T143">
+        <v>1.35</v>
+      </c>
+      <c r="U143">
+        <v>2.95</v>
+      </c>
+      <c r="V143">
+        <v>2.55</v>
+      </c>
+      <c r="W143">
+        <v>1.45</v>
+      </c>
+      <c r="X143">
+        <v>5.75</v>
+      </c>
+      <c r="Y143">
+        <v>1.1</v>
+      </c>
+      <c r="Z143">
+        <v>1.34</v>
+      </c>
+      <c r="AA143">
+        <v>4.9</v>
+      </c>
+      <c r="AB143">
+        <v>8</v>
+      </c>
+      <c r="AC143">
+        <v>1.05</v>
+      </c>
+      <c r="AD143">
+        <v>9.5</v>
+      </c>
+      <c r="AE143">
+        <v>1.25</v>
+      </c>
+      <c r="AF143">
+        <v>3.7</v>
+      </c>
+      <c r="AG143">
+        <v>1.68</v>
+      </c>
+      <c r="AH143">
+        <v>2.12</v>
+      </c>
+      <c r="AI143">
+        <v>2</v>
+      </c>
+      <c r="AJ143">
+        <v>1.73</v>
+      </c>
+      <c r="AK143">
+        <v>1.07</v>
+      </c>
+      <c r="AL143">
+        <v>1.15</v>
+      </c>
+      <c r="AM143">
+        <v>2.9</v>
+      </c>
+      <c r="AN143">
+        <v>1.5</v>
+      </c>
+      <c r="AO143">
+        <v>1.14</v>
+      </c>
+      <c r="AP143">
+        <v>1.33</v>
+      </c>
+      <c r="AQ143">
+        <v>1.38</v>
+      </c>
+      <c r="AR143">
+        <v>1.64</v>
+      </c>
+      <c r="AS143">
+        <v>1.03</v>
+      </c>
+      <c r="AT143">
+        <v>2.67</v>
+      </c>
+      <c r="AU143">
+        <v>7</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>6</v>
+      </c>
+      <c r="AX143">
+        <v>3</v>
+      </c>
+      <c r="AY143">
+        <v>17</v>
+      </c>
+      <c r="AZ143">
+        <v>9</v>
+      </c>
+      <c r="BA143">
+        <v>10</v>
+      </c>
+      <c r="BB143">
+        <v>2</v>
+      </c>
+      <c r="BC143">
+        <v>12</v>
+      </c>
+      <c r="BD143">
+        <v>1.21</v>
+      </c>
+      <c r="BE143">
+        <v>8.5</v>
+      </c>
+      <c r="BF143">
+        <v>4.6</v>
+      </c>
+      <c r="BG143">
+        <v>1.23</v>
+      </c>
+      <c r="BH143">
+        <v>3.55</v>
+      </c>
+      <c r="BI143">
+        <v>1.4</v>
+      </c>
+      <c r="BJ143">
+        <v>2.63</v>
+      </c>
+      <c r="BK143">
+        <v>1.66</v>
+      </c>
+      <c r="BL143">
+        <v>2.04</v>
+      </c>
+      <c r="BM143">
+        <v>2.02</v>
+      </c>
+      <c r="BN143">
+        <v>1.67</v>
+      </c>
+      <c r="BO143">
+        <v>2.55</v>
+      </c>
+      <c r="BP143">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7574698</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45655.72916666666</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>70</v>
+      </c>
+      <c r="H144" t="s">
+        <v>83</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>160</v>
+      </c>
+      <c r="P144" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q144">
+        <v>3</v>
+      </c>
+      <c r="R144">
+        <v>2.15</v>
+      </c>
+      <c r="S144">
+        <v>3</v>
+      </c>
+      <c r="T144">
+        <v>1.33</v>
+      </c>
+      <c r="U144">
+        <v>3.1</v>
+      </c>
+      <c r="V144">
+        <v>2.4</v>
+      </c>
+      <c r="W144">
+        <v>1.5</v>
+      </c>
+      <c r="X144">
+        <v>5.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.11</v>
+      </c>
+      <c r="Z144">
+        <v>2.5</v>
+      </c>
+      <c r="AA144">
+        <v>3.55</v>
+      </c>
+      <c r="AB144">
+        <v>2.61</v>
+      </c>
+      <c r="AC144">
+        <v>1.04</v>
+      </c>
+      <c r="AD144">
+        <v>10</v>
+      </c>
+      <c r="AE144">
+        <v>1.22</v>
+      </c>
+      <c r="AF144">
+        <v>4.2</v>
+      </c>
+      <c r="AG144">
+        <v>1.65</v>
+      </c>
+      <c r="AH144">
+        <v>2.16</v>
+      </c>
+      <c r="AI144">
+        <v>1.53</v>
+      </c>
+      <c r="AJ144">
+        <v>2.38</v>
+      </c>
+      <c r="AK144">
+        <v>1.48</v>
+      </c>
+      <c r="AL144">
+        <v>1.25</v>
+      </c>
+      <c r="AM144">
+        <v>1.5</v>
+      </c>
+      <c r="AN144">
+        <v>2.57</v>
+      </c>
+      <c r="AO144">
+        <v>2</v>
+      </c>
+      <c r="AP144">
+        <v>2.63</v>
+      </c>
+      <c r="AQ144">
+        <v>1.75</v>
+      </c>
+      <c r="AR144">
+        <v>2.11</v>
+      </c>
+      <c r="AS144">
+        <v>1.7</v>
+      </c>
+      <c r="AT144">
+        <v>3.81</v>
+      </c>
+      <c r="AU144">
+        <v>7</v>
+      </c>
+      <c r="AV144">
+        <v>4</v>
+      </c>
+      <c r="AW144">
+        <v>3</v>
+      </c>
+      <c r="AX144">
+        <v>9</v>
+      </c>
+      <c r="AY144">
+        <v>13</v>
+      </c>
+      <c r="AZ144">
+        <v>16</v>
+      </c>
+      <c r="BA144">
+        <v>4</v>
+      </c>
+      <c r="BB144">
+        <v>8</v>
+      </c>
+      <c r="BC144">
+        <v>12</v>
+      </c>
+      <c r="BD144">
+        <v>1.77</v>
+      </c>
+      <c r="BE144">
+        <v>6.4</v>
+      </c>
+      <c r="BF144">
+        <v>2.28</v>
+      </c>
+      <c r="BG144">
+        <v>1.3</v>
+      </c>
+      <c r="BH144">
+        <v>3.05</v>
+      </c>
+      <c r="BI144">
+        <v>1.52</v>
+      </c>
+      <c r="BJ144">
+        <v>2.32</v>
+      </c>
+      <c r="BK144">
+        <v>1.83</v>
+      </c>
+      <c r="BL144">
+        <v>1.83</v>
+      </c>
+      <c r="BM144">
+        <v>2.3</v>
+      </c>
+      <c r="BN144">
+        <v>1.52</v>
+      </c>
+      <c r="BO144">
+        <v>2.95</v>
+      </c>
+      <c r="BP144">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,9 @@
     <t>['45+2']</t>
   </si>
   <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -761,6 +764,9 @@
   </si>
   <si>
     <t>['40', '70']</t>
+  </si>
+  <si>
+    <t>['32', '51']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1587,7 +1593,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1793,7 +1799,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -2205,7 +2211,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2286,7 +2292,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2489,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ7">
         <v>1.75</v>
@@ -2617,7 +2623,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3235,7 +3241,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3441,7 +3447,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3853,7 +3859,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4265,7 +4271,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4677,7 +4683,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4883,7 +4889,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5089,7 +5095,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5295,7 +5301,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5376,7 +5382,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.57</v>
@@ -5785,7 +5791,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -6943,7 +6949,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7149,7 +7155,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7355,7 +7361,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8385,7 +8391,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8797,7 +8803,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9003,7 +9009,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9415,7 +9421,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9493,7 +9499,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41">
         <v>0.67</v>
@@ -9621,7 +9627,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9702,7 +9708,7 @@
         <v>3</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>2.4</v>
@@ -9827,7 +9833,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10239,7 +10245,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10445,7 +10451,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10651,7 +10657,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10857,7 +10863,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11269,7 +11275,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11681,7 +11687,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11887,7 +11893,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12299,7 +12305,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12505,7 +12511,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12711,7 +12717,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12917,7 +12923,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13123,7 +13129,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13407,7 +13413,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ60">
         <v>0.33</v>
@@ -14852,7 +14858,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -14977,7 +14983,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15595,7 +15601,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15801,7 +15807,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16213,7 +16219,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16419,7 +16425,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16625,7 +16631,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16831,7 +16837,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16909,7 +16915,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ77">
         <v>2.38</v>
@@ -17449,7 +17455,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17655,7 +17661,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17861,7 +17867,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18067,7 +18073,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18273,7 +18279,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18479,7 +18485,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18685,7 +18691,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19097,7 +19103,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19590,7 +19596,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ90">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR90">
         <v>1.22</v>
@@ -19715,7 +19721,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19921,7 +19927,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20411,7 +20417,7 @@
         <v>0.6</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94">
         <v>0.5</v>
@@ -20539,7 +20545,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21157,7 +21163,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21775,7 +21781,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22187,7 +22193,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22268,7 +22274,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ103">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
         <v>2.02</v>
@@ -22393,7 +22399,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22599,7 +22605,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22805,7 +22811,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23629,7 +23635,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23835,7 +23841,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24531,7 +24537,7 @@
         <v>1.8</v>
       </c>
       <c r="AP114">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ114">
         <v>1.86</v>
@@ -25071,7 +25077,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25277,7 +25283,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -25689,7 +25695,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -25976,7 +25982,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR121">
         <v>1.05</v>
@@ -26101,7 +26107,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -26307,7 +26313,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26513,7 +26519,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26925,7 +26931,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27131,7 +27137,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27337,7 +27343,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27543,7 +27549,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27621,7 +27627,7 @@
         <v>0.43</v>
       </c>
       <c r="AP129">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ129">
         <v>0.75</v>
@@ -27955,7 +27961,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28161,7 +28167,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28573,7 +28579,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29397,7 +29403,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q138">
         <v>3.2</v>
@@ -29603,7 +29609,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30015,7 +30021,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30221,7 +30227,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30427,7 +30433,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -30790,6 +30796,212 @@
       </c>
       <c r="BP144">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7574701</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45656.71875</v>
+      </c>
+      <c r="F145">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" t="s">
+        <v>79</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>180</v>
+      </c>
+      <c r="P145" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q145">
+        <v>3.6</v>
+      </c>
+      <c r="R145">
+        <v>1.87</v>
+      </c>
+      <c r="S145">
+        <v>3.75</v>
+      </c>
+      <c r="T145">
+        <v>1.59</v>
+      </c>
+      <c r="U145">
+        <v>2.24</v>
+      </c>
+      <c r="V145">
+        <v>3.7</v>
+      </c>
+      <c r="W145">
+        <v>1.24</v>
+      </c>
+      <c r="X145">
+        <v>11.5</v>
+      </c>
+      <c r="Y145">
+        <v>1.01</v>
+      </c>
+      <c r="Z145">
+        <v>2.6</v>
+      </c>
+      <c r="AA145">
+        <v>2.9</v>
+      </c>
+      <c r="AB145">
+        <v>2.85</v>
+      </c>
+      <c r="AC145">
+        <v>1.12</v>
+      </c>
+      <c r="AD145">
+        <v>6.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.55</v>
+      </c>
+      <c r="AF145">
+        <v>2.25</v>
+      </c>
+      <c r="AG145">
+        <v>2.65</v>
+      </c>
+      <c r="AH145">
+        <v>1.44</v>
+      </c>
+      <c r="AI145">
+        <v>2.2</v>
+      </c>
+      <c r="AJ145">
+        <v>1.65</v>
+      </c>
+      <c r="AK145">
+        <v>1.44</v>
+      </c>
+      <c r="AL145">
+        <v>1.35</v>
+      </c>
+      <c r="AM145">
+        <v>1.45</v>
+      </c>
+      <c r="AN145">
+        <v>1.25</v>
+      </c>
+      <c r="AO145">
+        <v>1.29</v>
+      </c>
+      <c r="AP145">
+        <v>1.11</v>
+      </c>
+      <c r="AQ145">
+        <v>1.5</v>
+      </c>
+      <c r="AR145">
+        <v>1.04</v>
+      </c>
+      <c r="AS145">
+        <v>1.09</v>
+      </c>
+      <c r="AT145">
+        <v>2.13</v>
+      </c>
+      <c r="AU145">
+        <v>6</v>
+      </c>
+      <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
+        <v>7</v>
+      </c>
+      <c r="AX145">
+        <v>3</v>
+      </c>
+      <c r="AY145">
+        <v>19</v>
+      </c>
+      <c r="AZ145">
+        <v>8</v>
+      </c>
+      <c r="BA145">
+        <v>5</v>
+      </c>
+      <c r="BB145">
+        <v>4</v>
+      </c>
+      <c r="BC145">
+        <v>9</v>
+      </c>
+      <c r="BD145">
+        <v>2.24</v>
+      </c>
+      <c r="BE145">
+        <v>6.2</v>
+      </c>
+      <c r="BF145">
+        <v>2.06</v>
+      </c>
+      <c r="BG145">
+        <v>1.44</v>
+      </c>
+      <c r="BH145">
+        <v>2.51</v>
+      </c>
+      <c r="BI145">
+        <v>1.8</v>
+      </c>
+      <c r="BJ145">
+        <v>1.91</v>
+      </c>
+      <c r="BK145">
+        <v>2</v>
+      </c>
+      <c r="BL145">
+        <v>1.7</v>
+      </c>
+      <c r="BM145">
+        <v>3.14</v>
+      </c>
+      <c r="BN145">
+        <v>1.27</v>
+      </c>
+      <c r="BO145">
+        <v>4.55</v>
+      </c>
+      <c r="BP145">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -30947,13 +30947,13 @@
         <v>7</v>
       </c>
       <c r="AX145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY145">
         <v>19</v>
       </c>
       <c r="AZ145">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA145">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,10 +559,19 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['35']</t>
+    <t>['7', '69', '82', '85']</t>
+  </si>
+  <si>
+    <t>['9']</t>
   </si>
   <si>
     <t>['77']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
   <si>
     <t>['44', '70', '74', '83']</t>
@@ -767,6 +776,18 @@
   </si>
   <si>
     <t>['32', '51']</t>
+  </si>
+  <si>
+    <t>['2', '14', '57', '90+5']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['17', '40']</t>
+  </si>
+  <si>
+    <t>['45+7', '90+5', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1593,7 +1614,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1799,7 +1820,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>2.6</v>
@@ -2211,7 +2232,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2623,7 +2644,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3241,7 +3262,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3447,7 +3468,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3528,7 +3549,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ12">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3859,7 +3880,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3940,7 +3961,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ14">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4143,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ15">
         <v>1.38</v>
@@ -4271,7 +4292,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4349,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4555,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ17">
         <v>0.43</v>
@@ -4683,7 +4704,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4761,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ18">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4889,7 +4910,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5095,7 +5116,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5176,7 +5197,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ20">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -5301,7 +5322,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5997,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ24">
         <v>0.25</v>
@@ -6949,7 +6970,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7027,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29">
         <v>1.75</v>
@@ -7155,7 +7176,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7236,7 +7257,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ30">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR30">
         <v>0.55</v>
@@ -7361,7 +7382,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7645,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ32">
         <v>0.43</v>
@@ -8266,7 +8287,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR35">
         <v>1.11</v>
@@ -8391,7 +8412,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8469,7 +8490,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36">
         <v>1.29</v>
@@ -8678,7 +8699,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ37">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -8803,7 +8824,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -8884,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR38">
         <v>0.93</v>
@@ -9009,7 +9030,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9421,7 +9442,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9627,7 +9648,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9705,7 +9726,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -9833,7 +9854,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10245,7 +10266,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10451,7 +10472,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10657,7 +10678,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10738,7 +10759,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR47">
         <v>1.27</v>
@@ -10863,7 +10884,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11275,7 +11296,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11353,7 +11374,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ50">
         <v>1.86</v>
@@ -11559,7 +11580,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51">
         <v>1.29</v>
@@ -11687,7 +11708,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11893,7 +11914,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11974,7 +11995,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR53">
         <v>1</v>
@@ -12180,7 +12201,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ54">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR54">
         <v>1.92</v>
@@ -12305,7 +12326,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12383,7 +12404,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ55">
         <v>1.75</v>
@@ -12511,7 +12532,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12592,7 +12613,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR56">
         <v>0.98</v>
@@ -12717,7 +12738,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12923,7 +12944,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13129,7 +13150,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13207,7 +13228,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ59">
         <v>0.67</v>
@@ -13622,7 +13643,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR61">
         <v>2.38</v>
@@ -14855,7 +14876,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ67">
         <v>1.5</v>
@@ -14983,7 +15004,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15064,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR68">
         <v>0.83</v>
@@ -15601,7 +15622,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15679,7 +15700,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15807,7 +15828,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15888,7 +15909,7 @@
         <v>3</v>
       </c>
       <c r="AQ72">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR72">
         <v>2.36</v>
@@ -16219,7 +16240,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16425,7 +16446,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16506,7 +16527,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR75">
         <v>0.89</v>
@@ -16631,7 +16652,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16709,7 +16730,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ76">
         <v>0.78</v>
@@ -16837,7 +16858,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16918,7 +16939,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ77">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -17327,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ79">
         <v>0.38</v>
@@ -17455,7 +17476,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17661,7 +17682,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17867,7 +17888,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18073,7 +18094,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18279,7 +18300,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18485,7 +18506,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18691,7 +18712,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18975,7 +18996,7 @@
         <v>1.2</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ87">
         <v>0.78</v>
@@ -19103,7 +19124,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19184,7 +19205,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR88">
         <v>0.89</v>
@@ -19721,7 +19742,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19799,7 +19820,7 @@
         <v>0.4</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ91">
         <v>0.67</v>
@@ -19927,7 +19948,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20214,7 +20235,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR93">
         <v>0.99</v>
@@ -20420,7 +20441,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ94">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR94">
         <v>1.13</v>
@@ -20545,7 +20566,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -20623,7 +20644,7 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ95">
         <v>0.38</v>
@@ -21163,7 +21184,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21244,7 +21265,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ98">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR98">
         <v>1.75</v>
@@ -21447,7 +21468,7 @@
         <v>2.25</v>
       </c>
       <c r="AP99">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ99">
         <v>1.86</v>
@@ -21781,7 +21802,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22193,7 +22214,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22399,7 +22420,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22605,7 +22626,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22811,7 +22832,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -22892,7 +22913,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ106">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23095,7 +23116,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ107">
         <v>0.67</v>
@@ -23507,10 +23528,10 @@
         <v>3</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR109">
         <v>1.17</v>
@@ -23635,7 +23656,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23841,7 +23862,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24125,7 +24146,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ112">
         <v>1.11</v>
@@ -24743,7 +24764,7 @@
         <v>0.33</v>
       </c>
       <c r="AP115">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ115">
         <v>0.75</v>
@@ -24952,7 +24973,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR116">
         <v>1.23</v>
@@ -25077,7 +25098,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25158,7 +25179,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR117">
         <v>1.23</v>
@@ -25283,7 +25304,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -25695,7 +25716,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26107,7 +26128,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -26313,7 +26334,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26519,7 +26540,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26931,7 +26952,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27137,7 +27158,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27343,7 +27364,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27424,7 +27445,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ128">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR128">
         <v>1.24</v>
@@ -27549,7 +27570,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27833,10 +27854,10 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ130">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR130">
         <v>1.33</v>
@@ -27961,7 +27982,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28039,7 +28060,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ131">
         <v>1.86</v>
@@ -28167,7 +28188,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28248,7 +28269,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ132">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR132">
         <v>1.35</v>
@@ -28454,7 +28475,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ133">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR133">
         <v>1.29</v>
@@ -28579,7 +28600,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -28657,7 +28678,7 @@
         <v>0.29</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
         <v>0.33</v>
@@ -28863,7 +28884,7 @@
         <v>0.5</v>
       </c>
       <c r="AP135">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ135">
         <v>0.43</v>
@@ -29403,7 +29424,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q138">
         <v>3.2</v>
@@ -29609,7 +29630,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30021,7 +30042,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30227,7 +30248,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30433,7 +30454,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -30845,7 +30866,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31002,6 +31023,830 @@
       </c>
       <c r="BP145">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7574713</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45660.71875</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>85</v>
+      </c>
+      <c r="H146" t="s">
+        <v>70</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146">
+        <v>4</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>8</v>
+      </c>
+      <c r="O146" t="s">
+        <v>181</v>
+      </c>
+      <c r="P146" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q146">
+        <v>4.75</v>
+      </c>
+      <c r="R146">
+        <v>2.2</v>
+      </c>
+      <c r="S146">
+        <v>2.38</v>
+      </c>
+      <c r="T146">
+        <v>1.36</v>
+      </c>
+      <c r="U146">
+        <v>3</v>
+      </c>
+      <c r="V146">
+        <v>2.75</v>
+      </c>
+      <c r="W146">
+        <v>1.4</v>
+      </c>
+      <c r="X146">
+        <v>7</v>
+      </c>
+      <c r="Y146">
+        <v>1.1</v>
+      </c>
+      <c r="Z146">
+        <v>4.6</v>
+      </c>
+      <c r="AA146">
+        <v>3.7</v>
+      </c>
+      <c r="AB146">
+        <v>1.68</v>
+      </c>
+      <c r="AC146">
+        <v>1.03</v>
+      </c>
+      <c r="AD146">
+        <v>13</v>
+      </c>
+      <c r="AE146">
+        <v>1.25</v>
+      </c>
+      <c r="AF146">
+        <v>3.75</v>
+      </c>
+      <c r="AG146">
+        <v>1.77</v>
+      </c>
+      <c r="AH146">
+        <v>1.98</v>
+      </c>
+      <c r="AI146">
+        <v>1.8</v>
+      </c>
+      <c r="AJ146">
+        <v>1.95</v>
+      </c>
+      <c r="AK146">
+        <v>2.05</v>
+      </c>
+      <c r="AL146">
+        <v>1.26</v>
+      </c>
+      <c r="AM146">
+        <v>1.2</v>
+      </c>
+      <c r="AN146">
+        <v>2</v>
+      </c>
+      <c r="AO146">
+        <v>2.38</v>
+      </c>
+      <c r="AP146">
+        <v>1.88</v>
+      </c>
+      <c r="AQ146">
+        <v>2.22</v>
+      </c>
+      <c r="AR146">
+        <v>1.3</v>
+      </c>
+      <c r="AS146">
+        <v>2.01</v>
+      </c>
+      <c r="AT146">
+        <v>3.31</v>
+      </c>
+      <c r="AU146">
+        <v>6</v>
+      </c>
+      <c r="AV146">
+        <v>6</v>
+      </c>
+      <c r="AW146">
+        <v>5</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
+        <v>16</v>
+      </c>
+      <c r="AZ146">
+        <v>10</v>
+      </c>
+      <c r="BA146">
+        <v>6</v>
+      </c>
+      <c r="BB146">
+        <v>2</v>
+      </c>
+      <c r="BC146">
+        <v>8</v>
+      </c>
+      <c r="BD146">
+        <v>3.2</v>
+      </c>
+      <c r="BE146">
+        <v>7</v>
+      </c>
+      <c r="BF146">
+        <v>1.42</v>
+      </c>
+      <c r="BG146">
+        <v>1.33</v>
+      </c>
+      <c r="BH146">
+        <v>2.95</v>
+      </c>
+      <c r="BI146">
+        <v>1.56</v>
+      </c>
+      <c r="BJ146">
+        <v>2.23</v>
+      </c>
+      <c r="BK146">
+        <v>1.88</v>
+      </c>
+      <c r="BL146">
+        <v>1.78</v>
+      </c>
+      <c r="BM146">
+        <v>2.38</v>
+      </c>
+      <c r="BN146">
+        <v>1.48</v>
+      </c>
+      <c r="BO146">
+        <v>3.05</v>
+      </c>
+      <c r="BP146">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7574711</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45661.52083333334</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>84</v>
+      </c>
+      <c r="H147" t="s">
+        <v>71</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>182</v>
+      </c>
+      <c r="P147" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q147">
+        <v>2.55</v>
+      </c>
+      <c r="R147">
+        <v>2.05</v>
+      </c>
+      <c r="S147">
+        <v>5</v>
+      </c>
+      <c r="T147">
+        <v>1.48</v>
+      </c>
+      <c r="U147">
+        <v>2.45</v>
+      </c>
+      <c r="V147">
+        <v>3.4</v>
+      </c>
+      <c r="W147">
+        <v>1.28</v>
+      </c>
+      <c r="X147">
+        <v>9.4</v>
+      </c>
+      <c r="Y147">
+        <v>1.03</v>
+      </c>
+      <c r="Z147">
+        <v>1.83</v>
+      </c>
+      <c r="AA147">
+        <v>3.2</v>
+      </c>
+      <c r="AB147">
+        <v>4.5</v>
+      </c>
+      <c r="AC147">
+        <v>1.08</v>
+      </c>
+      <c r="AD147">
+        <v>8</v>
+      </c>
+      <c r="AE147">
+        <v>1.45</v>
+      </c>
+      <c r="AF147">
+        <v>2.7</v>
+      </c>
+      <c r="AG147">
+        <v>2.4</v>
+      </c>
+      <c r="AH147">
+        <v>1.5</v>
+      </c>
+      <c r="AI147">
+        <v>2.1</v>
+      </c>
+      <c r="AJ147">
+        <v>1.68</v>
+      </c>
+      <c r="AK147">
+        <v>1.2</v>
+      </c>
+      <c r="AL147">
+        <v>1.25</v>
+      </c>
+      <c r="AM147">
+        <v>2</v>
+      </c>
+      <c r="AN147">
+        <v>2</v>
+      </c>
+      <c r="AO147">
+        <v>0.57</v>
+      </c>
+      <c r="AP147">
+        <v>1.88</v>
+      </c>
+      <c r="AQ147">
+        <v>0.63</v>
+      </c>
+      <c r="AR147">
+        <v>1.11</v>
+      </c>
+      <c r="AS147">
+        <v>0.97</v>
+      </c>
+      <c r="AT147">
+        <v>2.08</v>
+      </c>
+      <c r="AU147">
+        <v>6</v>
+      </c>
+      <c r="AV147">
+        <v>3</v>
+      </c>
+      <c r="AW147">
+        <v>3</v>
+      </c>
+      <c r="AX147">
+        <v>7</v>
+      </c>
+      <c r="AY147">
+        <v>12</v>
+      </c>
+      <c r="AZ147">
+        <v>18</v>
+      </c>
+      <c r="BA147">
+        <v>3</v>
+      </c>
+      <c r="BB147">
+        <v>9</v>
+      </c>
+      <c r="BC147">
+        <v>12</v>
+      </c>
+      <c r="BD147">
+        <v>1.6</v>
+      </c>
+      <c r="BE147">
+        <v>6.75</v>
+      </c>
+      <c r="BF147">
+        <v>2.55</v>
+      </c>
+      <c r="BG147">
+        <v>1.3</v>
+      </c>
+      <c r="BH147">
+        <v>3.05</v>
+      </c>
+      <c r="BI147">
+        <v>1.53</v>
+      </c>
+      <c r="BJ147">
+        <v>2.28</v>
+      </c>
+      <c r="BK147">
+        <v>1.87</v>
+      </c>
+      <c r="BL147">
+        <v>1.8</v>
+      </c>
+      <c r="BM147">
+        <v>2.35</v>
+      </c>
+      <c r="BN147">
+        <v>1.5</v>
+      </c>
+      <c r="BO147">
+        <v>3.05</v>
+      </c>
+      <c r="BP147">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7574714</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45661.625</v>
+      </c>
+      <c r="F148">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>83</v>
+      </c>
+      <c r="H148" t="s">
+        <v>77</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>183</v>
+      </c>
+      <c r="P148" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q148">
+        <v>1.91</v>
+      </c>
+      <c r="R148">
+        <v>2.5</v>
+      </c>
+      <c r="S148">
+        <v>6.5</v>
+      </c>
+      <c r="T148">
+        <v>1.3</v>
+      </c>
+      <c r="U148">
+        <v>3.4</v>
+      </c>
+      <c r="V148">
+        <v>2.38</v>
+      </c>
+      <c r="W148">
+        <v>1.53</v>
+      </c>
+      <c r="X148">
+        <v>6</v>
+      </c>
+      <c r="Y148">
+        <v>1.13</v>
+      </c>
+      <c r="Z148">
+        <v>1.43</v>
+      </c>
+      <c r="AA148">
+        <v>4.75</v>
+      </c>
+      <c r="AB148">
+        <v>6</v>
+      </c>
+      <c r="AC148">
+        <v>1.04</v>
+      </c>
+      <c r="AD148">
+        <v>10</v>
+      </c>
+      <c r="AE148">
+        <v>1.2</v>
+      </c>
+      <c r="AF148">
+        <v>4.33</v>
+      </c>
+      <c r="AG148">
+        <v>1.57</v>
+      </c>
+      <c r="AH148">
+        <v>2.25</v>
+      </c>
+      <c r="AI148">
+        <v>1.8</v>
+      </c>
+      <c r="AJ148">
+        <v>1.95</v>
+      </c>
+      <c r="AK148">
+        <v>1.11</v>
+      </c>
+      <c r="AL148">
+        <v>1.18</v>
+      </c>
+      <c r="AM148">
+        <v>2.75</v>
+      </c>
+      <c r="AN148">
+        <v>3</v>
+      </c>
+      <c r="AO148">
+        <v>2.29</v>
+      </c>
+      <c r="AP148">
+        <v>2.67</v>
+      </c>
+      <c r="AQ148">
+        <v>2.38</v>
+      </c>
+      <c r="AR148">
+        <v>2.01</v>
+      </c>
+      <c r="AS148">
+        <v>1.54</v>
+      </c>
+      <c r="AT148">
+        <v>3.55</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>3</v>
+      </c>
+      <c r="AW148">
+        <v>10</v>
+      </c>
+      <c r="AX148">
+        <v>2</v>
+      </c>
+      <c r="AY148">
+        <v>22</v>
+      </c>
+      <c r="AZ148">
+        <v>7</v>
+      </c>
+      <c r="BA148">
+        <v>8</v>
+      </c>
+      <c r="BB148">
+        <v>2</v>
+      </c>
+      <c r="BC148">
+        <v>10</v>
+      </c>
+      <c r="BD148">
+        <v>1.3</v>
+      </c>
+      <c r="BE148">
+        <v>10</v>
+      </c>
+      <c r="BF148">
+        <v>4.42</v>
+      </c>
+      <c r="BG148">
+        <v>1.2</v>
+      </c>
+      <c r="BH148">
+        <v>4.2</v>
+      </c>
+      <c r="BI148">
+        <v>1.38</v>
+      </c>
+      <c r="BJ148">
+        <v>2.88</v>
+      </c>
+      <c r="BK148">
+        <v>1.63</v>
+      </c>
+      <c r="BL148">
+        <v>2.18</v>
+      </c>
+      <c r="BM148">
+        <v>2.02</v>
+      </c>
+      <c r="BN148">
+        <v>1.74</v>
+      </c>
+      <c r="BO148">
+        <v>2.57</v>
+      </c>
+      <c r="BP148">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7574709</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45661.72916666666</v>
+      </c>
+      <c r="F149">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>86</v>
+      </c>
+      <c r="H149" t="s">
+        <v>78</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149" t="s">
+        <v>184</v>
+      </c>
+      <c r="P149" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q149">
+        <v>3.5</v>
+      </c>
+      <c r="R149">
+        <v>2.05</v>
+      </c>
+      <c r="S149">
+        <v>3.3</v>
+      </c>
+      <c r="T149">
+        <v>1.46</v>
+      </c>
+      <c r="U149">
+        <v>2.55</v>
+      </c>
+      <c r="V149">
+        <v>3.25</v>
+      </c>
+      <c r="W149">
+        <v>1.3</v>
+      </c>
+      <c r="X149">
+        <v>8.9</v>
+      </c>
+      <c r="Y149">
+        <v>1.04</v>
+      </c>
+      <c r="Z149">
+        <v>2.75</v>
+      </c>
+      <c r="AA149">
+        <v>3</v>
+      </c>
+      <c r="AB149">
+        <v>2.6</v>
+      </c>
+      <c r="AC149">
+        <v>1.07</v>
+      </c>
+      <c r="AD149">
+        <v>9</v>
+      </c>
+      <c r="AE149">
+        <v>1.42</v>
+      </c>
+      <c r="AF149">
+        <v>2.85</v>
+      </c>
+      <c r="AG149">
+        <v>2.25</v>
+      </c>
+      <c r="AH149">
+        <v>1.57</v>
+      </c>
+      <c r="AI149">
+        <v>1.9</v>
+      </c>
+      <c r="AJ149">
+        <v>1.83</v>
+      </c>
+      <c r="AK149">
+        <v>1.52</v>
+      </c>
+      <c r="AL149">
+        <v>1.28</v>
+      </c>
+      <c r="AM149">
+        <v>1.45</v>
+      </c>
+      <c r="AN149">
+        <v>0.43</v>
+      </c>
+      <c r="AO149">
+        <v>0.5</v>
+      </c>
+      <c r="AP149">
+        <v>0.38</v>
+      </c>
+      <c r="AQ149">
+        <v>0.78</v>
+      </c>
+      <c r="AR149">
+        <v>1.35</v>
+      </c>
+      <c r="AS149">
+        <v>1.06</v>
+      </c>
+      <c r="AT149">
+        <v>2.41</v>
+      </c>
+      <c r="AU149">
+        <v>3</v>
+      </c>
+      <c r="AV149">
+        <v>5</v>
+      </c>
+      <c r="AW149">
+        <v>6</v>
+      </c>
+      <c r="AX149">
+        <v>7</v>
+      </c>
+      <c r="AY149">
+        <v>15</v>
+      </c>
+      <c r="AZ149">
+        <v>14</v>
+      </c>
+      <c r="BA149">
+        <v>3</v>
+      </c>
+      <c r="BB149">
+        <v>3</v>
+      </c>
+      <c r="BC149">
+        <v>6</v>
+      </c>
+      <c r="BD149">
+        <v>2.05</v>
+      </c>
+      <c r="BE149">
+        <v>6.4</v>
+      </c>
+      <c r="BF149">
+        <v>1.95</v>
+      </c>
+      <c r="BG149">
+        <v>1.33</v>
+      </c>
+      <c r="BH149">
+        <v>2.95</v>
+      </c>
+      <c r="BI149">
+        <v>1.56</v>
+      </c>
+      <c r="BJ149">
+        <v>2.2</v>
+      </c>
+      <c r="BK149">
+        <v>1.93</v>
+      </c>
+      <c r="BL149">
+        <v>1.74</v>
+      </c>
+      <c r="BM149">
+        <v>2.43</v>
+      </c>
+      <c r="BN149">
+        <v>1.47</v>
+      </c>
+      <c r="BO149">
+        <v>3.15</v>
+      </c>
+      <c r="BP149">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,12 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['57', '70']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -788,6 +794,9 @@
   </si>
   <si>
     <t>['45+7', '90+5', '90+8']</t>
+  </si>
+  <si>
+    <t>['15', '25', '31', '76']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1614,7 +1623,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1898,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2232,7 +2241,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2644,7 +2653,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3262,7 +3271,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3340,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ11">
         <v>1.86</v>
@@ -3468,7 +3477,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3755,7 +3764,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3880,7 +3889,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4292,7 +4301,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4579,7 +4588,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ17">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4704,7 +4713,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4910,7 +4919,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4988,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ19">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5116,7 +5125,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5322,7 +5331,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5400,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -6970,7 +6979,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7176,7 +7185,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7254,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ30">
         <v>0.63</v>
@@ -7382,7 +7391,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7460,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ31">
         <v>1.38</v>
@@ -7669,7 +7678,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ32">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR32">
         <v>0.64</v>
@@ -8081,7 +8090,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR34">
         <v>1.18</v>
@@ -8412,7 +8421,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8493,7 +8502,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.59</v>
@@ -8824,7 +8833,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9030,7 +9039,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9108,7 +9117,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ39">
         <v>0.78</v>
@@ -9442,7 +9451,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9648,7 +9657,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9854,7 +9863,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -9935,7 +9944,7 @@
         <v>3</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR43">
         <v>2.13</v>
@@ -10266,7 +10275,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10472,7 +10481,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10550,7 +10559,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10678,7 +10687,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10884,7 +10893,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -10965,7 +10974,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11168,7 +11177,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ49">
         <v>0.25</v>
@@ -11296,7 +11305,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11583,7 +11592,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.08</v>
@@ -11708,7 +11717,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11914,7 +11923,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12326,7 +12335,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12532,7 +12541,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12738,7 +12747,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12816,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57">
         <v>0.78</v>
@@ -12944,7 +12953,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13022,7 +13031,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ58">
         <v>1.11</v>
@@ -13150,7 +13159,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -14052,7 +14061,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14261,7 +14270,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR64">
         <v>1.27</v>
@@ -14467,7 +14476,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -15497,7 +15506,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ70">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15622,7 +15631,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15828,7 +15837,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16112,7 +16121,7 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
         <v>0.33</v>
@@ -16240,7 +16249,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16318,7 +16327,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16446,7 +16455,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16652,7 +16661,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16858,7 +16867,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17145,7 +17154,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR78">
         <v>1.68</v>
@@ -17476,7 +17485,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17554,7 +17563,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>1.11</v>
@@ -17682,7 +17691,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17888,7 +17897,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18094,7 +18103,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18300,7 +18309,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18506,7 +18515,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18712,7 +18721,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -18793,7 +18802,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ86">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR86">
         <v>1.12</v>
@@ -19124,7 +19133,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19411,7 +19420,7 @@
         <v>3</v>
       </c>
       <c r="AQ89">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR89">
         <v>2.03</v>
@@ -19742,7 +19751,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19948,7 +19957,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20026,10 +20035,10 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ92">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR92">
         <v>1.25</v>
@@ -20566,7 +20575,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -20850,7 +20859,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ96">
         <v>0.33</v>
@@ -21056,7 +21065,7 @@
         <v>1.6</v>
       </c>
       <c r="AP97">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ97">
         <v>1.11</v>
@@ -21184,7 +21193,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21802,7 +21811,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22214,7 +22223,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22420,7 +22429,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22501,7 +22510,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR104">
         <v>1</v>
@@ -22626,7 +22635,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22832,7 +22841,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23656,7 +23665,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23737,7 +23746,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ110">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR110">
         <v>1.54</v>
@@ -23862,7 +23871,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -24352,7 +24361,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ113">
         <v>0.38</v>
@@ -24767,7 +24776,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ115">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -24970,7 +24979,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ116">
         <v>0.63</v>
@@ -25098,7 +25107,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25176,7 +25185,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ117">
         <v>0.78</v>
@@ -25304,7 +25313,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -25716,7 +25725,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26128,7 +26137,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -26334,7 +26343,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26540,7 +26549,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26621,7 +26630,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ124">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR124">
         <v>1.55</v>
@@ -26952,7 +26961,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27158,7 +27167,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27364,7 +27373,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27442,7 +27451,7 @@
         <v>0.57</v>
       </c>
       <c r="AP128">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ128">
         <v>0.78</v>
@@ -27570,7 +27579,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27651,7 +27660,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ129">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR129">
         <v>1.02</v>
@@ -27982,7 +27991,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28188,7 +28197,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28266,7 +28275,7 @@
         <v>2.17</v>
       </c>
       <c r="AP132">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ132">
         <v>2.38</v>
@@ -28600,7 +28609,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -28887,7 +28896,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ135">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR135">
         <v>2.03</v>
@@ -29090,7 +29099,7 @@
         <v>0.43</v>
       </c>
       <c r="AP136">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ136">
         <v>0.38</v>
@@ -29424,7 +29433,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q138">
         <v>3.2</v>
@@ -29630,7 +29639,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30042,7 +30051,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30248,7 +30257,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30454,7 +30463,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -30866,7 +30875,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31072,7 +31081,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31278,7 +31287,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q147">
         <v>2.55</v>
@@ -31484,7 +31493,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -31690,7 +31699,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -31847,6 +31856,624 @@
       </c>
       <c r="BP149">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7574708</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45662.52083333334</v>
+      </c>
+      <c r="F150">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>79</v>
+      </c>
+      <c r="H150" t="s">
+        <v>76</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150" t="s">
+        <v>90</v>
+      </c>
+      <c r="P150" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q150">
+        <v>2.38</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>6</v>
+      </c>
+      <c r="T150">
+        <v>1.53</v>
+      </c>
+      <c r="U150">
+        <v>2.38</v>
+      </c>
+      <c r="V150">
+        <v>3.5</v>
+      </c>
+      <c r="W150">
+        <v>1.29</v>
+      </c>
+      <c r="X150">
+        <v>11</v>
+      </c>
+      <c r="Y150">
+        <v>1.05</v>
+      </c>
+      <c r="Z150">
+        <v>1.67</v>
+      </c>
+      <c r="AA150">
+        <v>3.4</v>
+      </c>
+      <c r="AB150">
+        <v>5.81</v>
+      </c>
+      <c r="AC150">
+        <v>1.09</v>
+      </c>
+      <c r="AD150">
+        <v>7</v>
+      </c>
+      <c r="AE150">
+        <v>1.48</v>
+      </c>
+      <c r="AF150">
+        <v>2.65</v>
+      </c>
+      <c r="AG150">
+        <v>2.36</v>
+      </c>
+      <c r="AH150">
+        <v>1.55</v>
+      </c>
+      <c r="AI150">
+        <v>2.2</v>
+      </c>
+      <c r="AJ150">
+        <v>1.62</v>
+      </c>
+      <c r="AK150">
+        <v>1.13</v>
+      </c>
+      <c r="AL150">
+        <v>1.25</v>
+      </c>
+      <c r="AM150">
+        <v>2.15</v>
+      </c>
+      <c r="AN150">
+        <v>2.25</v>
+      </c>
+      <c r="AO150">
+        <v>0.75</v>
+      </c>
+      <c r="AP150">
+        <v>2.11</v>
+      </c>
+      <c r="AQ150">
+        <v>0.78</v>
+      </c>
+      <c r="AR150">
+        <v>1.34</v>
+      </c>
+      <c r="AS150">
+        <v>1.08</v>
+      </c>
+      <c r="AT150">
+        <v>2.42</v>
+      </c>
+      <c r="AU150">
+        <v>7</v>
+      </c>
+      <c r="AV150">
+        <v>2</v>
+      </c>
+      <c r="AW150">
+        <v>8</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>18</v>
+      </c>
+      <c r="AZ150">
+        <v>3</v>
+      </c>
+      <c r="BA150">
+        <v>13</v>
+      </c>
+      <c r="BB150">
+        <v>2</v>
+      </c>
+      <c r="BC150">
+        <v>15</v>
+      </c>
+      <c r="BD150">
+        <v>1.28</v>
+      </c>
+      <c r="BE150">
+        <v>8</v>
+      </c>
+      <c r="BF150">
+        <v>3.95</v>
+      </c>
+      <c r="BG150">
+        <v>1.2</v>
+      </c>
+      <c r="BH150">
+        <v>3.8</v>
+      </c>
+      <c r="BI150">
+        <v>1.37</v>
+      </c>
+      <c r="BJ150">
+        <v>2.75</v>
+      </c>
+      <c r="BK150">
+        <v>1.61</v>
+      </c>
+      <c r="BL150">
+        <v>2.12</v>
+      </c>
+      <c r="BM150">
+        <v>1.95</v>
+      </c>
+      <c r="BN150">
+        <v>1.72</v>
+      </c>
+      <c r="BO150">
+        <v>2.43</v>
+      </c>
+      <c r="BP150">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7574715</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45662.625</v>
+      </c>
+      <c r="F151">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>72</v>
+      </c>
+      <c r="H151" t="s">
+        <v>75</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>185</v>
+      </c>
+      <c r="P151" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q151">
+        <v>3.25</v>
+      </c>
+      <c r="R151">
+        <v>1.91</v>
+      </c>
+      <c r="S151">
+        <v>4</v>
+      </c>
+      <c r="T151">
+        <v>1.57</v>
+      </c>
+      <c r="U151">
+        <v>2.25</v>
+      </c>
+      <c r="V151">
+        <v>3.75</v>
+      </c>
+      <c r="W151">
+        <v>1.25</v>
+      </c>
+      <c r="X151">
+        <v>13</v>
+      </c>
+      <c r="Y151">
+        <v>1.04</v>
+      </c>
+      <c r="Z151">
+        <v>2.4</v>
+      </c>
+      <c r="AA151">
+        <v>3</v>
+      </c>
+      <c r="AB151">
+        <v>3.17</v>
+      </c>
+      <c r="AC151">
+        <v>1.1</v>
+      </c>
+      <c r="AD151">
+        <v>6.5</v>
+      </c>
+      <c r="AE151">
+        <v>1.5</v>
+      </c>
+      <c r="AF151">
+        <v>2.4</v>
+      </c>
+      <c r="AG151">
+        <v>2.54</v>
+      </c>
+      <c r="AH151">
+        <v>1.48</v>
+      </c>
+      <c r="AI151">
+        <v>2.1</v>
+      </c>
+      <c r="AJ151">
+        <v>1.67</v>
+      </c>
+      <c r="AK151">
+        <v>1.36</v>
+      </c>
+      <c r="AL151">
+        <v>1.33</v>
+      </c>
+      <c r="AM151">
+        <v>1.53</v>
+      </c>
+      <c r="AN151">
+        <v>1.5</v>
+      </c>
+      <c r="AO151">
+        <v>1.29</v>
+      </c>
+      <c r="AP151">
+        <v>1.44</v>
+      </c>
+      <c r="AQ151">
+        <v>1.25</v>
+      </c>
+      <c r="AR151">
+        <v>1.25</v>
+      </c>
+      <c r="AS151">
+        <v>1.15</v>
+      </c>
+      <c r="AT151">
+        <v>2.4</v>
+      </c>
+      <c r="AU151">
+        <v>4</v>
+      </c>
+      <c r="AV151">
+        <v>15</v>
+      </c>
+      <c r="AW151">
+        <v>2</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>7</v>
+      </c>
+      <c r="AZ151">
+        <v>21</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>7</v>
+      </c>
+      <c r="BC151">
+        <v>12</v>
+      </c>
+      <c r="BD151">
+        <v>1.84</v>
+      </c>
+      <c r="BE151">
+        <v>6.4</v>
+      </c>
+      <c r="BF151">
+        <v>2.18</v>
+      </c>
+      <c r="BG151">
+        <v>1.4</v>
+      </c>
+      <c r="BH151">
+        <v>2.65</v>
+      </c>
+      <c r="BI151">
+        <v>1.68</v>
+      </c>
+      <c r="BJ151">
+        <v>2.02</v>
+      </c>
+      <c r="BK151">
+        <v>2.08</v>
+      </c>
+      <c r="BL151">
+        <v>1.63</v>
+      </c>
+      <c r="BM151">
+        <v>2.7</v>
+      </c>
+      <c r="BN151">
+        <v>1.38</v>
+      </c>
+      <c r="BO151">
+        <v>3.55</v>
+      </c>
+      <c r="BP151">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7574710</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45662.72916666666</v>
+      </c>
+      <c r="F152">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>87</v>
+      </c>
+      <c r="H152" t="s">
+        <v>74</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>3</v>
+      </c>
+      <c r="K152">
+        <v>3</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>4</v>
+      </c>
+      <c r="N152">
+        <v>6</v>
+      </c>
+      <c r="O152" t="s">
+        <v>186</v>
+      </c>
+      <c r="P152" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q152">
+        <v>3.1</v>
+      </c>
+      <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
+        <v>4</v>
+      </c>
+      <c r="T152">
+        <v>1.49</v>
+      </c>
+      <c r="U152">
+        <v>2.45</v>
+      </c>
+      <c r="V152">
+        <v>3.25</v>
+      </c>
+      <c r="W152">
+        <v>1.3</v>
+      </c>
+      <c r="X152">
+        <v>8.9</v>
+      </c>
+      <c r="Y152">
+        <v>1.04</v>
+      </c>
+      <c r="Z152">
+        <v>2.35</v>
+      </c>
+      <c r="AA152">
+        <v>3.1</v>
+      </c>
+      <c r="AB152">
+        <v>3.25</v>
+      </c>
+      <c r="AC152">
+        <v>1.08</v>
+      </c>
+      <c r="AD152">
+        <v>8</v>
+      </c>
+      <c r="AE152">
+        <v>1.42</v>
+      </c>
+      <c r="AF152">
+        <v>2.8</v>
+      </c>
+      <c r="AG152">
+        <v>2.3</v>
+      </c>
+      <c r="AH152">
+        <v>1.6</v>
+      </c>
+      <c r="AI152">
+        <v>1.95</v>
+      </c>
+      <c r="AJ152">
+        <v>1.8</v>
+      </c>
+      <c r="AK152">
+        <v>1.35</v>
+      </c>
+      <c r="AL152">
+        <v>1.3</v>
+      </c>
+      <c r="AM152">
+        <v>1.62</v>
+      </c>
+      <c r="AN152">
+        <v>1.75</v>
+      </c>
+      <c r="AO152">
+        <v>0.43</v>
+      </c>
+      <c r="AP152">
+        <v>1.56</v>
+      </c>
+      <c r="AQ152">
+        <v>0.75</v>
+      </c>
+      <c r="AR152">
+        <v>1.17</v>
+      </c>
+      <c r="AS152">
+        <v>1</v>
+      </c>
+      <c r="AT152">
+        <v>2.17</v>
+      </c>
+      <c r="AU152">
+        <v>5</v>
+      </c>
+      <c r="AV152">
+        <v>9</v>
+      </c>
+      <c r="AW152">
+        <v>3</v>
+      </c>
+      <c r="AX152">
+        <v>5</v>
+      </c>
+      <c r="AY152">
+        <v>10</v>
+      </c>
+      <c r="AZ152">
+        <v>15</v>
+      </c>
+      <c r="BA152">
+        <v>3</v>
+      </c>
+      <c r="BB152">
+        <v>3</v>
+      </c>
+      <c r="BC152">
+        <v>6</v>
+      </c>
+      <c r="BD152">
+        <v>1.68</v>
+      </c>
+      <c r="BE152">
+        <v>6.75</v>
+      </c>
+      <c r="BF152">
+        <v>2.4</v>
+      </c>
+      <c r="BG152">
+        <v>1.2</v>
+      </c>
+      <c r="BH152">
+        <v>3.8</v>
+      </c>
+      <c r="BI152">
+        <v>1.37</v>
+      </c>
+      <c r="BJ152">
+        <v>2.75</v>
+      </c>
+      <c r="BK152">
+        <v>1.61</v>
+      </c>
+      <c r="BL152">
+        <v>2.12</v>
+      </c>
+      <c r="BM152">
+        <v>1.97</v>
+      </c>
+      <c r="BN152">
+        <v>1.71</v>
+      </c>
+      <c r="BO152">
+        <v>2.48</v>
+      </c>
+      <c r="BP152">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -31389,13 +31389,13 @@
         <v>3</v>
       </c>
       <c r="AX147">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY147">
         <v>12</v>
       </c>
       <c r="AZ147">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA147">
         <v>3</v>
@@ -31795,7 +31795,7 @@
         <v>3</v>
       </c>
       <c r="AV149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW149">
         <v>6</v>
@@ -31807,7 +31807,7 @@
         <v>15</v>
       </c>
       <c r="AZ149">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA149">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,9 @@
     <t>['57', '70']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -797,6 +800,9 @@
   </si>
   <si>
     <t>['15', '25', '31', '76']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1498,7 +1504,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ2">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1623,7 +1629,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2241,7 +2247,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2653,7 +2659,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3271,7 +3277,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3477,7 +3483,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3555,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ12">
         <v>0.63</v>
@@ -3889,7 +3895,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4301,7 +4307,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4713,7 +4719,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4919,7 +4925,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5125,7 +5131,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5331,7 +5337,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5618,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="AQ22">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -6979,7 +6985,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7185,7 +7191,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7391,7 +7397,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8421,7 +8427,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8705,7 +8711,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37">
         <v>2.38</v>
@@ -8833,7 +8839,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9039,7 +9045,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9326,7 +9332,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ40">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9451,7 +9457,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9657,7 +9663,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -9863,7 +9869,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10275,7 +10281,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10481,7 +10487,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10687,7 +10693,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10893,7 +10899,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11305,7 +11311,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11717,7 +11723,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11795,7 +11801,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ52">
         <v>1.38</v>
@@ -11923,7 +11929,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -12335,7 +12341,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12541,7 +12547,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12747,7 +12753,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>3.6</v>
@@ -12953,7 +12959,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13159,7 +13165,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13858,7 +13864,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR62">
         <v>1.53</v>
@@ -14679,7 +14685,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ66">
         <v>0.25</v>
@@ -15631,7 +15637,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15837,7 +15843,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16249,7 +16255,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16455,7 +16461,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16661,7 +16667,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16867,7 +16873,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17360,7 +17366,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ79">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR79">
         <v>2.16</v>
@@ -17485,7 +17491,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17691,7 +17697,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -17897,7 +17903,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18103,7 +18109,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18309,7 +18315,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18515,7 +18521,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18593,7 +18599,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18721,7 +18727,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19133,7 +19139,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19751,7 +19757,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -19957,7 +19963,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20575,7 +20581,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -20656,7 +20662,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ95">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR95">
         <v>1.16</v>
@@ -21193,7 +21199,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21811,7 +21817,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22223,7 +22229,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22429,7 +22435,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22635,7 +22641,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -22841,7 +22847,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>5.5</v>
@@ -23665,7 +23671,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -23871,7 +23877,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q111">
         <v>2.75</v>
@@ -23949,7 +23955,7 @@
         <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ111">
         <v>0.33</v>
@@ -24364,7 +24370,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ113">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR113">
         <v>1.38</v>
@@ -25107,7 +25113,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25313,7 +25319,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>3.5</v>
@@ -25725,7 +25731,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26137,7 +26143,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -26343,7 +26349,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26549,7 +26555,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26961,7 +26967,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27167,7 +27173,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27373,7 +27379,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27579,7 +27585,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27991,7 +27997,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28197,7 +28203,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28481,7 +28487,7 @@
         <v>2.57</v>
       </c>
       <c r="AP133">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ133">
         <v>2.22</v>
@@ -28609,7 +28615,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29102,7 +29108,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ136">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR136">
         <v>1.19</v>
@@ -29433,7 +29439,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q138">
         <v>3.2</v>
@@ -29639,7 +29645,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30051,7 +30057,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30257,7 +30263,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30463,7 +30469,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -30875,7 +30881,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31081,7 +31087,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31287,7 +31293,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q147">
         <v>2.55</v>
@@ -31389,13 +31395,13 @@
         <v>3</v>
       </c>
       <c r="AX147">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY147">
         <v>12</v>
       </c>
       <c r="AZ147">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA147">
         <v>3</v>
@@ -31493,7 +31499,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -31699,7 +31705,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -31795,7 +31801,7 @@
         <v>3</v>
       </c>
       <c r="AV149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW149">
         <v>6</v>
@@ -31807,7 +31813,7 @@
         <v>15</v>
       </c>
       <c r="AZ149">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA149">
         <v>3</v>
@@ -32111,7 +32117,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32317,7 +32323,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32474,6 +32480,212 @@
       </c>
       <c r="BP152">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7574712</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45663.71875</v>
+      </c>
+      <c r="F153">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>80</v>
+      </c>
+      <c r="H153" t="s">
+        <v>81</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>187</v>
+      </c>
+      <c r="P153" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q153">
+        <v>2.88</v>
+      </c>
+      <c r="R153">
+        <v>2.05</v>
+      </c>
+      <c r="S153">
+        <v>4</v>
+      </c>
+      <c r="T153">
+        <v>1.44</v>
+      </c>
+      <c r="U153">
+        <v>2.63</v>
+      </c>
+      <c r="V153">
+        <v>3.4</v>
+      </c>
+      <c r="W153">
+        <v>1.3</v>
+      </c>
+      <c r="X153">
+        <v>10</v>
+      </c>
+      <c r="Y153">
+        <v>1.06</v>
+      </c>
+      <c r="Z153">
+        <v>2.2</v>
+      </c>
+      <c r="AA153">
+        <v>3.1</v>
+      </c>
+      <c r="AB153">
+        <v>3.3</v>
+      </c>
+      <c r="AC153">
+        <v>1.07</v>
+      </c>
+      <c r="AD153">
+        <v>8.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.38</v>
+      </c>
+      <c r="AF153">
+        <v>3</v>
+      </c>
+      <c r="AG153">
+        <v>2.1</v>
+      </c>
+      <c r="AH153">
+        <v>1.67</v>
+      </c>
+      <c r="AI153">
+        <v>1.91</v>
+      </c>
+      <c r="AJ153">
+        <v>1.91</v>
+      </c>
+      <c r="AK153">
+        <v>1.3</v>
+      </c>
+      <c r="AL153">
+        <v>1.3</v>
+      </c>
+      <c r="AM153">
+        <v>1.68</v>
+      </c>
+      <c r="AN153">
+        <v>1.71</v>
+      </c>
+      <c r="AO153">
+        <v>0.38</v>
+      </c>
+      <c r="AP153">
+        <v>1.63</v>
+      </c>
+      <c r="AQ153">
+        <v>0.44</v>
+      </c>
+      <c r="AR153">
+        <v>1.2</v>
+      </c>
+      <c r="AS153">
+        <v>0.86</v>
+      </c>
+      <c r="AT153">
+        <v>2.06</v>
+      </c>
+      <c r="AU153">
+        <v>5</v>
+      </c>
+      <c r="AV153">
+        <v>5</v>
+      </c>
+      <c r="AW153">
+        <v>8</v>
+      </c>
+      <c r="AX153">
+        <v>5</v>
+      </c>
+      <c r="AY153">
+        <v>14</v>
+      </c>
+      <c r="AZ153">
+        <v>16</v>
+      </c>
+      <c r="BA153">
+        <v>4</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>8</v>
+      </c>
+      <c r="BD153">
+        <v>1.51</v>
+      </c>
+      <c r="BE153">
+        <v>8.9</v>
+      </c>
+      <c r="BF153">
+        <v>3.22</v>
+      </c>
+      <c r="BG153">
+        <v>1.23</v>
+      </c>
+      <c r="BH153">
+        <v>3.42</v>
+      </c>
+      <c r="BI153">
+        <v>1.46</v>
+      </c>
+      <c r="BJ153">
+        <v>2.45</v>
+      </c>
+      <c r="BK153">
+        <v>1.82</v>
+      </c>
+      <c r="BL153">
+        <v>1.88</v>
+      </c>
+      <c r="BM153">
+        <v>2.32</v>
+      </c>
+      <c r="BN153">
+        <v>1.51</v>
+      </c>
+      <c r="BO153">
+        <v>3.08</v>
+      </c>
+      <c r="BP153">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20242025.xlsx
@@ -32225,7 +32225,7 @@
         <v>7</v>
       </c>
       <c r="AZ151">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA151">
         <v>5</v>
@@ -32428,7 +32428,7 @@
         <v>5</v>
       </c>
       <c r="AY152">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ152">
         <v>15</v>
@@ -32437,10 +32437,10 @@
         <v>3</v>
       </c>
       <c r="BB152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC152">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD152">
         <v>1.68</v>
@@ -32637,7 +32637,7 @@
         <v>14</v>
       </c>
       <c r="AZ153">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA153">
         <v>4</v>
